--- a/outcome/appendix/forecast/AHC.xlsx
+++ b/outcome/appendix/forecast/AHC.xlsx
@@ -47,10 +47,10 @@
     <t xml:space="preserve">AHC</t>
   </si>
   <si>
-    <t xml:space="preserve">Decrease</t>
+    <t xml:space="preserve">Increase</t>
   </si>
   <si>
-    <t xml:space="preserve">Increase</t>
+    <t xml:space="preserve">Decrease</t>
   </si>
 </sst>
 </file>
@@ -427,19 +427,19 @@
         <v>43831</v>
       </c>
       <c r="B2" t="n">
-        <v>2437.18117425089</v>
+        <v>1945.64144480256</v>
       </c>
       <c r="C2" t="n">
-        <v>1766.84769899761</v>
+        <v>1402.45845867814</v>
       </c>
       <c r="D2" t="n">
-        <v>1517.28043233968</v>
+        <v>1201.45791741029</v>
       </c>
       <c r="E2" t="n">
-        <v>3562.87483211792</v>
+        <v>2867.15868187678</v>
       </c>
       <c r="F2" t="n">
-        <v>4496.0858748862</v>
+        <v>3638.76778486878</v>
       </c>
       <c r="G2" t="s">
         <v>10</v>
@@ -448,7 +448,7 @@
         <v>2139</v>
       </c>
       <c r="I2" t="n">
-        <v>298.181174250887</v>
+        <v>-193.358555197435</v>
       </c>
       <c r="J2" t="s">
         <v>11</v>
@@ -459,19 +459,19 @@
         <v>43862</v>
       </c>
       <c r="B3" t="n">
-        <v>2170.50129778826</v>
+        <v>1628.99858391204</v>
       </c>
       <c r="C3" t="n">
-        <v>1420.88350739182</v>
+        <v>1074.38963336526</v>
       </c>
       <c r="D3" t="n">
-        <v>1170.35471458766</v>
+        <v>887.573974421664</v>
       </c>
       <c r="E3" t="n">
-        <v>3690.61708762318</v>
+        <v>2737.67969587088</v>
       </c>
       <c r="F3" t="n">
-        <v>5219.20965053792</v>
+        <v>3835.60113282424</v>
       </c>
       <c r="G3" t="s">
         <v>10</v>
@@ -480,7 +480,7 @@
         <v>1672</v>
       </c>
       <c r="I3" t="n">
-        <v>498.50129778826</v>
+        <v>-43.0014160879641</v>
       </c>
       <c r="J3" t="s">
         <v>11</v>
@@ -491,19 +491,19 @@
         <v>43891</v>
       </c>
       <c r="B4" t="n">
-        <v>3483.72870580054</v>
+        <v>3016.25491429919</v>
       </c>
       <c r="C4" t="n">
-        <v>1960.12033825896</v>
+        <v>1582.26540413731</v>
       </c>
       <c r="D4" t="n">
-        <v>1525.17838852759</v>
+        <v>1201.36071887594</v>
       </c>
       <c r="E4" t="n">
-        <v>7702.58931477048</v>
+        <v>7678.66909869758</v>
       </c>
       <c r="F4" t="n">
-        <v>13811.2245683462</v>
+        <v>16058.0887576839</v>
       </c>
       <c r="G4" t="s">
         <v>10</v>
@@ -512,10 +512,10 @@
         <v>2011</v>
       </c>
       <c r="I4" t="n">
-        <v>1472.72870580054</v>
+        <v>1005.25491429919</v>
       </c>
       <c r="J4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5">
@@ -523,19 +523,19 @@
         <v>43922</v>
       </c>
       <c r="B5" t="n">
-        <v>3752.78009567485</v>
+        <v>3903.27104306194</v>
       </c>
       <c r="C5" t="n">
-        <v>2017.17762872023</v>
+        <v>1739.64431240911</v>
       </c>
       <c r="D5" t="n">
-        <v>1544.4902490973</v>
+        <v>1252.70562302873</v>
       </c>
       <c r="E5" t="n">
-        <v>9082.00069239589</v>
+        <v>14720.0372550758</v>
       </c>
       <c r="F5" t="n">
-        <v>17926.9975776348</v>
+        <v>54874.0660984578</v>
       </c>
       <c r="G5" t="s">
         <v>10</v>
@@ -544,10 +544,10 @@
         <v>2230</v>
       </c>
       <c r="I5" t="n">
-        <v>1522.78009567485</v>
+        <v>1673.27104306194</v>
       </c>
       <c r="J5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6">
@@ -555,19 +555,19 @@
         <v>43952</v>
       </c>
       <c r="B6" t="n">
-        <v>4600.9811946413</v>
+        <v>4679.01967112684</v>
       </c>
       <c r="C6" t="n">
-        <v>2308.75751754495</v>
+        <v>1809.7782935037</v>
       </c>
       <c r="D6" t="n">
-        <v>1726.90671081583</v>
+        <v>1249.72720044534</v>
       </c>
       <c r="E6" t="n">
-        <v>12907.9880830416</v>
+        <v>27627.8036114304</v>
       </c>
       <c r="F6" t="n">
-        <v>30426.1894402806</v>
+        <v>349246.816018609</v>
       </c>
       <c r="G6" t="s">
         <v>10</v>
@@ -576,10 +576,10 @@
         <v>2468</v>
       </c>
       <c r="I6" t="n">
-        <v>2132.9811946413</v>
+        <v>2211.01967112684</v>
       </c>
       <c r="J6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7">
@@ -587,20 +587,18 @@
         <v>43983</v>
       </c>
       <c r="B7" t="n">
-        <v>5307.09366551255</v>
+        <v>5702.72274861428</v>
       </c>
       <c r="C7" t="n">
-        <v>2536.18875927484</v>
+        <v>1898.54742543883</v>
       </c>
       <c r="D7" t="n">
-        <v>1866.93305423753</v>
+        <v>1258.90299102099</v>
       </c>
       <c r="E7" t="n">
-        <v>16700.7783752717</v>
-      </c>
-      <c r="F7" t="n">
-        <v>46147.7508725017</v>
-      </c>
+        <v>65130.6867011514</v>
+      </c>
+      <c r="F7"/>
       <c r="G7" t="s">
         <v>10</v>
       </c>
@@ -608,10 +606,10 @@
         <v>2788</v>
       </c>
       <c r="I7" t="n">
-        <v>2519.09366551255</v>
+        <v>2914.72274861428</v>
       </c>
       <c r="J7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8">
@@ -619,20 +617,18 @@
         <v>44013</v>
       </c>
       <c r="B8" t="n">
-        <v>5711.39055135947</v>
+        <v>7261.14729839828</v>
       </c>
       <c r="C8" t="n">
-        <v>2658.76895895023</v>
+        <v>2031.86392597682</v>
       </c>
       <c r="D8" t="n">
-        <v>1940.8238234157</v>
+        <v>1291.01716009133</v>
       </c>
       <c r="E8" t="n">
-        <v>19190.1234815204</v>
-      </c>
-      <c r="F8" t="n">
-        <v>58642.3120586667</v>
-      </c>
+        <v>303630.676784503</v>
+      </c>
+      <c r="F8"/>
       <c r="G8" t="s">
         <v>10</v>
       </c>
@@ -640,10 +636,10 @@
         <v>2561</v>
       </c>
       <c r="I8" t="n">
-        <v>3150.39055135947</v>
+        <v>4700.14729839828</v>
       </c>
       <c r="J8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9">
@@ -651,20 +647,18 @@
         <v>44044</v>
       </c>
       <c r="B9" t="n">
-        <v>4924.1928461031</v>
+        <v>8571.4612741265</v>
       </c>
       <c r="C9" t="n">
-        <v>2390.4365841475</v>
+        <v>2075.54541750403</v>
       </c>
       <c r="D9" t="n">
-        <v>1768.61641061267</v>
+        <v>1276.78099754745</v>
       </c>
       <c r="E9" t="n">
-        <v>14919.4981673996</v>
-      </c>
-      <c r="F9" t="n">
-        <v>39028.6154607549</v>
-      </c>
+        <v>7518712.8778815</v>
+      </c>
+      <c r="F9"/>
       <c r="G9" t="s">
         <v>10</v>
       </c>
@@ -672,10 +666,10 @@
         <v>2561</v>
       </c>
       <c r="I9" t="n">
-        <v>2363.1928461031</v>
+        <v>6010.4612741265</v>
       </c>
       <c r="J9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10">
@@ -683,20 +677,16 @@
         <v>44075</v>
       </c>
       <c r="B10" t="n">
-        <v>4230.7106792183</v>
+        <v>11885.4826304799</v>
       </c>
       <c r="C10" t="n">
-        <v>2141.66196257815</v>
+        <v>2279.91281062772</v>
       </c>
       <c r="D10" t="n">
-        <v>1606.61523114213</v>
-      </c>
-      <c r="E10" t="n">
-        <v>11637.4802628724</v>
-      </c>
-      <c r="F10" t="n">
-        <v>26746.0150293691</v>
-      </c>
+        <v>1338.3945485022</v>
+      </c>
+      <c r="E10"/>
+      <c r="F10"/>
       <c r="G10" t="s">
         <v>10</v>
       </c>
@@ -704,10 +694,10 @@
         <v>2549</v>
       </c>
       <c r="I10" t="n">
-        <v>1681.7106792183</v>
+        <v>9336.48263047994</v>
       </c>
       <c r="J10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11">
@@ -715,20 +705,18 @@
         <v>44105</v>
       </c>
       <c r="B11" t="n">
-        <v>3827.14860372792</v>
+        <v>6012.25113166438</v>
       </c>
       <c r="C11" t="n">
-        <v>1989.73014743041</v>
+        <v>1542.18461459871</v>
       </c>
       <c r="D11" t="n">
-        <v>1506.12389893954</v>
+        <v>960.678077431697</v>
       </c>
       <c r="E11" t="n">
-        <v>9930.7904492865</v>
-      </c>
-      <c r="F11" t="n">
-        <v>21241.779983031</v>
-      </c>
+        <v>897897.463070358</v>
+      </c>
+      <c r="F11"/>
       <c r="G11" t="s">
         <v>10</v>
       </c>
@@ -736,10 +724,10 @@
         <v>2298</v>
       </c>
       <c r="I11" t="n">
-        <v>1529.14860372792</v>
+        <v>3714.25113166438</v>
       </c>
       <c r="J11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12">
@@ -747,20 +735,18 @@
         <v>44136</v>
       </c>
       <c r="B12" t="n">
-        <v>3898.26558034567</v>
+        <v>3781.14949373594</v>
       </c>
       <c r="C12" t="n">
-        <v>2016.17432378691</v>
+        <v>1143.88286409215</v>
       </c>
       <c r="D12" t="n">
-        <v>1523.44405755399</v>
+        <v>740.463243678927</v>
       </c>
       <c r="E12" t="n">
-        <v>10229.3804660012</v>
-      </c>
-      <c r="F12" t="n">
-        <v>22177.0199307394</v>
-      </c>
+        <v>78897.5690352027</v>
+      </c>
+      <c r="F12"/>
       <c r="G12" t="s">
         <v>10</v>
       </c>
@@ -768,10 +754,10 @@
         <v>2538</v>
       </c>
       <c r="I12" t="n">
-        <v>1360.26558034567</v>
+        <v>1243.14949373594</v>
       </c>
       <c r="J12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13">
@@ -779,20 +765,18 @@
         <v>44166</v>
       </c>
       <c r="B13" t="n">
-        <v>3749.10329516304</v>
+        <v>3060.1738602725</v>
       </c>
       <c r="C13" t="n">
-        <v>1959.03248032142</v>
+        <v>974.237994155916</v>
       </c>
       <c r="D13" t="n">
-        <v>1485.44300245904</v>
+        <v>638.677870712424</v>
       </c>
       <c r="E13" t="n">
-        <v>9623.79492589555</v>
-      </c>
-      <c r="F13" t="n">
-        <v>20322.9523741933</v>
-      </c>
+        <v>45186.8059147221</v>
+      </c>
+      <c r="F13"/>
       <c r="G13" t="s">
         <v>10</v>
       </c>
@@ -800,10 +784,10 @@
         <v>2583</v>
       </c>
       <c r="I13" t="n">
-        <v>1166.10329516304</v>
+        <v>477.173860272498</v>
       </c>
       <c r="J13" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14">
@@ -811,19 +795,19 @@
         <v>44197</v>
       </c>
       <c r="B14" t="n">
-        <v>2989.70894468367</v>
+        <v>1952.89054830662</v>
       </c>
       <c r="C14" t="n">
-        <v>1642.24991517918</v>
+        <v>718.898811131472</v>
       </c>
       <c r="D14" t="n">
-        <v>1266.99625309023</v>
+        <v>489.63185626132</v>
       </c>
       <c r="E14" t="n">
-        <v>6926.60513314803</v>
+        <v>13954.5398174656</v>
       </c>
       <c r="F14" t="n">
-        <v>13039.0056089091</v>
+        <v>496609.334874462</v>
       </c>
       <c r="G14" t="s">
         <v>10</v>
@@ -832,7 +816,7 @@
         <v>2305</v>
       </c>
       <c r="I14" t="n">
-        <v>684.708944683673</v>
+        <v>-352.109451693377</v>
       </c>
       <c r="J14" t="s">
         <v>11</v>
@@ -843,19 +827,19 @@
         <v>44228</v>
       </c>
       <c r="B15" t="n">
-        <v>2222.72782320966</v>
+        <v>1634.35973931528</v>
       </c>
       <c r="C15" t="n">
-        <v>1300.20604241799</v>
+        <v>624.421895107958</v>
       </c>
       <c r="D15" t="n">
-        <v>1026.04830723165</v>
+        <v>429.69722337457</v>
       </c>
       <c r="E15" t="n">
-        <v>4570.84472772677</v>
+        <v>10098.7543786563</v>
       </c>
       <c r="F15" t="n">
-        <v>7631.8627986097</v>
+        <v>155461.470311291</v>
       </c>
       <c r="G15" t="s">
         <v>10</v>
@@ -864,7 +848,7 @@
         <v>1873</v>
       </c>
       <c r="I15" t="n">
-        <v>349.727823209664</v>
+        <v>-238.640260684718</v>
       </c>
       <c r="J15" t="s">
         <v>11</v>
@@ -875,20 +859,18 @@
         <v>44256</v>
       </c>
       <c r="B16" t="n">
-        <v>3849.05387210696</v>
+        <v>3029.04581047905</v>
       </c>
       <c r="C16" t="n">
-        <v>1956.2528654414</v>
+        <v>874.934646736935</v>
       </c>
       <c r="D16" t="n">
-        <v>1469.48890541818</v>
+        <v>560.090020253983</v>
       </c>
       <c r="E16" t="n">
-        <v>10494.0174331548</v>
-      </c>
-      <c r="F16" t="n">
-        <v>23848.8113218618</v>
-      </c>
+        <v>92516.7948899273</v>
+      </c>
+      <c r="F16"/>
       <c r="G16" t="s">
         <v>10</v>
       </c>
@@ -896,10 +878,10 @@
         <v>2885</v>
       </c>
       <c r="I16" t="n">
-        <v>964.053872106962</v>
+        <v>144.045810479048</v>
       </c>
       <c r="J16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17">
@@ -907,20 +889,18 @@
         <v>44287</v>
       </c>
       <c r="B17" t="n">
-        <v>4300.21078946368</v>
+        <v>3921.25781593086</v>
       </c>
       <c r="C17" t="n">
-        <v>2113.967745221</v>
+        <v>973.402100363647</v>
       </c>
       <c r="D17" t="n">
-        <v>1570.51494267936</v>
+        <v>602.01513204549</v>
       </c>
       <c r="E17" t="n">
-        <v>12647.5604948835</v>
-      </c>
-      <c r="F17" t="n">
-        <v>31746.9996567304</v>
-      </c>
+        <v>1325664.21491229</v>
+      </c>
+      <c r="F17"/>
       <c r="G17" t="s">
         <v>10</v>
       </c>
@@ -928,10 +908,10 @@
         <v>2808</v>
       </c>
       <c r="I17" t="n">
-        <v>1492.21078946368</v>
+        <v>1113.25781593086</v>
       </c>
       <c r="J17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18">
@@ -939,20 +919,16 @@
         <v>44317</v>
       </c>
       <c r="B18" t="n">
-        <v>5230.51645813216</v>
+        <v>4701.6117398727</v>
       </c>
       <c r="C18" t="n">
-        <v>2423.57371350439</v>
+        <v>1032.76562489763</v>
       </c>
       <c r="D18" t="n">
-        <v>1766.52447576927</v>
-      </c>
-      <c r="E18" t="n">
-        <v>17786.0145249787</v>
-      </c>
-      <c r="F18" t="n">
-        <v>55409.1838092094</v>
-      </c>
+        <v>622.525812563305</v>
+      </c>
+      <c r="E18"/>
+      <c r="F18"/>
       <c r="G18" t="s">
         <v>10</v>
       </c>
@@ -960,10 +936,10 @@
         <v>2548</v>
       </c>
       <c r="I18" t="n">
-        <v>2682.51645813216</v>
+        <v>2153.6117398727</v>
       </c>
       <c r="J18" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19">
@@ -971,20 +947,16 @@
         <v>44348</v>
       </c>
       <c r="B19" t="n">
-        <v>6357.64254564782</v>
+        <v>5731.80263606594</v>
       </c>
       <c r="C19" t="n">
-        <v>2767.83970675804</v>
+        <v>1098.44077312814</v>
       </c>
       <c r="D19" t="n">
-        <v>1978.82437863599</v>
-      </c>
-      <c r="E19" t="n">
-        <v>25611.5487440614</v>
-      </c>
-      <c r="F19" t="n">
-        <v>108533.528254314</v>
-      </c>
+        <v>644.710060426617</v>
+      </c>
+      <c r="E19"/>
+      <c r="F19"/>
       <c r="G19" t="s">
         <v>10</v>
       </c>
@@ -992,10 +964,10 @@
         <v>2467</v>
       </c>
       <c r="I19" t="n">
-        <v>3890.64254564782</v>
+        <v>3264.80263606594</v>
       </c>
       <c r="J19" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20">
@@ -1003,20 +975,16 @@
         <v>44378</v>
       </c>
       <c r="B20" t="n">
-        <v>7068.30609797984</v>
+        <v>7301.07537949272</v>
       </c>
       <c r="C20" t="n">
-        <v>2969.8490288156</v>
+        <v>1183.13234495817</v>
       </c>
       <c r="D20" t="n">
-        <v>2100.67146131982</v>
-      </c>
-      <c r="E20" t="n">
-        <v>31643.9047228877</v>
-      </c>
-      <c r="F20" t="n">
-        <v>169201.053657447</v>
-      </c>
+        <v>673.860863765554</v>
+      </c>
+      <c r="E20"/>
+      <c r="F20"/>
       <c r="G20" t="s">
         <v>10</v>
       </c>
@@ -1024,10 +992,10 @@
         <v>2566</v>
       </c>
       <c r="I20" t="n">
-        <v>4502.30609797984</v>
+        <v>4735.07537949272</v>
       </c>
       <c r="J20" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21">
@@ -1035,20 +1003,16 @@
         <v>44409</v>
       </c>
       <c r="B21" t="n">
-        <v>5965.60615898884</v>
+        <v>8620.48847995984</v>
       </c>
       <c r="C21" t="n">
-        <v>2649.58575636887</v>
+        <v>1226.46654434457</v>
       </c>
       <c r="D21" t="n">
-        <v>1905.90554542062</v>
-      </c>
-      <c r="E21" t="n">
-        <v>22714.4521924515</v>
-      </c>
-      <c r="F21" t="n">
-        <v>86207.0371600317</v>
-      </c>
+        <v>683.709554996466</v>
+      </c>
+      <c r="E21"/>
+      <c r="F21"/>
       <c r="G21" t="s">
         <v>10</v>
       </c>
@@ -1056,10 +1020,10 @@
         <v>2016</v>
       </c>
       <c r="I21" t="n">
-        <v>3949.60615898884</v>
+        <v>6604.48847995984</v>
       </c>
       <c r="J21" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22">
@@ -1067,20 +1031,16 @@
         <v>44440</v>
       </c>
       <c r="B22" t="n">
-        <v>4864.62817134521</v>
+        <v>11961.8366396033</v>
       </c>
       <c r="C22" t="n">
-        <v>2301.06226265326</v>
+        <v>1342.9880209848</v>
       </c>
       <c r="D22" t="n">
-        <v>1688.28750718466</v>
-      </c>
-      <c r="E22" t="n">
-        <v>15699.8053388746</v>
-      </c>
-      <c r="F22" t="n">
-        <v>45055.5095228429</v>
-      </c>
+        <v>722.676738635224</v>
+      </c>
+      <c r="E22"/>
+      <c r="F22"/>
       <c r="G22" t="s">
         <v>10</v>
       </c>
@@ -1088,10 +1048,10 @@
         <v>2321</v>
       </c>
       <c r="I22" t="n">
-        <v>2543.62817134521</v>
+        <v>9640.83663960333</v>
       </c>
       <c r="J22" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23">
@@ -1099,20 +1059,16 @@
         <v>44470</v>
       </c>
       <c r="B23" t="n">
-        <v>4549.4361310006</v>
+        <v>6039.08326039317</v>
       </c>
       <c r="C23" t="n">
-        <v>2194.90649524332</v>
+        <v>998.62145681024</v>
       </c>
       <c r="D23" t="n">
-        <v>1620.69074058391</v>
-      </c>
-      <c r="E23" t="n">
-        <v>13989.6490513094</v>
-      </c>
-      <c r="F23" t="n">
-        <v>37376.8509187264</v>
-      </c>
+        <v>570.752100193425</v>
+      </c>
+      <c r="E23"/>
+      <c r="F23"/>
       <c r="G23" t="s">
         <v>10</v>
       </c>
@@ -1120,10 +1076,10 @@
         <v>1994</v>
       </c>
       <c r="I23" t="n">
-        <v>2555.4361310006</v>
+        <v>4045.08326039317</v>
       </c>
       <c r="J23" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24">
@@ -1131,20 +1087,16 @@
         <v>44501</v>
       </c>
       <c r="B24" t="n">
-        <v>4564.12187531874</v>
+        <v>3794.15748726256</v>
       </c>
       <c r="C24" t="n">
-        <v>2199.86100449573</v>
+        <v>789.447732342427</v>
       </c>
       <c r="D24" t="n">
-        <v>1623.8391871877</v>
-      </c>
-      <c r="E24" t="n">
-        <v>14067.5888013181</v>
-      </c>
-      <c r="F24" t="n">
-        <v>37711.5442472713</v>
-      </c>
+        <v>470.734204144525</v>
+      </c>
+      <c r="E24"/>
+      <c r="F24"/>
       <c r="G24" t="s">
         <v>10</v>
       </c>
@@ -1152,10 +1104,10 @@
         <v>2218</v>
       </c>
       <c r="I24" t="n">
-        <v>2346.12187531874</v>
+        <v>1576.15748726256</v>
       </c>
       <c r="J24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25">
@@ -1163,20 +1115,16 @@
         <v>44531</v>
       </c>
       <c r="B25" t="n">
-        <v>4195.46276367538</v>
+        <v>3069.32452324328</v>
       </c>
       <c r="C25" t="n">
-        <v>2071.89215070193</v>
+        <v>696.057765222493</v>
       </c>
       <c r="D25" t="n">
-        <v>1541.56308066854</v>
-      </c>
-      <c r="E25" t="n">
-        <v>12209.2773437515</v>
-      </c>
-      <c r="F25" t="n">
-        <v>30208.3327418443</v>
-      </c>
+        <v>422.313926693588</v>
+      </c>
+      <c r="E25"/>
+      <c r="F25"/>
       <c r="G25" t="s">
         <v>10</v>
       </c>
@@ -1184,10 +1132,10 @@
         <v>2513</v>
       </c>
       <c r="I25" t="n">
-        <v>1682.46276367538</v>
+        <v>556.324523243281</v>
       </c>
       <c r="J25" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26">
@@ -1195,20 +1143,18 @@
         <v>44562</v>
       </c>
       <c r="B26" t="n">
-        <v>3349.90826721584</v>
+        <v>1957.42449000207</v>
       </c>
       <c r="C26" t="n">
-        <v>1742.10766494964</v>
+        <v>539.890034502062</v>
       </c>
       <c r="D26" t="n">
-        <v>1318.81361578613</v>
+        <v>341.889985617515</v>
       </c>
       <c r="E26" t="n">
-        <v>8687.14870015405</v>
-      </c>
-      <c r="F26" t="n">
-        <v>18568.1709102675</v>
-      </c>
+        <v>96232.2326144229</v>
+      </c>
+      <c r="F26"/>
       <c r="G26" t="s">
         <v>10</v>
       </c>
@@ -1216,10 +1162,10 @@
         <v>1811</v>
       </c>
       <c r="I26" t="n">
-        <v>1538.90826721584</v>
+        <v>146.424490002072</v>
       </c>
       <c r="J26" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27">
@@ -1227,20 +1173,18 @@
         <v>44593</v>
       </c>
       <c r="B27" t="n">
-        <v>2541.45001984499</v>
+        <v>1637.71112758455</v>
       </c>
       <c r="C27" t="n">
-        <v>1405.11150678867</v>
+        <v>480.367275153743</v>
       </c>
       <c r="D27" t="n">
-        <v>1086.53047067986</v>
+        <v>308.636405242566</v>
       </c>
       <c r="E27" t="n">
-        <v>5813.24226067806</v>
-      </c>
-      <c r="F27" t="n">
-        <v>10796.0600114429</v>
-      </c>
+        <v>43696.1329033903</v>
+      </c>
+      <c r="F27"/>
       <c r="G27" t="s">
         <v>10</v>
       </c>
@@ -1248,10 +1192,10 @@
         <v>1561</v>
       </c>
       <c r="I27" t="n">
-        <v>980.450019844994</v>
+        <v>76.7111275845489</v>
       </c>
       <c r="J27" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28">
@@ -1259,20 +1203,16 @@
         <v>44621</v>
       </c>
       <c r="B28" t="n">
-        <v>4305.96410205018</v>
+        <v>3037.05077290465</v>
       </c>
       <c r="C28" t="n">
-        <v>2054.16711195204</v>
+        <v>649.772094417423</v>
       </c>
       <c r="D28" t="n">
-        <v>1511.25648574522</v>
-      </c>
-      <c r="E28" t="n">
-        <v>13608.4995916762</v>
-      </c>
-      <c r="F28" t="n">
-        <v>37842.3583455499</v>
-      </c>
+        <v>389.594050377251</v>
+      </c>
+      <c r="E28"/>
+      <c r="F28"/>
       <c r="G28" t="s">
         <v>10</v>
       </c>
@@ -1280,10 +1220,10 @@
         <v>2559</v>
       </c>
       <c r="I28" t="n">
-        <v>1746.96410205018</v>
+        <v>478.050772904653</v>
       </c>
       <c r="J28" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29">
@@ -1291,20 +1231,16 @@
         <v>44652</v>
       </c>
       <c r="B29" t="n">
-        <v>5031.44634191282</v>
+        <v>3932.51946187058</v>
       </c>
       <c r="C29" t="n">
-        <v>2282.34991769379</v>
+        <v>717.54019831555</v>
       </c>
       <c r="D29" t="n">
-        <v>1652.52462495509</v>
-      </c>
-      <c r="E29" t="n">
-        <v>18088.6533426985</v>
-      </c>
-      <c r="F29" t="n">
-        <v>61878.893872323</v>
-      </c>
+        <v>417.338218888163</v>
+      </c>
+      <c r="E29"/>
+      <c r="F29"/>
       <c r="G29" t="s">
         <v>10</v>
       </c>
@@ -1312,10 +1248,10 @@
         <v>2455</v>
       </c>
       <c r="I29" t="n">
-        <v>2576.44634191282</v>
+        <v>1477.51946187058</v>
       </c>
       <c r="J29" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30">
@@ -1323,20 +1259,16 @@
         <v>44682</v>
       </c>
       <c r="B30" t="n">
-        <v>6224.35517268816</v>
+        <v>4715.76050867184</v>
       </c>
       <c r="C30" t="n">
-        <v>2631.04789486119</v>
+        <v>760.183152837621</v>
       </c>
       <c r="D30" t="n">
-        <v>1864.37166131201</v>
-      </c>
-      <c r="E30" t="n">
-        <v>27357.6799507365</v>
-      </c>
-      <c r="F30" t="n">
-        <v>140084.078539377</v>
-      </c>
+        <v>432.579585435459</v>
+      </c>
+      <c r="E30"/>
+      <c r="F30"/>
       <c r="G30" t="s">
         <v>10</v>
       </c>
@@ -1344,10 +1276,10 @@
         <v>2509</v>
       </c>
       <c r="I30" t="n">
-        <v>3715.35517268816</v>
+        <v>2206.76050867184</v>
       </c>
       <c r="J30" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31">
@@ -1355,20 +1287,16 @@
         <v>44713</v>
       </c>
       <c r="B31" t="n">
-        <v>7513.47161941079</v>
+        <v>5750.02042269536</v>
       </c>
       <c r="C31" t="n">
-        <v>2973.20822194007</v>
+        <v>806.820252497415</v>
       </c>
       <c r="D31" t="n">
-        <v>2066.52265211212</v>
-      </c>
-      <c r="E31" t="n">
-        <v>40905.7440448363</v>
-      </c>
-      <c r="F31" t="n">
-        <v>381834.350689833</v>
-      </c>
+        <v>448.786120895985</v>
+      </c>
+      <c r="E31"/>
+      <c r="F31"/>
       <c r="G31" t="s">
         <v>10</v>
       </c>
@@ -1376,10 +1304,10 @@
         <v>2905</v>
       </c>
       <c r="I31" t="n">
-        <v>4608.47161941079</v>
+        <v>2845.02042269536</v>
       </c>
       <c r="J31" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32">
@@ -1387,20 +1315,16 @@
         <v>44743</v>
       </c>
       <c r="B32" t="n">
-        <v>8505.70615015413</v>
+        <v>7326.10118766093</v>
       </c>
       <c r="C32" t="n">
-        <v>3216.14127874019</v>
+        <v>865.440714215065</v>
       </c>
       <c r="D32" t="n">
-        <v>2206.77494211274</v>
-      </c>
-      <c r="E32" t="n">
-        <v>54664.6470819464</v>
-      </c>
-      <c r="F32" t="n">
-        <v>1018385.72596459</v>
-      </c>
+        <v>469.072680278969</v>
+      </c>
+      <c r="E32"/>
+      <c r="F32"/>
       <c r="G32" t="s">
         <v>10</v>
       </c>
@@ -1408,10 +1332,10 @@
         <v>2629</v>
       </c>
       <c r="I32" t="n">
-        <v>5876.70615015413</v>
+        <v>4697.10118766093</v>
       </c>
       <c r="J32" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33">
@@ -1419,20 +1343,16 @@
         <v>44774</v>
       </c>
       <c r="B33" t="n">
-        <v>6788.5211942857</v>
+        <v>8651.22545574501</v>
       </c>
       <c r="C33" t="n">
-        <v>2781.50289004397</v>
+        <v>897.91442000032</v>
       </c>
       <c r="D33" t="n">
-        <v>1952.89645276151</v>
-      </c>
-      <c r="E33" t="n">
-        <v>32894.6917762354</v>
-      </c>
-      <c r="F33" t="n">
-        <v>215262.245407389</v>
-      </c>
+        <v>478.010463706142</v>
+      </c>
+      <c r="E33"/>
+      <c r="F33"/>
       <c r="G33" t="s">
         <v>10</v>
       </c>
@@ -1440,10 +1360,10 @@
         <v>2267</v>
       </c>
       <c r="I33" t="n">
-        <v>4521.5211942857</v>
+        <v>6384.22545574501</v>
       </c>
       <c r="J33" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34">
@@ -1451,20 +1371,16 @@
         <v>44805</v>
       </c>
       <c r="B34" t="n">
-        <v>5511.94738999594</v>
+        <v>12009.7459730758</v>
       </c>
       <c r="C34" t="n">
-        <v>2420.91557219491</v>
+        <v>976.386997177433</v>
       </c>
       <c r="D34" t="n">
-        <v>1735.45933565049</v>
-      </c>
-      <c r="E34" t="n">
-        <v>21653.4552759283</v>
-      </c>
-      <c r="F34" t="n">
-        <v>87264.9992641121</v>
-      </c>
+        <v>504.083145832228</v>
+      </c>
+      <c r="E34"/>
+      <c r="F34"/>
       <c r="G34" t="s">
         <v>10</v>
       </c>
@@ -1472,10 +1388,10 @@
         <v>2273</v>
       </c>
       <c r="I34" t="n">
-        <v>3238.94738999594</v>
+        <v>9736.74597307583</v>
       </c>
       <c r="J34" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35">
@@ -1483,20 +1399,16 @@
         <v>44835</v>
       </c>
       <c r="B35" t="n">
-        <v>4942.64739919697</v>
+        <v>6055.88013779179</v>
       </c>
       <c r="C35" t="n">
-        <v>2247.20212134898</v>
+        <v>758.65507359426</v>
       </c>
       <c r="D35" t="n">
-        <v>1628.23863324565</v>
-      </c>
-      <c r="E35" t="n">
-        <v>17661.4546770811</v>
-      </c>
-      <c r="F35" t="n">
-        <v>59782.3430786419</v>
-      </c>
+        <v>414.735178094148</v>
+      </c>
+      <c r="E35"/>
+      <c r="F35"/>
       <c r="G35" t="s">
         <v>10</v>
       </c>
@@ -1504,10 +1416,10 @@
         <v>2009</v>
       </c>
       <c r="I35" t="n">
-        <v>2933.64739919697</v>
+        <v>4046.88013779179</v>
       </c>
       <c r="J35" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36">
@@ -1515,20 +1427,16 @@
         <v>44866</v>
       </c>
       <c r="B36" t="n">
-        <v>5009.87413188638</v>
+        <v>3802.29054689678</v>
       </c>
       <c r="C36" t="n">
-        <v>2268.0898646183</v>
+        <v>618.934138868747</v>
       </c>
       <c r="D36" t="n">
-        <v>1641.19038805732</v>
-      </c>
-      <c r="E36" t="n">
-        <v>18106.2973666912</v>
-      </c>
-      <c r="F36" t="n">
-        <v>62512.3642368033</v>
-      </c>
+        <v>352.78938246395</v>
+      </c>
+      <c r="E36"/>
+      <c r="F36"/>
       <c r="G36" t="s">
         <v>10</v>
       </c>
@@ -1536,10 +1444,10 @@
         <v>1738</v>
       </c>
       <c r="I36" t="n">
-        <v>3271.87413188638</v>
+        <v>2064.29054689678</v>
       </c>
       <c r="J36" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37">
@@ -1547,20 +1455,16 @@
         <v>44896</v>
       </c>
       <c r="B37" t="n">
-        <v>4694.60196028132</v>
+        <v>3075.04277112246</v>
       </c>
       <c r="C37" t="n">
-        <v>2168.5919813305</v>
+        <v>555.118159278263</v>
       </c>
       <c r="D37" t="n">
-        <v>1579.13837288886</v>
-      </c>
-      <c r="E37" t="n">
-        <v>16090.6115056038</v>
-      </c>
-      <c r="F37" t="n">
-        <v>50778.858219862</v>
-      </c>
+        <v>322.242128503652</v>
+      </c>
+      <c r="E37"/>
+      <c r="F37"/>
       <c r="G37" t="s">
         <v>10</v>
       </c>
@@ -1568,10 +1472,10 @@
         <v>1569</v>
       </c>
       <c r="I37" t="n">
-        <v>3125.60196028132</v>
+        <v>1506.04277112246</v>
       </c>
       <c r="J37" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38">
@@ -1579,20 +1483,16 @@
         <v>44927</v>
       </c>
       <c r="B38" t="n">
-        <v>3635.08485684311</v>
+        <v>1960.25548872596</v>
       </c>
       <c r="C38" t="n">
-        <v>1756.96290493211</v>
+        <v>442.653526695428</v>
       </c>
       <c r="D38" t="n">
-        <v>1298.08463447201</v>
-      </c>
-      <c r="E38" t="n">
-        <v>11129.2353872133</v>
-      </c>
-      <c r="F38" t="n">
-        <v>29548.7018081835</v>
-      </c>
+        <v>268.331779418447</v>
+      </c>
+      <c r="E38"/>
+      <c r="F38"/>
       <c r="G38" t="s">
         <v>10</v>
       </c>
@@ -1600,10 +1500,10 @@
         <v>1156</v>
       </c>
       <c r="I38" t="n">
-        <v>2479.08485684311</v>
+        <v>804.255488725958</v>
       </c>
       <c r="J38" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="39">
@@ -1611,20 +1511,18 @@
         <v>44958</v>
       </c>
       <c r="B39" t="n">
-        <v>2884.62349213164</v>
+        <v>1639.80306111736</v>
       </c>
       <c r="C39" t="n">
-        <v>1448.50714001025</v>
+        <v>399.049257875761</v>
       </c>
       <c r="D39" t="n">
-        <v>1083.7077745536</v>
+        <v>245.739008217369</v>
       </c>
       <c r="E39" t="n">
-        <v>8079.98468428089</v>
-      </c>
-      <c r="F39" t="n">
-        <v>19006.8242345577</v>
-      </c>
+        <v>1143677.57361713</v>
+      </c>
+      <c r="F39"/>
       <c r="G39" t="s">
         <v>10</v>
       </c>
@@ -1632,7 +1530,7 @@
         <v>1958</v>
       </c>
       <c r="I39" t="n">
-        <v>926.623492131643</v>
+        <v>-318.196938882636</v>
       </c>
       <c r="J39" t="s">
         <v>11</v>
@@ -1643,20 +1541,16 @@
         <v>44986</v>
       </c>
       <c r="B40" t="n">
-        <v>5134.71561650366</v>
+        <v>3042.05099789584</v>
       </c>
       <c r="C40" t="n">
-        <v>2124.88123245695</v>
+        <v>526.943448500921</v>
       </c>
       <c r="D40" t="n">
-        <v>1496.24493894483</v>
-      </c>
-      <c r="E40" t="n">
-        <v>24103.2940261395</v>
-      </c>
-      <c r="F40" t="n">
-        <v>144980.127575976</v>
-      </c>
+        <v>303.628224801958</v>
+      </c>
+      <c r="E40"/>
+      <c r="F40"/>
       <c r="G40" t="s">
         <v>10</v>
       </c>
@@ -1664,10 +1558,10 @@
         <v>2208</v>
       </c>
       <c r="I40" t="n">
-        <v>2926.71561650366</v>
+        <v>834.050997895842</v>
       </c>
       <c r="J40" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41">
@@ -1675,20 +1569,16 @@
         <v>45017</v>
       </c>
       <c r="B41" t="n">
-        <v>5801.10194207465</v>
+        <v>3939.55586900995</v>
       </c>
       <c r="C41" t="n">
-        <v>2280.87931608601</v>
+        <v>578.143021176782</v>
       </c>
       <c r="D41" t="n">
-        <v>1582.40393829875</v>
-      </c>
-      <c r="E41" t="n">
-        <v>32300.466953866</v>
-      </c>
-      <c r="F41" t="n">
-        <v>326137.814518546</v>
-      </c>
+        <v>323.900167214546</v>
+      </c>
+      <c r="E41"/>
+      <c r="F41"/>
       <c r="G41" t="s">
         <v>10</v>
       </c>
@@ -1696,10 +1586,10 @@
         <v>2210</v>
       </c>
       <c r="I41" t="n">
-        <v>3591.10194207465</v>
+        <v>1729.55586900995</v>
       </c>
       <c r="J41" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="42">
@@ -1707,20 +1597,16 @@
         <v>45047</v>
       </c>
       <c r="B42" t="n">
-        <v>7370.69545132516</v>
+        <v>4724.60227370423</v>
       </c>
       <c r="C42" t="n">
-        <v>2638.90389760865</v>
+        <v>610.886114991337</v>
       </c>
       <c r="D42" t="n">
-        <v>1783.76401151951</v>
-      </c>
-      <c r="E42" t="n">
-        <v>59236.0307304694</v>
-      </c>
-      <c r="F42" t="n">
-        <v>6649790.5332551</v>
-      </c>
+        <v>335.537480792827</v>
+      </c>
+      <c r="E42"/>
+      <c r="F42"/>
       <c r="G42" t="s">
         <v>10</v>
       </c>
@@ -1728,10 +1614,10 @@
         <v>2311</v>
       </c>
       <c r="I42" t="n">
-        <v>5059.69545132516</v>
+        <v>2413.60227370423</v>
       </c>
       <c r="J42" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="43">
@@ -1739,17 +1625,15 @@
         <v>45078</v>
       </c>
       <c r="B43" t="n">
-        <v>9008.42555870526</v>
+        <v>5761.40727127042</v>
       </c>
       <c r="C43" t="n">
-        <v>2970.33014082708</v>
+        <v>646.459382909779</v>
       </c>
       <c r="D43" t="n">
-        <v>1964.70431808014</v>
-      </c>
-      <c r="E43" t="n">
-        <v>108409.937677669</v>
-      </c>
+        <v>347.837672726813</v>
+      </c>
+      <c r="E43"/>
       <c r="F43"/>
       <c r="G43" t="s">
         <v>10</v>
@@ -1758,10 +1642,10 @@
         <v>4985</v>
       </c>
       <c r="I43" t="n">
-        <v>4023.42555870526</v>
+        <v>776.407271270425</v>
       </c>
       <c r="J43" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="44">
@@ -1769,17 +1653,15 @@
         <v>45108</v>
       </c>
       <c r="B44" t="n">
-        <v>10100.0860450575</v>
+        <v>7341.74797789748</v>
       </c>
       <c r="C44" t="n">
-        <v>3171.01355681599</v>
+        <v>690.564998954682</v>
       </c>
       <c r="D44" t="n">
-        <v>2071.56855422264</v>
-      </c>
-      <c r="E44" t="n">
-        <v>162866.603972358</v>
-      </c>
+        <v>362.933787633291</v>
+      </c>
+      <c r="E44"/>
       <c r="F44"/>
       <c r="G44" t="s">
         <v>10</v>
@@ -1788,10 +1670,10 @@
         <v>13425</v>
       </c>
       <c r="I44" t="n">
-        <v>-3324.91395494254</v>
+        <v>-6083.25202210252</v>
       </c>
       <c r="J44" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="45">
@@ -1799,17 +1681,15 @@
         <v>45139</v>
       </c>
       <c r="B45" t="n">
-        <v>8197.54282640696</v>
+        <v>8670.44617944748</v>
       </c>
       <c r="C45" t="n">
-        <v>2802.11301071202</v>
+        <v>715.850315401207</v>
       </c>
       <c r="D45" t="n">
-        <v>1870.86821167702</v>
-      </c>
-      <c r="E45" t="n">
-        <v>81728.569798282</v>
-      </c>
+        <v>370.248001501663</v>
+      </c>
+      <c r="E45"/>
       <c r="F45"/>
       <c r="G45" t="s">
         <v>10</v>
@@ -1818,10 +1698,10 @@
         <v>12742</v>
       </c>
       <c r="I45" t="n">
-        <v>-4544.45717359304</v>
+        <v>-4071.55382055252</v>
       </c>
       <c r="J45" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="46">
@@ -1829,20 +1709,16 @@
         <v>45170</v>
       </c>
       <c r="B46" t="n">
-        <v>6623.5465586495</v>
+        <v>12039.7207863846</v>
       </c>
       <c r="C46" t="n">
-        <v>2457.97558258614</v>
+        <v>773.903445445202</v>
       </c>
       <c r="D46" t="n">
-        <v>1677.80747240911</v>
-      </c>
-      <c r="E46" t="n">
-        <v>45812.3183691002</v>
-      </c>
-      <c r="F46" t="n">
-        <v>1302571.23472564</v>
-      </c>
+        <v>389.299076406541</v>
+      </c>
+      <c r="E46"/>
+      <c r="F46"/>
       <c r="G46" t="s">
         <v>10</v>
       </c>
@@ -1850,10 +1726,10 @@
         <v>125264</v>
       </c>
       <c r="I46" t="n">
-        <v>-118640.453441351</v>
+        <v>-113224.279213615</v>
       </c>
       <c r="J46" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="47">
@@ -1861,20 +1737,16 @@
         <v>45200</v>
       </c>
       <c r="B47" t="n">
-        <v>5934.53292696301</v>
+        <v>6066.37388696676</v>
       </c>
       <c r="C47" t="n">
-        <v>2293.001391565</v>
+        <v>618.071788619858</v>
       </c>
       <c r="D47" t="n">
-        <v>1582.94599458348</v>
-      </c>
-      <c r="E47" t="n">
-        <v>35174.6523277842</v>
-      </c>
-      <c r="F47" t="n">
-        <v>451661.771658954</v>
-      </c>
+        <v>328.222568423419</v>
+      </c>
+      <c r="E47"/>
+      <c r="F47"/>
       <c r="G47" t="s">
         <v>10</v>
       </c>
@@ -1882,10 +1754,10 @@
         <v>23111</v>
       </c>
       <c r="I47" t="n">
-        <v>-17176.467073037</v>
+        <v>-17044.6261130332</v>
       </c>
       <c r="J47" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="48">
@@ -1893,20 +1765,16 @@
         <v>45231</v>
       </c>
       <c r="B48" t="n">
-        <v>6026.44457485135</v>
+        <v>3807.36775929005</v>
       </c>
       <c r="C48" t="n">
-        <v>2315.30812247852</v>
+        <v>514.5604806704</v>
       </c>
       <c r="D48" t="n">
-        <v>1595.78086514397</v>
-      </c>
-      <c r="E48" t="n">
-        <v>36474.0662612529</v>
-      </c>
-      <c r="F48" t="n">
-        <v>511790.127460078</v>
-      </c>
+        <v>284.546381709979</v>
+      </c>
+      <c r="E48"/>
+      <c r="F48"/>
       <c r="G48" t="s">
         <v>10</v>
       </c>
@@ -1914,7 +1782,7 @@
         <v>4940</v>
       </c>
       <c r="I48" t="n">
-        <v>1086.44457485135</v>
+        <v>-1132.63224070995</v>
       </c>
       <c r="J48" t="s">
         <v>11</v>
@@ -1925,20 +1793,16 @@
         <v>45261</v>
       </c>
       <c r="B49" t="n">
-        <v>5634.74584944436</v>
+        <v>3078.61129671213</v>
       </c>
       <c r="C49" t="n">
-        <v>2217.89856581633</v>
+        <v>466.583399557315</v>
       </c>
       <c r="D49" t="n">
-        <v>1539.19160956259</v>
-      </c>
-      <c r="E49" t="n">
-        <v>31253.7583520248</v>
-      </c>
-      <c r="F49" t="n">
-        <v>311270.543706693</v>
-      </c>
+        <v>262.777583403187</v>
+      </c>
+      <c r="E49"/>
+      <c r="F49"/>
       <c r="G49" t="s">
         <v>10</v>
       </c>
@@ -1946,7 +1810,7 @@
         <v>3873</v>
       </c>
       <c r="I49" t="n">
-        <v>1761.74584944436</v>
+        <v>-794.388703287874</v>
       </c>
       <c r="J49" t="s">
         <v>11</v>

--- a/outcome/appendix/forecast/AHC.xlsx
+++ b/outcome/appendix/forecast/AHC.xlsx
@@ -47,10 +47,10 @@
     <t xml:space="preserve">AHC</t>
   </si>
   <si>
-    <t xml:space="preserve">Increase</t>
+    <t xml:space="preserve">Decrease</t>
   </si>
   <si>
-    <t xml:space="preserve">Decrease</t>
+    <t xml:space="preserve">Increase</t>
   </si>
 </sst>
 </file>
@@ -427,7 +427,7 @@
         <v>43831</v>
       </c>
       <c r="B2" t="n">
-        <v>1945.64144480256</v>
+        <v>2302.81418598472</v>
       </c>
       <c r="C2" t="n">
         <v>1402.45845867814</v>
@@ -436,10 +436,10 @@
         <v>1201.45791741029</v>
       </c>
       <c r="E2" t="n">
-        <v>2867.15868187678</v>
+        <v>3562.87482822459</v>
       </c>
       <c r="F2" t="n">
-        <v>3638.76778486878</v>
+        <v>4496.085868467</v>
       </c>
       <c r="G2" t="s">
         <v>10</v>
@@ -448,7 +448,7 @@
         <v>2139</v>
       </c>
       <c r="I2" t="n">
-        <v>-193.358555197435</v>
+        <v>163.814185984718</v>
       </c>
       <c r="J2" t="s">
         <v>11</v>
@@ -459,7 +459,7 @@
         <v>43862</v>
       </c>
       <c r="B3" t="n">
-        <v>1628.99858391204</v>
+        <v>1919.16473557291</v>
       </c>
       <c r="C3" t="n">
         <v>1074.38963336526</v>
@@ -468,10 +468,10 @@
         <v>887.573974421664</v>
       </c>
       <c r="E3" t="n">
-        <v>2737.67969587088</v>
+        <v>3690.61711636704</v>
       </c>
       <c r="F3" t="n">
-        <v>3835.60113282424</v>
+        <v>5219.20970424215</v>
       </c>
       <c r="G3" t="s">
         <v>10</v>
@@ -480,7 +480,7 @@
         <v>1672</v>
       </c>
       <c r="I3" t="n">
-        <v>-43.0014160879641</v>
+        <v>247.164735572914</v>
       </c>
       <c r="J3" t="s">
         <v>11</v>
@@ -491,7 +491,7 @@
         <v>43891</v>
       </c>
       <c r="B4" t="n">
-        <v>3016.25491429919</v>
+        <v>3052.28867800838</v>
       </c>
       <c r="C4" t="n">
         <v>1582.26540413731</v>
@@ -500,7 +500,7 @@
         <v>1201.36071887594</v>
       </c>
       <c r="E4" t="n">
-        <v>7678.66909869758</v>
+        <v>7702.58936592286</v>
       </c>
       <c r="F4" t="n">
         <v>16058.0887576839</v>
@@ -512,10 +512,10 @@
         <v>2011</v>
       </c>
       <c r="I4" t="n">
-        <v>1005.25491429919</v>
+        <v>1041.28867800838</v>
       </c>
       <c r="J4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5">
@@ -523,7 +523,7 @@
         <v>43922</v>
       </c>
       <c r="B5" t="n">
-        <v>3903.27104306194</v>
+        <v>3538.26849094372</v>
       </c>
       <c r="C5" t="n">
         <v>1739.64431240911</v>
@@ -544,10 +544,10 @@
         <v>2230</v>
       </c>
       <c r="I5" t="n">
-        <v>1673.27104306194</v>
+        <v>1308.26849094372</v>
       </c>
       <c r="J5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6">
@@ -555,7 +555,7 @@
         <v>43952</v>
       </c>
       <c r="B6" t="n">
-        <v>4679.01967112684</v>
+        <v>4210.72164769923</v>
       </c>
       <c r="C6" t="n">
         <v>1809.7782935037</v>
@@ -576,10 +576,10 @@
         <v>2468</v>
       </c>
       <c r="I6" t="n">
-        <v>2211.01967112684</v>
+        <v>1742.72164769923</v>
       </c>
       <c r="J6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7">
@@ -587,7 +587,7 @@
         <v>43983</v>
       </c>
       <c r="B7" t="n">
-        <v>5702.72274861428</v>
+        <v>5000.16358646342</v>
       </c>
       <c r="C7" t="n">
         <v>1898.54742543883</v>
@@ -606,10 +606,10 @@
         <v>2788</v>
       </c>
       <c r="I7" t="n">
-        <v>2914.72274861428</v>
+        <v>2212.16358646342</v>
       </c>
       <c r="J7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8">
@@ -617,10 +617,10 @@
         <v>44013</v>
       </c>
       <c r="B8" t="n">
-        <v>7261.14729839828</v>
+        <v>5657.76444656032</v>
       </c>
       <c r="C8" t="n">
-        <v>2031.86392597682</v>
+        <v>2005.73417052012</v>
       </c>
       <c r="D8" t="n">
         <v>1291.01716009133</v>
@@ -636,10 +636,10 @@
         <v>2561</v>
       </c>
       <c r="I8" t="n">
-        <v>4700.14729839828</v>
+        <v>3096.76444656032</v>
       </c>
       <c r="J8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9">
@@ -647,13 +647,13 @@
         <v>44044</v>
       </c>
       <c r="B9" t="n">
-        <v>8571.4612741265</v>
+        <v>5493.60107966297</v>
       </c>
       <c r="C9" t="n">
-        <v>2075.54541750403</v>
+        <v>1769.74578922137</v>
       </c>
       <c r="D9" t="n">
-        <v>1276.78099754745</v>
+        <v>1237.09379558124</v>
       </c>
       <c r="E9" t="n">
         <v>7518712.8778815</v>
@@ -666,10 +666,10 @@
         <v>2561</v>
       </c>
       <c r="I9" t="n">
-        <v>6010.4612741265</v>
+        <v>2932.60107966297</v>
       </c>
       <c r="J9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10">
@@ -677,13 +677,13 @@
         <v>44075</v>
       </c>
       <c r="B10" t="n">
-        <v>11885.4826304799</v>
+        <v>6151.14041259229</v>
       </c>
       <c r="C10" t="n">
-        <v>2279.91281062772</v>
+        <v>1671.95009098248</v>
       </c>
       <c r="D10" t="n">
-        <v>1338.3945485022</v>
+        <v>1156.34665145172</v>
       </c>
       <c r="E10"/>
       <c r="F10"/>
@@ -694,10 +694,10 @@
         <v>2549</v>
       </c>
       <c r="I10" t="n">
-        <v>9336.48263047994</v>
+        <v>3602.14041259229</v>
       </c>
       <c r="J10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11">
@@ -705,10 +705,10 @@
         <v>44105</v>
       </c>
       <c r="B11" t="n">
-        <v>6012.25113166438</v>
+        <v>4197.52268015087</v>
       </c>
       <c r="C11" t="n">
-        <v>1542.18461459871</v>
+        <v>1408.21433272463</v>
       </c>
       <c r="D11" t="n">
         <v>960.678077431697</v>
@@ -724,10 +724,10 @@
         <v>2298</v>
       </c>
       <c r="I11" t="n">
-        <v>3714.25113166438</v>
+        <v>1899.52268015087</v>
       </c>
       <c r="J11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12">
@@ -735,7 +735,7 @@
         <v>44136</v>
       </c>
       <c r="B12" t="n">
-        <v>3781.14949373594</v>
+        <v>3524.92388862405</v>
       </c>
       <c r="C12" t="n">
         <v>1143.88286409215</v>
@@ -754,10 +754,10 @@
         <v>2538</v>
       </c>
       <c r="I12" t="n">
-        <v>1243.14949373594</v>
+        <v>986.92388862405</v>
       </c>
       <c r="J12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13">
@@ -765,7 +765,7 @@
         <v>44166</v>
       </c>
       <c r="B13" t="n">
-        <v>3060.1738602725</v>
+        <v>3231.70333331</v>
       </c>
       <c r="C13" t="n">
         <v>974.237994155916</v>
@@ -784,10 +784,10 @@
         <v>2583</v>
       </c>
       <c r="I13" t="n">
-        <v>477.173860272498</v>
+        <v>648.703333310003</v>
       </c>
       <c r="J13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14">
@@ -795,7 +795,7 @@
         <v>44197</v>
       </c>
       <c r="B14" t="n">
-        <v>1952.89054830662</v>
+        <v>2441.83586916409</v>
       </c>
       <c r="C14" t="n">
         <v>718.898811131472</v>
@@ -816,7 +816,7 @@
         <v>2305</v>
       </c>
       <c r="I14" t="n">
-        <v>-352.109451693377</v>
+        <v>136.835869164087</v>
       </c>
       <c r="J14" t="s">
         <v>11</v>
@@ -827,7 +827,7 @@
         <v>44228</v>
       </c>
       <c r="B15" t="n">
-        <v>1634.35973931528</v>
+        <v>1927.23627184052</v>
       </c>
       <c r="C15" t="n">
         <v>624.421895107958</v>
@@ -848,7 +848,7 @@
         <v>1873</v>
       </c>
       <c r="I15" t="n">
-        <v>-238.640260684718</v>
+        <v>54.2362718405248</v>
       </c>
       <c r="J15" t="s">
         <v>11</v>
@@ -859,7 +859,7 @@
         <v>44256</v>
       </c>
       <c r="B16" t="n">
-        <v>3029.04581047905</v>
+        <v>3094.57808502941</v>
       </c>
       <c r="C16" t="n">
         <v>874.934646736935</v>
@@ -878,10 +878,10 @@
         <v>2885</v>
       </c>
       <c r="I16" t="n">
-        <v>144.045810479048</v>
+        <v>209.578085029406</v>
       </c>
       <c r="J16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17">
@@ -889,7 +889,7 @@
         <v>44287</v>
       </c>
       <c r="B17" t="n">
-        <v>3921.25781593086</v>
+        <v>3667.29578541173</v>
       </c>
       <c r="C17" t="n">
         <v>973.402100363647</v>
@@ -908,10 +908,10 @@
         <v>2808</v>
       </c>
       <c r="I17" t="n">
-        <v>1113.25781593086</v>
+        <v>859.295785411735</v>
       </c>
       <c r="J17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18">
@@ -919,7 +919,7 @@
         <v>44317</v>
       </c>
       <c r="B18" t="n">
-        <v>4701.6117398727</v>
+        <v>4332.41491190713</v>
       </c>
       <c r="C18" t="n">
         <v>1032.76562489763</v>
@@ -936,10 +936,10 @@
         <v>2548</v>
       </c>
       <c r="I18" t="n">
-        <v>2153.6117398727</v>
+        <v>1784.41491190713</v>
       </c>
       <c r="J18" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19">
@@ -947,7 +947,7 @@
         <v>44348</v>
       </c>
       <c r="B19" t="n">
-        <v>5731.80263606594</v>
+        <v>5235.88881019806</v>
       </c>
       <c r="C19" t="n">
         <v>1098.44077312814</v>
@@ -964,10 +964,10 @@
         <v>2467</v>
       </c>
       <c r="I19" t="n">
-        <v>3264.80263606594</v>
+        <v>2768.88881019806</v>
       </c>
       <c r="J19" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20">
@@ -975,7 +975,7 @@
         <v>44378</v>
       </c>
       <c r="B20" t="n">
-        <v>7301.07537949272</v>
+        <v>5955.73764740815</v>
       </c>
       <c r="C20" t="n">
         <v>1183.13234495817</v>
@@ -992,10 +992,10 @@
         <v>2566</v>
       </c>
       <c r="I20" t="n">
-        <v>4735.07537949272</v>
+        <v>3389.73764740815</v>
       </c>
       <c r="J20" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="21">
@@ -1003,10 +1003,10 @@
         <v>44409</v>
       </c>
       <c r="B21" t="n">
-        <v>8620.48847995984</v>
+        <v>5788.18041262609</v>
       </c>
       <c r="C21" t="n">
-        <v>1226.46654434457</v>
+        <v>1198.18797157789</v>
       </c>
       <c r="D21" t="n">
         <v>683.709554996466</v>
@@ -1020,10 +1020,10 @@
         <v>2016</v>
       </c>
       <c r="I21" t="n">
-        <v>6604.48847995984</v>
+        <v>3772.18041262609</v>
       </c>
       <c r="J21" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="22">
@@ -1031,10 +1031,10 @@
         <v>44440</v>
       </c>
       <c r="B22" t="n">
-        <v>11961.8366396033</v>
+        <v>6346.17593481483</v>
       </c>
       <c r="C22" t="n">
-        <v>1342.9880209848</v>
+        <v>1157.71669924864</v>
       </c>
       <c r="D22" t="n">
         <v>722.676738635224</v>
@@ -1048,10 +1048,10 @@
         <v>2321</v>
       </c>
       <c r="I22" t="n">
-        <v>9640.83663960333</v>
+        <v>4025.17593481483</v>
       </c>
       <c r="J22" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="23">
@@ -1059,7 +1059,7 @@
         <v>44470</v>
       </c>
       <c r="B23" t="n">
-        <v>6039.08326039317</v>
+        <v>4436.01790563032</v>
       </c>
       <c r="C23" t="n">
         <v>998.62145681024</v>
@@ -1076,10 +1076,10 @@
         <v>1994</v>
       </c>
       <c r="I23" t="n">
-        <v>4045.08326039317</v>
+        <v>2442.01790563032</v>
       </c>
       <c r="J23" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="24">
@@ -1087,7 +1087,7 @@
         <v>44501</v>
       </c>
       <c r="B24" t="n">
-        <v>3794.15748726256</v>
+        <v>3705.7896636679</v>
       </c>
       <c r="C24" t="n">
         <v>789.447732342427</v>
@@ -1104,10 +1104,10 @@
         <v>2218</v>
       </c>
       <c r="I24" t="n">
-        <v>1576.15748726256</v>
+        <v>1487.7896636679</v>
       </c>
       <c r="J24" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="25">
@@ -1115,7 +1115,7 @@
         <v>44531</v>
       </c>
       <c r="B25" t="n">
-        <v>3069.32452324328</v>
+        <v>3350.76034649415</v>
       </c>
       <c r="C25" t="n">
         <v>696.057765222493</v>
@@ -1132,10 +1132,10 @@
         <v>2513</v>
       </c>
       <c r="I25" t="n">
-        <v>556.324523243281</v>
+        <v>837.760346494146</v>
       </c>
       <c r="J25" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="26">
@@ -1143,7 +1143,7 @@
         <v>44562</v>
       </c>
       <c r="B26" t="n">
-        <v>1957.42449000207</v>
+        <v>2541.56054585052</v>
       </c>
       <c r="C26" t="n">
         <v>539.890034502062</v>
@@ -1162,10 +1162,10 @@
         <v>1811</v>
       </c>
       <c r="I26" t="n">
-        <v>146.424490002072</v>
+        <v>730.560545850516</v>
       </c>
       <c r="J26" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="27">
@@ -1173,7 +1173,7 @@
         <v>44593</v>
       </c>
       <c r="B27" t="n">
-        <v>1637.71112758455</v>
+        <v>2012.75516021965</v>
       </c>
       <c r="C27" t="n">
         <v>480.367275153743</v>
@@ -1192,10 +1192,10 @@
         <v>1561</v>
       </c>
       <c r="I27" t="n">
-        <v>76.7111275845489</v>
+        <v>451.75516021965</v>
       </c>
       <c r="J27" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="28">
@@ -1203,7 +1203,7 @@
         <v>44621</v>
       </c>
       <c r="B28" t="n">
-        <v>3037.05077290465</v>
+        <v>3157.55626152273</v>
       </c>
       <c r="C28" t="n">
         <v>649.772094417423</v>
@@ -1220,10 +1220,10 @@
         <v>2559</v>
       </c>
       <c r="I28" t="n">
-        <v>478.050772904653</v>
+        <v>598.556261522727</v>
       </c>
       <c r="J28" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="29">
@@ -1231,7 +1231,7 @@
         <v>44652</v>
       </c>
       <c r="B29" t="n">
-        <v>3932.51946187058</v>
+        <v>3851.27966831713</v>
       </c>
       <c r="C29" t="n">
         <v>717.54019831555</v>
@@ -1248,10 +1248,10 @@
         <v>2455</v>
       </c>
       <c r="I29" t="n">
-        <v>1477.51946187058</v>
+        <v>1396.27966831713</v>
       </c>
       <c r="J29" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="30">
@@ -1259,7 +1259,7 @@
         <v>44682</v>
       </c>
       <c r="B30" t="n">
-        <v>4715.76050867184</v>
+        <v>4550.28877843252</v>
       </c>
       <c r="C30" t="n">
         <v>760.183152837621</v>
@@ -1276,10 +1276,10 @@
         <v>2509</v>
       </c>
       <c r="I30" t="n">
-        <v>2206.76050867184</v>
+        <v>2041.28877843252</v>
       </c>
       <c r="J30" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="31">
@@ -1287,7 +1287,7 @@
         <v>44713</v>
       </c>
       <c r="B31" t="n">
-        <v>5750.02042269536</v>
+        <v>5524.6838675577</v>
       </c>
       <c r="C31" t="n">
         <v>806.820252497415</v>
@@ -1304,10 +1304,10 @@
         <v>2905</v>
       </c>
       <c r="I31" t="n">
-        <v>2845.02042269536</v>
+        <v>2619.6838675577</v>
       </c>
       <c r="J31" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="32">
@@ -1315,7 +1315,7 @@
         <v>44743</v>
       </c>
       <c r="B32" t="n">
-        <v>7326.10118766093</v>
+        <v>6277.02665741081</v>
       </c>
       <c r="C32" t="n">
         <v>865.440714215065</v>
@@ -1332,10 +1332,10 @@
         <v>2629</v>
       </c>
       <c r="I32" t="n">
-        <v>4697.10118766093</v>
+        <v>3648.02665741081</v>
       </c>
       <c r="J32" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="33">
@@ -1343,7 +1343,7 @@
         <v>44774</v>
       </c>
       <c r="B33" t="n">
-        <v>8651.22545574501</v>
+        <v>6027.33618396233</v>
       </c>
       <c r="C33" t="n">
         <v>897.91442000032</v>
@@ -1360,10 +1360,10 @@
         <v>2267</v>
       </c>
       <c r="I33" t="n">
-        <v>6384.22545574501</v>
+        <v>3760.33618396233</v>
       </c>
       <c r="J33" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="34">
@@ -1371,10 +1371,10 @@
         <v>44805</v>
       </c>
       <c r="B34" t="n">
-        <v>12009.7459730758</v>
+        <v>6478.48501825899</v>
       </c>
       <c r="C34" t="n">
-        <v>976.386997177433</v>
+        <v>916.041275246779</v>
       </c>
       <c r="D34" t="n">
         <v>504.083145832228</v>
@@ -1388,10 +1388,10 @@
         <v>2273</v>
       </c>
       <c r="I34" t="n">
-        <v>9736.74597307583</v>
+        <v>4205.48501825899</v>
       </c>
       <c r="J34" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="35">
@@ -1399,7 +1399,7 @@
         <v>44835</v>
       </c>
       <c r="B35" t="n">
-        <v>6055.88013779179</v>
+        <v>4603.03956682235</v>
       </c>
       <c r="C35" t="n">
         <v>758.65507359426</v>
@@ -1416,10 +1416,10 @@
         <v>2009</v>
       </c>
       <c r="I35" t="n">
-        <v>4046.88013779179</v>
+        <v>2594.03956682235</v>
       </c>
       <c r="J35" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="36">
@@ -1427,7 +1427,7 @@
         <v>44866</v>
       </c>
       <c r="B36" t="n">
-        <v>3802.29054689678</v>
+        <v>3833.55063320699</v>
       </c>
       <c r="C36" t="n">
         <v>618.934138868747</v>
@@ -1444,10 +1444,10 @@
         <v>1738</v>
       </c>
       <c r="I36" t="n">
-        <v>2064.29054689678</v>
+        <v>2095.55063320699</v>
       </c>
       <c r="J36" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="37">
@@ -1455,7 +1455,7 @@
         <v>44896</v>
       </c>
       <c r="B37" t="n">
-        <v>3075.04277112246</v>
+        <v>3483.60450084892</v>
       </c>
       <c r="C37" t="n">
         <v>555.118159278263</v>
@@ -1472,10 +1472,10 @@
         <v>1569</v>
       </c>
       <c r="I37" t="n">
-        <v>1506.04277112246</v>
+        <v>1914.60450084892</v>
       </c>
       <c r="J37" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="38">
@@ -1483,7 +1483,7 @@
         <v>44927</v>
       </c>
       <c r="B38" t="n">
-        <v>1960.25548872596</v>
+        <v>2634.58891662087</v>
       </c>
       <c r="C38" t="n">
         <v>442.653526695428</v>
@@ -1500,10 +1500,10 @@
         <v>1156</v>
       </c>
       <c r="I38" t="n">
-        <v>804.255488725958</v>
+        <v>1478.58891662087</v>
       </c>
       <c r="J38" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="39">
@@ -1511,7 +1511,7 @@
         <v>44958</v>
       </c>
       <c r="B39" t="n">
-        <v>1639.80306111736</v>
+        <v>2113.74492758326</v>
       </c>
       <c r="C39" t="n">
         <v>399.049257875761</v>
@@ -1530,7 +1530,7 @@
         <v>1958</v>
       </c>
       <c r="I39" t="n">
-        <v>-318.196938882636</v>
+        <v>155.744927583256</v>
       </c>
       <c r="J39" t="s">
         <v>11</v>
@@ -1541,7 +1541,7 @@
         <v>44986</v>
       </c>
       <c r="B40" t="n">
-        <v>3042.05099789584</v>
+        <v>3311.22895693482</v>
       </c>
       <c r="C40" t="n">
         <v>526.943448500921</v>
@@ -1558,10 +1558,10 @@
         <v>2208</v>
       </c>
       <c r="I40" t="n">
-        <v>834.050997895842</v>
+        <v>1103.22895693482</v>
       </c>
       <c r="J40" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="41">
@@ -1569,7 +1569,7 @@
         <v>45017</v>
       </c>
       <c r="B41" t="n">
-        <v>3939.55586900995</v>
+        <v>4044.5519827208</v>
       </c>
       <c r="C41" t="n">
         <v>578.143021176782</v>
@@ -1586,10 +1586,10 @@
         <v>2210</v>
       </c>
       <c r="I41" t="n">
-        <v>1729.55586900995</v>
+        <v>1834.5519827208</v>
       </c>
       <c r="J41" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="42">
@@ -1597,7 +1597,7 @@
         <v>45047</v>
       </c>
       <c r="B42" t="n">
-        <v>4724.60227370423</v>
+        <v>4809.83711001984</v>
       </c>
       <c r="C42" t="n">
         <v>610.886114991337</v>
@@ -1614,10 +1614,10 @@
         <v>2311</v>
       </c>
       <c r="I42" t="n">
-        <v>2413.60227370423</v>
+        <v>2498.83711001984</v>
       </c>
       <c r="J42" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="43">
@@ -1625,7 +1625,7 @@
         <v>45078</v>
       </c>
       <c r="B43" t="n">
-        <v>5761.40727127042</v>
+        <v>5911.34380416538</v>
       </c>
       <c r="C43" t="n">
         <v>646.459382909779</v>
@@ -1642,10 +1642,10 @@
         <v>4985</v>
       </c>
       <c r="I43" t="n">
-        <v>776.407271270425</v>
+        <v>926.343804165379</v>
       </c>
       <c r="J43" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="44">
@@ -1653,7 +1653,7 @@
         <v>45108</v>
       </c>
       <c r="B44" t="n">
-        <v>7341.74797789748</v>
+        <v>6658.02718059068</v>
       </c>
       <c r="C44" t="n">
         <v>690.564998954682</v>
@@ -1670,10 +1670,10 @@
         <v>13425</v>
       </c>
       <c r="I44" t="n">
-        <v>-6083.25202210252</v>
+        <v>-6766.97281940932</v>
       </c>
       <c r="J44" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="45">
@@ -1681,7 +1681,7 @@
         <v>45139</v>
       </c>
       <c r="B45" t="n">
-        <v>8670.44617944748</v>
+        <v>6427.89930026476</v>
       </c>
       <c r="C45" t="n">
         <v>715.850315401207</v>
@@ -1698,10 +1698,10 @@
         <v>12742</v>
       </c>
       <c r="I45" t="n">
-        <v>-4071.55382055252</v>
+        <v>-6314.10069973524</v>
       </c>
       <c r="J45" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="46">
@@ -1709,10 +1709,10 @@
         <v>45170</v>
       </c>
       <c r="B46" t="n">
-        <v>12039.7207863846</v>
+        <v>6723.81647105225</v>
       </c>
       <c r="C46" t="n">
-        <v>773.903445445202</v>
+        <v>768.051438790466</v>
       </c>
       <c r="D46" t="n">
         <v>389.299076406541</v>
@@ -1726,10 +1726,10 @@
         <v>125264</v>
       </c>
       <c r="I46" t="n">
-        <v>-113224.279213615</v>
+        <v>-118540.183528948</v>
       </c>
       <c r="J46" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="47">
@@ -1737,7 +1737,7 @@
         <v>45200</v>
       </c>
       <c r="B47" t="n">
-        <v>6066.37388696676</v>
+        <v>4959.31603061121</v>
       </c>
       <c r="C47" t="n">
         <v>618.071788619858</v>
@@ -1754,10 +1754,10 @@
         <v>23111</v>
       </c>
       <c r="I47" t="n">
-        <v>-17044.6261130332</v>
+        <v>-18151.6839693888</v>
       </c>
       <c r="J47" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="48">
@@ -1765,7 +1765,7 @@
         <v>45231</v>
       </c>
       <c r="B48" t="n">
-        <v>3807.36775929005</v>
+        <v>4106.50473961734</v>
       </c>
       <c r="C48" t="n">
         <v>514.5604806704</v>
@@ -1782,10 +1782,10 @@
         <v>4940</v>
       </c>
       <c r="I48" t="n">
-        <v>-1132.63224070995</v>
+        <v>-833.495260382662</v>
       </c>
       <c r="J48" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="49">
@@ -1793,7 +1793,7 @@
         <v>45261</v>
       </c>
       <c r="B49" t="n">
-        <v>3078.61129671213</v>
+        <v>3725.58704288798</v>
       </c>
       <c r="C49" t="n">
         <v>466.583399557315</v>
@@ -1810,10 +1810,10 @@
         <v>3873</v>
       </c>
       <c r="I49" t="n">
-        <v>-794.388703287874</v>
+        <v>-147.412957112018</v>
       </c>
       <c r="J49" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/outcome/appendix/forecast/AHC.xlsx
+++ b/outcome/appendix/forecast/AHC.xlsx
@@ -427,7 +427,7 @@
         <v>43831</v>
       </c>
       <c r="B2" t="n">
-        <v>2302.81418598472</v>
+        <v>2301.14176551591</v>
       </c>
       <c r="C2" t="n">
         <v>1402.45845867814</v>
@@ -448,7 +448,7 @@
         <v>2139</v>
       </c>
       <c r="I2" t="n">
-        <v>163.814185984718</v>
+        <v>162.141765515915</v>
       </c>
       <c r="J2" t="s">
         <v>11</v>
@@ -459,7 +459,7 @@
         <v>43862</v>
       </c>
       <c r="B3" t="n">
-        <v>1919.16473557291</v>
+        <v>1903.09417655727</v>
       </c>
       <c r="C3" t="n">
         <v>1074.38963336526</v>
@@ -480,7 +480,7 @@
         <v>1672</v>
       </c>
       <c r="I3" t="n">
-        <v>247.164735572914</v>
+        <v>231.094176557268</v>
       </c>
       <c r="J3" t="s">
         <v>11</v>
@@ -491,7 +491,7 @@
         <v>43891</v>
       </c>
       <c r="B4" t="n">
-        <v>3052.28867800838</v>
+        <v>3057.28010983117</v>
       </c>
       <c r="C4" t="n">
         <v>1582.26540413731</v>
@@ -512,7 +512,7 @@
         <v>2011</v>
       </c>
       <c r="I4" t="n">
-        <v>1041.28867800838</v>
+        <v>1046.28010983117</v>
       </c>
       <c r="J4" t="s">
         <v>11</v>
@@ -523,7 +523,7 @@
         <v>43922</v>
       </c>
       <c r="B5" t="n">
-        <v>3538.26849094372</v>
+        <v>3545.04034997452</v>
       </c>
       <c r="C5" t="n">
         <v>1739.64431240911</v>
@@ -544,7 +544,7 @@
         <v>2230</v>
       </c>
       <c r="I5" t="n">
-        <v>1308.26849094372</v>
+        <v>1315.04034997452</v>
       </c>
       <c r="J5" t="s">
         <v>11</v>
@@ -555,7 +555,7 @@
         <v>43952</v>
       </c>
       <c r="B6" t="n">
-        <v>4210.72164769923</v>
+        <v>4221.06882325518</v>
       </c>
       <c r="C6" t="n">
         <v>1809.7782935037</v>
@@ -576,7 +576,7 @@
         <v>2468</v>
       </c>
       <c r="I6" t="n">
-        <v>1742.72164769923</v>
+        <v>1753.06882325518</v>
       </c>
       <c r="J6" t="s">
         <v>11</v>
@@ -587,7 +587,7 @@
         <v>43983</v>
       </c>
       <c r="B7" t="n">
-        <v>5000.16358646342</v>
+        <v>4973.85703953425</v>
       </c>
       <c r="C7" t="n">
         <v>1898.54742543883</v>
@@ -606,7 +606,7 @@
         <v>2788</v>
       </c>
       <c r="I7" t="n">
-        <v>2212.16358646342</v>
+        <v>2185.85703953425</v>
       </c>
       <c r="J7" t="s">
         <v>11</v>
@@ -617,7 +617,7 @@
         <v>44013</v>
       </c>
       <c r="B8" t="n">
-        <v>5657.76444656032</v>
+        <v>5621.70485298858</v>
       </c>
       <c r="C8" t="n">
         <v>2005.73417052012</v>
@@ -636,7 +636,7 @@
         <v>2561</v>
       </c>
       <c r="I8" t="n">
-        <v>3096.76444656032</v>
+        <v>3060.70485298858</v>
       </c>
       <c r="J8" t="s">
         <v>11</v>
@@ -647,7 +647,7 @@
         <v>44044</v>
       </c>
       <c r="B9" t="n">
-        <v>5493.60107966297</v>
+        <v>5468.1542946846</v>
       </c>
       <c r="C9" t="n">
         <v>1769.74578922137</v>
@@ -666,7 +666,7 @@
         <v>2561</v>
       </c>
       <c r="I9" t="n">
-        <v>2932.60107966297</v>
+        <v>2907.1542946846</v>
       </c>
       <c r="J9" t="s">
         <v>11</v>
@@ -677,7 +677,7 @@
         <v>44075</v>
       </c>
       <c r="B10" t="n">
-        <v>6151.14041259229</v>
+        <v>6087.49207483023</v>
       </c>
       <c r="C10" t="n">
         <v>1671.95009098248</v>
@@ -694,7 +694,7 @@
         <v>2549</v>
       </c>
       <c r="I10" t="n">
-        <v>3602.14041259229</v>
+        <v>3538.49207483023</v>
       </c>
       <c r="J10" t="s">
         <v>11</v>
@@ -705,7 +705,7 @@
         <v>44105</v>
       </c>
       <c r="B11" t="n">
-        <v>4197.52268015087</v>
+        <v>4199.50127972044</v>
       </c>
       <c r="C11" t="n">
         <v>1408.21433272463</v>
@@ -724,7 +724,7 @@
         <v>2298</v>
       </c>
       <c r="I11" t="n">
-        <v>1899.52268015087</v>
+        <v>1901.50127972044</v>
       </c>
       <c r="J11" t="s">
         <v>11</v>
@@ -735,7 +735,7 @@
         <v>44136</v>
       </c>
       <c r="B12" t="n">
-        <v>3524.92388862405</v>
+        <v>3545.94845922953</v>
       </c>
       <c r="C12" t="n">
         <v>1143.88286409215</v>
@@ -754,7 +754,7 @@
         <v>2538</v>
       </c>
       <c r="I12" t="n">
-        <v>986.92388862405</v>
+        <v>1007.94845922953</v>
       </c>
       <c r="J12" t="s">
         <v>11</v>
@@ -765,7 +765,7 @@
         <v>44166</v>
       </c>
       <c r="B13" t="n">
-        <v>3231.70333331</v>
+        <v>3227.93686571901</v>
       </c>
       <c r="C13" t="n">
         <v>974.237994155916</v>
@@ -784,7 +784,7 @@
         <v>2583</v>
       </c>
       <c r="I13" t="n">
-        <v>648.703333310003</v>
+        <v>644.93686571901</v>
       </c>
       <c r="J13" t="s">
         <v>11</v>
@@ -795,7 +795,7 @@
         <v>44197</v>
       </c>
       <c r="B14" t="n">
-        <v>2441.83586916409</v>
+        <v>2463.18178234539</v>
       </c>
       <c r="C14" t="n">
         <v>718.898811131472</v>
@@ -816,7 +816,7 @@
         <v>2305</v>
       </c>
       <c r="I14" t="n">
-        <v>136.835869164087</v>
+        <v>158.18178234539</v>
       </c>
       <c r="J14" t="s">
         <v>11</v>
@@ -827,7 +827,7 @@
         <v>44228</v>
       </c>
       <c r="B15" t="n">
-        <v>1927.23627184052</v>
+        <v>1936.0888090963</v>
       </c>
       <c r="C15" t="n">
         <v>624.421895107958</v>
@@ -848,7 +848,7 @@
         <v>1873</v>
       </c>
       <c r="I15" t="n">
-        <v>54.2362718405248</v>
+        <v>63.0888090962969</v>
       </c>
       <c r="J15" t="s">
         <v>11</v>
@@ -859,7 +859,7 @@
         <v>44256</v>
       </c>
       <c r="B16" t="n">
-        <v>3094.57808502941</v>
+        <v>3106.72822268123</v>
       </c>
       <c r="C16" t="n">
         <v>874.934646736935</v>
@@ -878,7 +878,7 @@
         <v>2885</v>
       </c>
       <c r="I16" t="n">
-        <v>209.578085029406</v>
+        <v>221.728222681235</v>
       </c>
       <c r="J16" t="s">
         <v>11</v>
@@ -889,7 +889,7 @@
         <v>44287</v>
       </c>
       <c r="B17" t="n">
-        <v>3667.29578541173</v>
+        <v>3648.63449358906</v>
       </c>
       <c r="C17" t="n">
         <v>973.402100363647</v>
@@ -908,7 +908,7 @@
         <v>2808</v>
       </c>
       <c r="I17" t="n">
-        <v>859.295785411735</v>
+        <v>840.634493589057</v>
       </c>
       <c r="J17" t="s">
         <v>11</v>
@@ -919,7 +919,7 @@
         <v>44317</v>
       </c>
       <c r="B18" t="n">
-        <v>4332.41491190713</v>
+        <v>4351.02937707594</v>
       </c>
       <c r="C18" t="n">
         <v>1032.76562489763</v>
@@ -936,7 +936,7 @@
         <v>2548</v>
       </c>
       <c r="I18" t="n">
-        <v>1784.41491190713</v>
+        <v>1803.02937707594</v>
       </c>
       <c r="J18" t="s">
         <v>11</v>
@@ -947,7 +947,7 @@
         <v>44348</v>
       </c>
       <c r="B19" t="n">
-        <v>5235.88881019806</v>
+        <v>5199.04677992971</v>
       </c>
       <c r="C19" t="n">
         <v>1098.44077312814</v>
@@ -964,7 +964,7 @@
         <v>2467</v>
       </c>
       <c r="I19" t="n">
-        <v>2768.88881019806</v>
+        <v>2732.04677992971</v>
       </c>
       <c r="J19" t="s">
         <v>11</v>
@@ -975,7 +975,7 @@
         <v>44378</v>
       </c>
       <c r="B20" t="n">
-        <v>5955.73764740815</v>
+        <v>5943.72092578541</v>
       </c>
       <c r="C20" t="n">
         <v>1183.13234495817</v>
@@ -992,7 +992,7 @@
         <v>2566</v>
       </c>
       <c r="I20" t="n">
-        <v>3389.73764740815</v>
+        <v>3377.72092578541</v>
       </c>
       <c r="J20" t="s">
         <v>11</v>
@@ -1003,7 +1003,7 @@
         <v>44409</v>
       </c>
       <c r="B21" t="n">
-        <v>5788.18041262609</v>
+        <v>5801.46190432126</v>
       </c>
       <c r="C21" t="n">
         <v>1198.18797157789</v>
@@ -1020,7 +1020,7 @@
         <v>2016</v>
       </c>
       <c r="I21" t="n">
-        <v>3772.18041262609</v>
+        <v>3785.46190432126</v>
       </c>
       <c r="J21" t="s">
         <v>11</v>
@@ -1031,7 +1031,7 @@
         <v>44440</v>
       </c>
       <c r="B22" t="n">
-        <v>6346.17593481483</v>
+        <v>6275.71075866895</v>
       </c>
       <c r="C22" t="n">
         <v>1157.71669924864</v>
@@ -1048,7 +1048,7 @@
         <v>2321</v>
       </c>
       <c r="I22" t="n">
-        <v>4025.17593481483</v>
+        <v>3954.71075866895</v>
       </c>
       <c r="J22" t="s">
         <v>11</v>
@@ -1059,7 +1059,7 @@
         <v>44470</v>
       </c>
       <c r="B23" t="n">
-        <v>4436.01790563032</v>
+        <v>4423.61851970529</v>
       </c>
       <c r="C23" t="n">
         <v>998.62145681024</v>
@@ -1076,7 +1076,7 @@
         <v>1994</v>
       </c>
       <c r="I23" t="n">
-        <v>2442.01790563032</v>
+        <v>2429.61851970529</v>
       </c>
       <c r="J23" t="s">
         <v>11</v>
@@ -1087,7 +1087,7 @@
         <v>44501</v>
       </c>
       <c r="B24" t="n">
-        <v>3705.7896636679</v>
+        <v>3742.75193233892</v>
       </c>
       <c r="C24" t="n">
         <v>789.447732342427</v>
@@ -1104,7 +1104,7 @@
         <v>2218</v>
       </c>
       <c r="I24" t="n">
-        <v>1487.7896636679</v>
+        <v>1524.75193233892</v>
       </c>
       <c r="J24" t="s">
         <v>11</v>
@@ -1115,7 +1115,7 @@
         <v>44531</v>
       </c>
       <c r="B25" t="n">
-        <v>3350.76034649415</v>
+        <v>3356.94257203687</v>
       </c>
       <c r="C25" t="n">
         <v>696.057765222493</v>
@@ -1132,7 +1132,7 @@
         <v>2513</v>
       </c>
       <c r="I25" t="n">
-        <v>837.760346494146</v>
+        <v>843.942572036869</v>
       </c>
       <c r="J25" t="s">
         <v>11</v>
@@ -1143,7 +1143,7 @@
         <v>44562</v>
       </c>
       <c r="B26" t="n">
-        <v>2541.56054585052</v>
+        <v>2579.32160164857</v>
       </c>
       <c r="C26" t="n">
         <v>539.890034502062</v>
@@ -1162,7 +1162,7 @@
         <v>1811</v>
       </c>
       <c r="I26" t="n">
-        <v>730.560545850516</v>
+        <v>768.321601648573</v>
       </c>
       <c r="J26" t="s">
         <v>11</v>
@@ -1173,7 +1173,7 @@
         <v>44593</v>
       </c>
       <c r="B27" t="n">
-        <v>2012.75516021965</v>
+        <v>2027.34548663951</v>
       </c>
       <c r="C27" t="n">
         <v>480.367275153743</v>
@@ -1192,7 +1192,7 @@
         <v>1561</v>
       </c>
       <c r="I27" t="n">
-        <v>451.75516021965</v>
+        <v>466.345486639506</v>
       </c>
       <c r="J27" t="s">
         <v>11</v>
@@ -1203,7 +1203,7 @@
         <v>44621</v>
       </c>
       <c r="B28" t="n">
-        <v>3157.55626152273</v>
+        <v>3152.62605460391</v>
       </c>
       <c r="C28" t="n">
         <v>649.772094417423</v>
@@ -1220,7 +1220,7 @@
         <v>2559</v>
       </c>
       <c r="I28" t="n">
-        <v>598.556261522727</v>
+        <v>593.626054603911</v>
       </c>
       <c r="J28" t="s">
         <v>11</v>
@@ -1231,7 +1231,7 @@
         <v>44652</v>
       </c>
       <c r="B29" t="n">
-        <v>3851.27966831713</v>
+        <v>3782.43753968487</v>
       </c>
       <c r="C29" t="n">
         <v>717.54019831555</v>
@@ -1248,7 +1248,7 @@
         <v>2455</v>
       </c>
       <c r="I29" t="n">
-        <v>1396.27966831713</v>
+        <v>1327.43753968487</v>
       </c>
       <c r="J29" t="s">
         <v>11</v>
@@ -1259,7 +1259,7 @@
         <v>44682</v>
       </c>
       <c r="B30" t="n">
-        <v>4550.28877843252</v>
+        <v>4537.19902633441</v>
       </c>
       <c r="C30" t="n">
         <v>760.183152837621</v>
@@ -1276,7 +1276,7 @@
         <v>2509</v>
       </c>
       <c r="I30" t="n">
-        <v>2041.28877843252</v>
+        <v>2028.19902633441</v>
       </c>
       <c r="J30" t="s">
         <v>11</v>
@@ -1287,7 +1287,7 @@
         <v>44713</v>
       </c>
       <c r="B31" t="n">
-        <v>5524.6838675577</v>
+        <v>5440.99420757204</v>
       </c>
       <c r="C31" t="n">
         <v>806.820252497415</v>
@@ -1304,7 +1304,7 @@
         <v>2905</v>
       </c>
       <c r="I31" t="n">
-        <v>2619.6838675577</v>
+        <v>2535.99420757204</v>
       </c>
       <c r="J31" t="s">
         <v>11</v>
@@ -1315,7 +1315,7 @@
         <v>44743</v>
       </c>
       <c r="B32" t="n">
-        <v>6277.02665741081</v>
+        <v>6286.9423103053</v>
       </c>
       <c r="C32" t="n">
         <v>865.440714215065</v>
@@ -1332,7 +1332,7 @@
         <v>2629</v>
       </c>
       <c r="I32" t="n">
-        <v>3648.02665741081</v>
+        <v>3657.9423103053</v>
       </c>
       <c r="J32" t="s">
         <v>11</v>
@@ -1343,7 +1343,7 @@
         <v>44774</v>
       </c>
       <c r="B33" t="n">
-        <v>6027.33618396233</v>
+        <v>6054.71881185815</v>
       </c>
       <c r="C33" t="n">
         <v>897.91442000032</v>
@@ -1360,7 +1360,7 @@
         <v>2267</v>
       </c>
       <c r="I33" t="n">
-        <v>3760.33618396233</v>
+        <v>3787.71881185815</v>
       </c>
       <c r="J33" t="s">
         <v>11</v>
@@ -1371,7 +1371,7 @@
         <v>44805</v>
       </c>
       <c r="B34" t="n">
-        <v>6478.48501825899</v>
+        <v>6463.31192156546</v>
       </c>
       <c r="C34" t="n">
         <v>916.041275246779</v>
@@ -1388,7 +1388,7 @@
         <v>2273</v>
       </c>
       <c r="I34" t="n">
-        <v>4205.48501825899</v>
+        <v>4190.31192156546</v>
       </c>
       <c r="J34" t="s">
         <v>11</v>
@@ -1399,7 +1399,7 @@
         <v>44835</v>
       </c>
       <c r="B35" t="n">
-        <v>4603.03956682235</v>
+        <v>4584.77089555395</v>
       </c>
       <c r="C35" t="n">
         <v>758.65507359426</v>
@@ -1416,7 +1416,7 @@
         <v>2009</v>
       </c>
       <c r="I35" t="n">
-        <v>2594.03956682235</v>
+        <v>2575.77089555395</v>
       </c>
       <c r="J35" t="s">
         <v>11</v>
@@ -1427,7 +1427,7 @@
         <v>44866</v>
       </c>
       <c r="B36" t="n">
-        <v>3833.55063320699</v>
+        <v>3879.66964552629</v>
       </c>
       <c r="C36" t="n">
         <v>618.934138868747</v>
@@ -1444,7 +1444,7 @@
         <v>1738</v>
       </c>
       <c r="I36" t="n">
-        <v>2095.55063320699</v>
+        <v>2141.66964552629</v>
       </c>
       <c r="J36" t="s">
         <v>11</v>
@@ -1455,7 +1455,7 @@
         <v>44896</v>
       </c>
       <c r="B37" t="n">
-        <v>3483.60450084892</v>
+        <v>3501.38361920113</v>
       </c>
       <c r="C37" t="n">
         <v>555.118159278263</v>
@@ -1472,7 +1472,7 @@
         <v>1569</v>
       </c>
       <c r="I37" t="n">
-        <v>1914.60450084892</v>
+        <v>1932.38361920113</v>
       </c>
       <c r="J37" t="s">
         <v>11</v>
@@ -1483,7 +1483,7 @@
         <v>44927</v>
       </c>
       <c r="B38" t="n">
-        <v>2634.58891662087</v>
+        <v>2679.07375331944</v>
       </c>
       <c r="C38" t="n">
         <v>442.653526695428</v>
@@ -1500,7 +1500,7 @@
         <v>1156</v>
       </c>
       <c r="I38" t="n">
-        <v>1478.58891662087</v>
+        <v>1523.07375331944</v>
       </c>
       <c r="J38" t="s">
         <v>11</v>
@@ -1511,7 +1511,7 @@
         <v>44958</v>
       </c>
       <c r="B39" t="n">
-        <v>2113.74492758326</v>
+        <v>2138.59942652013</v>
       </c>
       <c r="C39" t="n">
         <v>399.049257875761</v>
@@ -1530,7 +1530,7 @@
         <v>1958</v>
       </c>
       <c r="I39" t="n">
-        <v>155.744927583256</v>
+        <v>180.599426520128</v>
       </c>
       <c r="J39" t="s">
         <v>11</v>
@@ -1541,7 +1541,7 @@
         <v>44986</v>
       </c>
       <c r="B40" t="n">
-        <v>3311.22895693482</v>
+        <v>3296.52492207697</v>
       </c>
       <c r="C40" t="n">
         <v>526.943448500921</v>
@@ -1558,7 +1558,7 @@
         <v>2208</v>
       </c>
       <c r="I40" t="n">
-        <v>1103.22895693482</v>
+        <v>1088.52492207697</v>
       </c>
       <c r="J40" t="s">
         <v>11</v>
@@ -1569,7 +1569,7 @@
         <v>45017</v>
       </c>
       <c r="B41" t="n">
-        <v>4044.5519827208</v>
+        <v>3932.98475501349</v>
       </c>
       <c r="C41" t="n">
         <v>578.143021176782</v>
@@ -1586,7 +1586,7 @@
         <v>2210</v>
       </c>
       <c r="I41" t="n">
-        <v>1834.5519827208</v>
+        <v>1722.98475501349</v>
       </c>
       <c r="J41" t="s">
         <v>11</v>
@@ -1597,7 +1597,7 @@
         <v>45047</v>
       </c>
       <c r="B42" t="n">
-        <v>4809.83711001984</v>
+        <v>4762.92795059367</v>
       </c>
       <c r="C42" t="n">
         <v>610.886114991337</v>
@@ -1614,7 +1614,7 @@
         <v>2311</v>
       </c>
       <c r="I42" t="n">
-        <v>2498.83711001984</v>
+        <v>2451.92795059367</v>
       </c>
       <c r="J42" t="s">
         <v>11</v>
@@ -1625,7 +1625,7 @@
         <v>45078</v>
       </c>
       <c r="B43" t="n">
-        <v>5911.34380416538</v>
+        <v>5751.78744369979</v>
       </c>
       <c r="C43" t="n">
         <v>646.459382909779</v>
@@ -1642,7 +1642,7 @@
         <v>4985</v>
       </c>
       <c r="I43" t="n">
-        <v>926.343804165379</v>
+        <v>766.78744369979</v>
       </c>
       <c r="J43" t="s">
         <v>11</v>
@@ -1653,7 +1653,7 @@
         <v>45108</v>
       </c>
       <c r="B44" t="n">
-        <v>6658.02718059068</v>
+        <v>6634.62259765757</v>
       </c>
       <c r="C44" t="n">
         <v>690.564998954682</v>
@@ -1670,7 +1670,7 @@
         <v>13425</v>
       </c>
       <c r="I44" t="n">
-        <v>-6766.97281940932</v>
+        <v>-6790.37740234243</v>
       </c>
       <c r="J44" t="s">
         <v>12</v>
@@ -1681,7 +1681,7 @@
         <v>45139</v>
       </c>
       <c r="B45" t="n">
-        <v>6427.89930026476</v>
+        <v>6405.72817970038</v>
       </c>
       <c r="C45" t="n">
         <v>715.850315401207</v>
@@ -1698,7 +1698,7 @@
         <v>12742</v>
       </c>
       <c r="I45" t="n">
-        <v>-6314.10069973524</v>
+        <v>-6336.27182029962</v>
       </c>
       <c r="J45" t="s">
         <v>12</v>
@@ -1709,7 +1709,7 @@
         <v>45170</v>
       </c>
       <c r="B46" t="n">
-        <v>6723.81647105225</v>
+        <v>6754.00045227895</v>
       </c>
       <c r="C46" t="n">
         <v>768.051438790466</v>
@@ -1726,7 +1726,7 @@
         <v>125264</v>
       </c>
       <c r="I46" t="n">
-        <v>-118540.183528948</v>
+        <v>-118509.999547721</v>
       </c>
       <c r="J46" t="s">
         <v>12</v>
@@ -1737,7 +1737,7 @@
         <v>45200</v>
       </c>
       <c r="B47" t="n">
-        <v>4959.31603061121</v>
+        <v>4891.18391246051</v>
       </c>
       <c r="C47" t="n">
         <v>618.071788619858</v>
@@ -1754,7 +1754,7 @@
         <v>23111</v>
       </c>
       <c r="I47" t="n">
-        <v>-18151.6839693888</v>
+        <v>-18219.8160875395</v>
       </c>
       <c r="J47" t="s">
         <v>12</v>
@@ -1765,7 +1765,7 @@
         <v>45231</v>
       </c>
       <c r="B48" t="n">
-        <v>4106.50473961734</v>
+        <v>4139.9895375961</v>
       </c>
       <c r="C48" t="n">
         <v>514.5604806704</v>
@@ -1782,7 +1782,7 @@
         <v>4940</v>
       </c>
       <c r="I48" t="n">
-        <v>-833.495260382662</v>
+        <v>-800.010462403896</v>
       </c>
       <c r="J48" t="s">
         <v>12</v>
@@ -1793,7 +1793,7 @@
         <v>45261</v>
       </c>
       <c r="B49" t="n">
-        <v>3725.58704288798</v>
+        <v>3746.5970767429</v>
       </c>
       <c r="C49" t="n">
         <v>466.583399557315</v>
@@ -1810,7 +1810,7 @@
         <v>3873</v>
       </c>
       <c r="I49" t="n">
-        <v>-147.412957112018</v>
+        <v>-126.402923257102</v>
       </c>
       <c r="J49" t="s">
         <v>12</v>

--- a/outcome/appendix/forecast/AHC.xlsx
+++ b/outcome/appendix/forecast/AHC.xlsx
@@ -427,7 +427,7 @@
         <v>43831</v>
       </c>
       <c r="B2" t="n">
-        <v>2301.14176551591</v>
+        <v>2300.54974976347</v>
       </c>
       <c r="C2" t="n">
         <v>1402.45845867814</v>
@@ -448,7 +448,7 @@
         <v>2139</v>
       </c>
       <c r="I2" t="n">
-        <v>162.141765515915</v>
+        <v>161.549749763474</v>
       </c>
       <c r="J2" t="s">
         <v>11</v>
@@ -459,7 +459,7 @@
         <v>43862</v>
       </c>
       <c r="B3" t="n">
-        <v>1903.09417655727</v>
+        <v>1896.35266243444</v>
       </c>
       <c r="C3" t="n">
         <v>1074.38963336526</v>
@@ -480,7 +480,7 @@
         <v>1672</v>
       </c>
       <c r="I3" t="n">
-        <v>231.094176557268</v>
+        <v>224.35266243444</v>
       </c>
       <c r="J3" t="s">
         <v>11</v>
@@ -491,7 +491,7 @@
         <v>43891</v>
       </c>
       <c r="B4" t="n">
-        <v>3057.28010983117</v>
+        <v>3084.53702557092</v>
       </c>
       <c r="C4" t="n">
         <v>1582.26540413731</v>
@@ -512,7 +512,7 @@
         <v>2011</v>
       </c>
       <c r="I4" t="n">
-        <v>1046.28010983117</v>
+        <v>1073.53702557092</v>
       </c>
       <c r="J4" t="s">
         <v>11</v>
@@ -523,7 +523,7 @@
         <v>43922</v>
       </c>
       <c r="B5" t="n">
-        <v>3545.04034997452</v>
+        <v>3612.4772784069</v>
       </c>
       <c r="C5" t="n">
         <v>1739.64431240911</v>
@@ -544,7 +544,7 @@
         <v>2230</v>
       </c>
       <c r="I5" t="n">
-        <v>1315.04034997452</v>
+        <v>1382.4772784069</v>
       </c>
       <c r="J5" t="s">
         <v>11</v>
@@ -555,7 +555,7 @@
         <v>43952</v>
       </c>
       <c r="B6" t="n">
-        <v>4221.06882325518</v>
+        <v>4274.39575024501</v>
       </c>
       <c r="C6" t="n">
         <v>1809.7782935037</v>
@@ -576,7 +576,7 @@
         <v>2468</v>
       </c>
       <c r="I6" t="n">
-        <v>1753.06882325518</v>
+        <v>1806.39575024501</v>
       </c>
       <c r="J6" t="s">
         <v>11</v>
@@ -587,7 +587,7 @@
         <v>43983</v>
       </c>
       <c r="B7" t="n">
-        <v>4973.85703953425</v>
+        <v>5006.37135056473</v>
       </c>
       <c r="C7" t="n">
         <v>1898.54742543883</v>
@@ -606,7 +606,7 @@
         <v>2788</v>
       </c>
       <c r="I7" t="n">
-        <v>2185.85703953425</v>
+        <v>2218.37135056473</v>
       </c>
       <c r="J7" t="s">
         <v>11</v>
@@ -617,7 +617,7 @@
         <v>44013</v>
       </c>
       <c r="B8" t="n">
-        <v>5621.70485298858</v>
+        <v>5637.95274486119</v>
       </c>
       <c r="C8" t="n">
         <v>2005.73417052012</v>
@@ -636,7 +636,7 @@
         <v>2561</v>
       </c>
       <c r="I8" t="n">
-        <v>3060.70485298858</v>
+        <v>3076.95274486119</v>
       </c>
       <c r="J8" t="s">
         <v>11</v>
@@ -647,7 +647,7 @@
         <v>44044</v>
       </c>
       <c r="B9" t="n">
-        <v>5468.1542946846</v>
+        <v>5384.09103664034</v>
       </c>
       <c r="C9" t="n">
         <v>1769.74578922137</v>
@@ -666,7 +666,7 @@
         <v>2561</v>
       </c>
       <c r="I9" t="n">
-        <v>2907.1542946846</v>
+        <v>2823.09103664034</v>
       </c>
       <c r="J9" t="s">
         <v>11</v>
@@ -677,7 +677,7 @@
         <v>44075</v>
       </c>
       <c r="B10" t="n">
-        <v>6087.49207483023</v>
+        <v>6053.45986927511</v>
       </c>
       <c r="C10" t="n">
         <v>1671.95009098248</v>
@@ -694,7 +694,7 @@
         <v>2549</v>
       </c>
       <c r="I10" t="n">
-        <v>3538.49207483023</v>
+        <v>3504.45986927511</v>
       </c>
       <c r="J10" t="s">
         <v>11</v>
@@ -705,7 +705,7 @@
         <v>44105</v>
       </c>
       <c r="B11" t="n">
-        <v>4199.50127972044</v>
+        <v>4183.34369794319</v>
       </c>
       <c r="C11" t="n">
         <v>1408.21433272463</v>
@@ -724,7 +724,7 @@
         <v>2298</v>
       </c>
       <c r="I11" t="n">
-        <v>1901.50127972044</v>
+        <v>1885.34369794319</v>
       </c>
       <c r="J11" t="s">
         <v>11</v>
@@ -735,7 +735,7 @@
         <v>44136</v>
       </c>
       <c r="B12" t="n">
-        <v>3545.94845922953</v>
+        <v>3538.09146671031</v>
       </c>
       <c r="C12" t="n">
         <v>1143.88286409215</v>
@@ -754,7 +754,7 @@
         <v>2538</v>
       </c>
       <c r="I12" t="n">
-        <v>1007.94845922953</v>
+        <v>1000.09146671031</v>
       </c>
       <c r="J12" t="s">
         <v>11</v>
@@ -765,7 +765,7 @@
         <v>44166</v>
       </c>
       <c r="B13" t="n">
-        <v>3227.93686571901</v>
+        <v>3253.98636129934</v>
       </c>
       <c r="C13" t="n">
         <v>974.237994155916</v>
@@ -784,7 +784,7 @@
         <v>2583</v>
       </c>
       <c r="I13" t="n">
-        <v>644.93686571901</v>
+        <v>670.98636129934</v>
       </c>
       <c r="J13" t="s">
         <v>11</v>
@@ -795,7 +795,7 @@
         <v>44197</v>
       </c>
       <c r="B14" t="n">
-        <v>2463.18178234539</v>
+        <v>2472.57961449066</v>
       </c>
       <c r="C14" t="n">
         <v>718.898811131472</v>
@@ -816,7 +816,7 @@
         <v>2305</v>
       </c>
       <c r="I14" t="n">
-        <v>158.18178234539</v>
+        <v>167.579614490663</v>
       </c>
       <c r="J14" t="s">
         <v>11</v>
@@ -827,7 +827,7 @@
         <v>44228</v>
       </c>
       <c r="B15" t="n">
-        <v>1936.0888090963</v>
+        <v>1939.1207056887</v>
       </c>
       <c r="C15" t="n">
         <v>624.421895107958</v>
@@ -848,7 +848,7 @@
         <v>1873</v>
       </c>
       <c r="I15" t="n">
-        <v>63.0888090962969</v>
+        <v>66.1207056887033</v>
       </c>
       <c r="J15" t="s">
         <v>11</v>
@@ -859,7 +859,7 @@
         <v>44256</v>
       </c>
       <c r="B16" t="n">
-        <v>3106.72822268123</v>
+        <v>3143.30005070225</v>
       </c>
       <c r="C16" t="n">
         <v>874.934646736935</v>
@@ -878,7 +878,7 @@
         <v>2885</v>
       </c>
       <c r="I16" t="n">
-        <v>221.728222681235</v>
+        <v>258.300050702252</v>
       </c>
       <c r="J16" t="s">
         <v>11</v>
@@ -889,7 +889,7 @@
         <v>44287</v>
       </c>
       <c r="B17" t="n">
-        <v>3648.63449358906</v>
+        <v>3754.01001556605</v>
       </c>
       <c r="C17" t="n">
         <v>973.402100363647</v>
@@ -908,7 +908,7 @@
         <v>2808</v>
       </c>
       <c r="I17" t="n">
-        <v>840.634493589057</v>
+        <v>946.010015566054</v>
       </c>
       <c r="J17" t="s">
         <v>11</v>
@@ -919,7 +919,7 @@
         <v>44317</v>
       </c>
       <c r="B18" t="n">
-        <v>4351.02937707594</v>
+        <v>4425.41264341047</v>
       </c>
       <c r="C18" t="n">
         <v>1032.76562489763</v>
@@ -936,7 +936,7 @@
         <v>2548</v>
       </c>
       <c r="I18" t="n">
-        <v>1803.02937707594</v>
+        <v>1877.41264341047</v>
       </c>
       <c r="J18" t="s">
         <v>11</v>
@@ -947,7 +947,7 @@
         <v>44348</v>
       </c>
       <c r="B19" t="n">
-        <v>5199.04677992971</v>
+        <v>5273.06741307675</v>
       </c>
       <c r="C19" t="n">
         <v>1098.44077312814</v>
@@ -964,7 +964,7 @@
         <v>2467</v>
       </c>
       <c r="I19" t="n">
-        <v>2732.04677992971</v>
+        <v>2806.06741307675</v>
       </c>
       <c r="J19" t="s">
         <v>11</v>
@@ -975,7 +975,7 @@
         <v>44378</v>
       </c>
       <c r="B20" t="n">
-        <v>5943.72092578541</v>
+        <v>5981.96522262336</v>
       </c>
       <c r="C20" t="n">
         <v>1183.13234495817</v>
@@ -992,7 +992,7 @@
         <v>2566</v>
       </c>
       <c r="I20" t="n">
-        <v>3377.72092578541</v>
+        <v>3415.96522262336</v>
       </c>
       <c r="J20" t="s">
         <v>11</v>
@@ -1003,7 +1003,7 @@
         <v>44409</v>
       </c>
       <c r="B21" t="n">
-        <v>5801.46190432126</v>
+        <v>5703.26229625489</v>
       </c>
       <c r="C21" t="n">
         <v>1198.18797157789</v>
@@ -1020,7 +1020,7 @@
         <v>2016</v>
       </c>
       <c r="I21" t="n">
-        <v>3785.46190432126</v>
+        <v>3687.26229625489</v>
       </c>
       <c r="J21" t="s">
         <v>11</v>
@@ -1031,7 +1031,7 @@
         <v>44440</v>
       </c>
       <c r="B22" t="n">
-        <v>6275.71075866895</v>
+        <v>6188.49374220328</v>
       </c>
       <c r="C22" t="n">
         <v>1157.71669924864</v>
@@ -1048,7 +1048,7 @@
         <v>2321</v>
       </c>
       <c r="I22" t="n">
-        <v>3954.71075866895</v>
+        <v>3867.49374220328</v>
       </c>
       <c r="J22" t="s">
         <v>11</v>
@@ -1059,7 +1059,7 @@
         <v>44470</v>
       </c>
       <c r="B23" t="n">
-        <v>4423.61851970529</v>
+        <v>4370.48533809857</v>
       </c>
       <c r="C23" t="n">
         <v>998.62145681024</v>
@@ -1076,7 +1076,7 @@
         <v>1994</v>
       </c>
       <c r="I23" t="n">
-        <v>2429.61851970529</v>
+        <v>2376.48533809857</v>
       </c>
       <c r="J23" t="s">
         <v>11</v>
@@ -1087,7 +1087,7 @@
         <v>44501</v>
       </c>
       <c r="B24" t="n">
-        <v>3742.75193233892</v>
+        <v>3703.76486452103</v>
       </c>
       <c r="C24" t="n">
         <v>789.447732342427</v>
@@ -1104,7 +1104,7 @@
         <v>2218</v>
       </c>
       <c r="I24" t="n">
-        <v>1524.75193233892</v>
+        <v>1485.76486452103</v>
       </c>
       <c r="J24" t="s">
         <v>11</v>
@@ -1115,7 +1115,7 @@
         <v>44531</v>
       </c>
       <c r="B25" t="n">
-        <v>3356.94257203687</v>
+        <v>3382.18231903412</v>
       </c>
       <c r="C25" t="n">
         <v>696.057765222493</v>
@@ -1132,7 +1132,7 @@
         <v>2513</v>
       </c>
       <c r="I25" t="n">
-        <v>843.942572036869</v>
+        <v>869.182319034122</v>
       </c>
       <c r="J25" t="s">
         <v>11</v>
@@ -1143,7 +1143,7 @@
         <v>44562</v>
       </c>
       <c r="B26" t="n">
-        <v>2579.32160164857</v>
+        <v>2591.93930963974</v>
       </c>
       <c r="C26" t="n">
         <v>539.890034502062</v>
@@ -1162,7 +1162,7 @@
         <v>1811</v>
       </c>
       <c r="I26" t="n">
-        <v>768.321601648573</v>
+        <v>780.939309639738</v>
       </c>
       <c r="J26" t="s">
         <v>11</v>
@@ -1173,7 +1173,7 @@
         <v>44593</v>
       </c>
       <c r="B27" t="n">
-        <v>2027.34548663951</v>
+        <v>2039.77519044255</v>
       </c>
       <c r="C27" t="n">
         <v>480.367275153743</v>
@@ -1192,7 +1192,7 @@
         <v>1561</v>
       </c>
       <c r="I27" t="n">
-        <v>466.345486639506</v>
+        <v>478.775190442546</v>
       </c>
       <c r="J27" t="s">
         <v>11</v>
@@ -1203,7 +1203,7 @@
         <v>44621</v>
       </c>
       <c r="B28" t="n">
-        <v>3152.62605460391</v>
+        <v>3201.17794531041</v>
       </c>
       <c r="C28" t="n">
         <v>649.772094417423</v>
@@ -1220,7 +1220,7 @@
         <v>2559</v>
       </c>
       <c r="I28" t="n">
-        <v>593.626054603911</v>
+        <v>642.177945310406</v>
       </c>
       <c r="J28" t="s">
         <v>11</v>
@@ -1231,7 +1231,7 @@
         <v>44652</v>
       </c>
       <c r="B29" t="n">
-        <v>3782.43753968487</v>
+        <v>3923.53189426058</v>
       </c>
       <c r="C29" t="n">
         <v>717.54019831555</v>
@@ -1248,7 +1248,7 @@
         <v>2455</v>
       </c>
       <c r="I29" t="n">
-        <v>1327.43753968487</v>
+        <v>1468.53189426058</v>
       </c>
       <c r="J29" t="s">
         <v>11</v>
@@ -1259,7 +1259,7 @@
         <v>44682</v>
       </c>
       <c r="B30" t="n">
-        <v>4537.19902633441</v>
+        <v>4645.08510566383</v>
       </c>
       <c r="C30" t="n">
         <v>760.183152837621</v>
@@ -1276,7 +1276,7 @@
         <v>2509</v>
       </c>
       <c r="I30" t="n">
-        <v>2028.19902633441</v>
+        <v>2136.08510566383</v>
       </c>
       <c r="J30" t="s">
         <v>11</v>
@@ -1287,7 +1287,7 @@
         <v>44713</v>
       </c>
       <c r="B31" t="n">
-        <v>5440.99420757204</v>
+        <v>5556.16554158714</v>
       </c>
       <c r="C31" t="n">
         <v>806.820252497415</v>
@@ -1304,7 +1304,7 @@
         <v>2905</v>
       </c>
       <c r="I31" t="n">
-        <v>2535.99420757204</v>
+        <v>2651.16554158714</v>
       </c>
       <c r="J31" t="s">
         <v>11</v>
@@ -1315,7 +1315,7 @@
         <v>44743</v>
       </c>
       <c r="B32" t="n">
-        <v>6286.9423103053</v>
+        <v>6354.781755022</v>
       </c>
       <c r="C32" t="n">
         <v>865.440714215065</v>
@@ -1332,7 +1332,7 @@
         <v>2629</v>
       </c>
       <c r="I32" t="n">
-        <v>3657.9423103053</v>
+        <v>3725.781755022</v>
       </c>
       <c r="J32" t="s">
         <v>11</v>
@@ -1343,7 +1343,7 @@
         <v>44774</v>
       </c>
       <c r="B33" t="n">
-        <v>6054.71881185815</v>
+        <v>5982.39217070932</v>
       </c>
       <c r="C33" t="n">
         <v>897.91442000032</v>
@@ -1360,7 +1360,7 @@
         <v>2267</v>
       </c>
       <c r="I33" t="n">
-        <v>3787.71881185815</v>
+        <v>3715.39217070932</v>
       </c>
       <c r="J33" t="s">
         <v>11</v>
@@ -1371,7 +1371,7 @@
         <v>44805</v>
       </c>
       <c r="B34" t="n">
-        <v>6463.31192156546</v>
+        <v>6352.28596084523</v>
       </c>
       <c r="C34" t="n">
         <v>916.041275246779</v>
@@ -1388,7 +1388,7 @@
         <v>2273</v>
       </c>
       <c r="I34" t="n">
-        <v>4190.31192156546</v>
+        <v>4079.28596084523</v>
       </c>
       <c r="J34" t="s">
         <v>11</v>
@@ -1399,7 +1399,7 @@
         <v>44835</v>
       </c>
       <c r="B35" t="n">
-        <v>4584.77089555395</v>
+        <v>4501.6460933452</v>
       </c>
       <c r="C35" t="n">
         <v>758.65507359426</v>
@@ -1416,7 +1416,7 @@
         <v>2009</v>
       </c>
       <c r="I35" t="n">
-        <v>2575.77089555395</v>
+        <v>2492.6460933452</v>
       </c>
       <c r="J35" t="s">
         <v>11</v>
@@ -1427,7 +1427,7 @@
         <v>44866</v>
       </c>
       <c r="B36" t="n">
-        <v>3879.66964552629</v>
+        <v>3814.60114129959</v>
       </c>
       <c r="C36" t="n">
         <v>618.934138868747</v>
@@ -1444,7 +1444,7 @@
         <v>1738</v>
       </c>
       <c r="I36" t="n">
-        <v>2141.66964552629</v>
+        <v>2076.60114129959</v>
       </c>
       <c r="J36" t="s">
         <v>11</v>
@@ -1455,7 +1455,7 @@
         <v>44896</v>
       </c>
       <c r="B37" t="n">
-        <v>3501.38361920113</v>
+        <v>3515.56521881807</v>
       </c>
       <c r="C37" t="n">
         <v>555.118159278263</v>
@@ -1472,7 +1472,7 @@
         <v>1569</v>
       </c>
       <c r="I37" t="n">
-        <v>1932.38361920113</v>
+        <v>1946.56521881807</v>
       </c>
       <c r="J37" t="s">
         <v>11</v>
@@ -1483,7 +1483,7 @@
         <v>44927</v>
       </c>
       <c r="B38" t="n">
-        <v>2679.07375331944</v>
+        <v>2697.7968216493</v>
       </c>
       <c r="C38" t="n">
         <v>442.653526695428</v>
@@ -1500,7 +1500,7 @@
         <v>1156</v>
       </c>
       <c r="I38" t="n">
-        <v>1523.07375331944</v>
+        <v>1541.7968216493</v>
       </c>
       <c r="J38" t="s">
         <v>11</v>
@@ -1511,7 +1511,7 @@
         <v>44958</v>
       </c>
       <c r="B39" t="n">
-        <v>2138.59942652013</v>
+        <v>2155.93047557963</v>
       </c>
       <c r="C39" t="n">
         <v>399.049257875761</v>
@@ -1530,7 +1530,7 @@
         <v>1958</v>
       </c>
       <c r="I39" t="n">
-        <v>180.599426520128</v>
+        <v>197.930475579629</v>
       </c>
       <c r="J39" t="s">
         <v>11</v>
@@ -1541,7 +1541,7 @@
         <v>44986</v>
       </c>
       <c r="B40" t="n">
-        <v>3296.52492207697</v>
+        <v>3326.57871483008</v>
       </c>
       <c r="C40" t="n">
         <v>526.943448500921</v>
@@ -1558,7 +1558,7 @@
         <v>2208</v>
       </c>
       <c r="I40" t="n">
-        <v>1088.52492207697</v>
+        <v>1118.57871483008</v>
       </c>
       <c r="J40" t="s">
         <v>11</v>
@@ -1569,7 +1569,7 @@
         <v>45017</v>
       </c>
       <c r="B41" t="n">
-        <v>3932.98475501349</v>
+        <v>4075.41201442959</v>
       </c>
       <c r="C41" t="n">
         <v>578.143021176782</v>
@@ -1586,7 +1586,7 @@
         <v>2210</v>
       </c>
       <c r="I41" t="n">
-        <v>1722.98475501349</v>
+        <v>1865.41201442959</v>
       </c>
       <c r="J41" t="s">
         <v>11</v>
@@ -1597,7 +1597,7 @@
         <v>45047</v>
       </c>
       <c r="B42" t="n">
-        <v>4762.92795059367</v>
+        <v>4894.875187802</v>
       </c>
       <c r="C42" t="n">
         <v>610.886114991337</v>
@@ -1614,7 +1614,7 @@
         <v>2311</v>
       </c>
       <c r="I42" t="n">
-        <v>2451.92795059367</v>
+        <v>2583.875187802</v>
       </c>
       <c r="J42" t="s">
         <v>11</v>
@@ -1625,7 +1625,7 @@
         <v>45078</v>
       </c>
       <c r="B43" t="n">
-        <v>5751.78744369979</v>
+        <v>5907.27184807725</v>
       </c>
       <c r="C43" t="n">
         <v>646.459382909779</v>
@@ -1642,7 +1642,7 @@
         <v>4985</v>
       </c>
       <c r="I43" t="n">
-        <v>766.78744369979</v>
+        <v>922.271848077252</v>
       </c>
       <c r="J43" t="s">
         <v>11</v>
@@ -1653,7 +1653,7 @@
         <v>45108</v>
       </c>
       <c r="B44" t="n">
-        <v>6634.62259765757</v>
+        <v>6765.59118980005</v>
       </c>
       <c r="C44" t="n">
         <v>690.564998954682</v>
@@ -1670,7 +1670,7 @@
         <v>13425</v>
       </c>
       <c r="I44" t="n">
-        <v>-6790.37740234243</v>
+        <v>-6659.40881019995</v>
       </c>
       <c r="J44" t="s">
         <v>12</v>
@@ -1681,7 +1681,7 @@
         <v>45139</v>
       </c>
       <c r="B45" t="n">
-        <v>6405.72817970038</v>
+        <v>6453.99508037672</v>
       </c>
       <c r="C45" t="n">
         <v>715.850315401207</v>
@@ -1698,7 +1698,7 @@
         <v>12742</v>
       </c>
       <c r="I45" t="n">
-        <v>-6336.27182029962</v>
+        <v>-6288.00491962328</v>
       </c>
       <c r="J45" t="s">
         <v>12</v>
@@ -1709,7 +1709,7 @@
         <v>45170</v>
       </c>
       <c r="B46" t="n">
-        <v>6754.00045227895</v>
+        <v>6659.45931634619</v>
       </c>
       <c r="C46" t="n">
         <v>768.051438790466</v>
@@ -1726,7 +1726,7 @@
         <v>125264</v>
       </c>
       <c r="I46" t="n">
-        <v>-118509.999547721</v>
+        <v>-118604.540683654</v>
       </c>
       <c r="J46" t="s">
         <v>12</v>
@@ -1737,7 +1737,7 @@
         <v>45200</v>
       </c>
       <c r="B47" t="n">
-        <v>4891.18391246051</v>
+        <v>4801.42558959246</v>
       </c>
       <c r="C47" t="n">
         <v>618.071788619858</v>
@@ -1754,7 +1754,7 @@
         <v>23111</v>
       </c>
       <c r="I47" t="n">
-        <v>-18219.8160875395</v>
+        <v>-18309.5744104075</v>
       </c>
       <c r="J47" t="s">
         <v>12</v>
@@ -1765,7 +1765,7 @@
         <v>45231</v>
       </c>
       <c r="B48" t="n">
-        <v>4139.9895375961</v>
+        <v>4071.67581654762</v>
       </c>
       <c r="C48" t="n">
         <v>514.5604806704</v>
@@ -1782,7 +1782,7 @@
         <v>4940</v>
       </c>
       <c r="I48" t="n">
-        <v>-800.010462403896</v>
+        <v>-868.324183452378</v>
       </c>
       <c r="J48" t="s">
         <v>12</v>
@@ -1793,7 +1793,7 @@
         <v>45261</v>
       </c>
       <c r="B49" t="n">
-        <v>3746.5970767429</v>
+        <v>3756.49938930968</v>
       </c>
       <c r="C49" t="n">
         <v>466.583399557315</v>
@@ -1810,7 +1810,7 @@
         <v>3873</v>
       </c>
       <c r="I49" t="n">
-        <v>-126.402923257102</v>
+        <v>-116.500610690318</v>
       </c>
       <c r="J49" t="s">
         <v>12</v>

--- a/outcome/appendix/forecast/AHC.xlsx
+++ b/outcome/appendix/forecast/AHC.xlsx
@@ -427,7 +427,7 @@
         <v>43831</v>
       </c>
       <c r="B2" t="n">
-        <v>2300.54974976347</v>
+        <v>2332.34698123695</v>
       </c>
       <c r="C2" t="n">
         <v>1402.45845867814</v>
@@ -448,7 +448,7 @@
         <v>2139</v>
       </c>
       <c r="I2" t="n">
-        <v>161.549749763474</v>
+        <v>193.346981236953</v>
       </c>
       <c r="J2" t="s">
         <v>11</v>
@@ -459,7 +459,7 @@
         <v>43862</v>
       </c>
       <c r="B3" t="n">
-        <v>1896.35266243444</v>
+        <v>1915.22081844539</v>
       </c>
       <c r="C3" t="n">
         <v>1074.38963336526</v>
@@ -480,7 +480,7 @@
         <v>1672</v>
       </c>
       <c r="I3" t="n">
-        <v>224.35266243444</v>
+        <v>243.22081844539</v>
       </c>
       <c r="J3" t="s">
         <v>11</v>
@@ -491,7 +491,7 @@
         <v>43891</v>
       </c>
       <c r="B4" t="n">
-        <v>3084.53702557092</v>
+        <v>3014.51614519195</v>
       </c>
       <c r="C4" t="n">
         <v>1582.26540413731</v>
@@ -512,7 +512,7 @@
         <v>2011</v>
       </c>
       <c r="I4" t="n">
-        <v>1073.53702557092</v>
+        <v>1003.51614519195</v>
       </c>
       <c r="J4" t="s">
         <v>11</v>
@@ -523,7 +523,7 @@
         <v>43922</v>
       </c>
       <c r="B5" t="n">
-        <v>3612.4772784069</v>
+        <v>3599.76721692688</v>
       </c>
       <c r="C5" t="n">
         <v>1739.64431240911</v>
@@ -544,7 +544,7 @@
         <v>2230</v>
       </c>
       <c r="I5" t="n">
-        <v>1382.4772784069</v>
+        <v>1369.76721692688</v>
       </c>
       <c r="J5" t="s">
         <v>11</v>
@@ -555,7 +555,7 @@
         <v>43952</v>
       </c>
       <c r="B6" t="n">
-        <v>4274.39575024501</v>
+        <v>4246.30002644646</v>
       </c>
       <c r="C6" t="n">
         <v>1809.7782935037</v>
@@ -576,7 +576,7 @@
         <v>2468</v>
       </c>
       <c r="I6" t="n">
-        <v>1806.39575024501</v>
+        <v>1778.30002644646</v>
       </c>
       <c r="J6" t="s">
         <v>11</v>
@@ -587,7 +587,7 @@
         <v>43983</v>
       </c>
       <c r="B7" t="n">
-        <v>5006.37135056473</v>
+        <v>4998.72422779812</v>
       </c>
       <c r="C7" t="n">
         <v>1898.54742543883</v>
@@ -606,7 +606,7 @@
         <v>2788</v>
       </c>
       <c r="I7" t="n">
-        <v>2218.37135056473</v>
+        <v>2210.72422779812</v>
       </c>
       <c r="J7" t="s">
         <v>11</v>
@@ -617,7 +617,7 @@
         <v>44013</v>
       </c>
       <c r="B8" t="n">
-        <v>5637.95274486119</v>
+        <v>5715.81948026677</v>
       </c>
       <c r="C8" t="n">
         <v>2005.73417052012</v>
@@ -636,7 +636,7 @@
         <v>2561</v>
       </c>
       <c r="I8" t="n">
-        <v>3076.95274486119</v>
+        <v>3154.81948026677</v>
       </c>
       <c r="J8" t="s">
         <v>11</v>
@@ -647,7 +647,7 @@
         <v>44044</v>
       </c>
       <c r="B9" t="n">
-        <v>5384.09103664034</v>
+        <v>5575.33601978507</v>
       </c>
       <c r="C9" t="n">
         <v>1769.74578922137</v>
@@ -666,7 +666,7 @@
         <v>2561</v>
       </c>
       <c r="I9" t="n">
-        <v>2823.09103664034</v>
+        <v>3014.33601978507</v>
       </c>
       <c r="J9" t="s">
         <v>11</v>
@@ -677,7 +677,7 @@
         <v>44075</v>
       </c>
       <c r="B10" t="n">
-        <v>6053.45986927511</v>
+        <v>6025.60452039181</v>
       </c>
       <c r="C10" t="n">
         <v>1671.95009098248</v>
@@ -694,7 +694,7 @@
         <v>2549</v>
       </c>
       <c r="I10" t="n">
-        <v>3504.45986927511</v>
+        <v>3476.60452039181</v>
       </c>
       <c r="J10" t="s">
         <v>11</v>
@@ -705,7 +705,7 @@
         <v>44105</v>
       </c>
       <c r="B11" t="n">
-        <v>4183.34369794319</v>
+        <v>4174.51471839304</v>
       </c>
       <c r="C11" t="n">
         <v>1408.21433272463</v>
@@ -724,7 +724,7 @@
         <v>2298</v>
       </c>
       <c r="I11" t="n">
-        <v>1885.34369794319</v>
+        <v>1876.51471839304</v>
       </c>
       <c r="J11" t="s">
         <v>11</v>
@@ -735,7 +735,7 @@
         <v>44136</v>
       </c>
       <c r="B12" t="n">
-        <v>3538.09146671031</v>
+        <v>3505.27664977402</v>
       </c>
       <c r="C12" t="n">
         <v>1143.88286409215</v>
@@ -754,7 +754,7 @@
         <v>2538</v>
       </c>
       <c r="I12" t="n">
-        <v>1000.09146671031</v>
+        <v>967.276649774017</v>
       </c>
       <c r="J12" t="s">
         <v>11</v>
@@ -765,7 +765,7 @@
         <v>44166</v>
       </c>
       <c r="B13" t="n">
-        <v>3253.98636129934</v>
+        <v>3233.11488899426</v>
       </c>
       <c r="C13" t="n">
         <v>974.237994155916</v>
@@ -784,7 +784,7 @@
         <v>2583</v>
       </c>
       <c r="I13" t="n">
-        <v>670.98636129934</v>
+        <v>650.114888994256</v>
       </c>
       <c r="J13" t="s">
         <v>11</v>
@@ -795,7 +795,7 @@
         <v>44197</v>
       </c>
       <c r="B14" t="n">
-        <v>2472.57961449066</v>
+        <v>2486.35296712465</v>
       </c>
       <c r="C14" t="n">
         <v>718.898811131472</v>
@@ -816,7 +816,7 @@
         <v>2305</v>
       </c>
       <c r="I14" t="n">
-        <v>167.579614490663</v>
+        <v>181.352967124654</v>
       </c>
       <c r="J14" t="s">
         <v>11</v>
@@ -827,7 +827,7 @@
         <v>44228</v>
       </c>
       <c r="B15" t="n">
-        <v>1939.1207056887</v>
+        <v>1956.85117058213</v>
       </c>
       <c r="C15" t="n">
         <v>624.421895107958</v>
@@ -848,7 +848,7 @@
         <v>1873</v>
       </c>
       <c r="I15" t="n">
-        <v>66.1207056887033</v>
+        <v>83.8511705821338</v>
       </c>
       <c r="J15" t="s">
         <v>11</v>
@@ -859,7 +859,7 @@
         <v>44256</v>
       </c>
       <c r="B16" t="n">
-        <v>3143.30005070225</v>
+        <v>3005.38972017024</v>
       </c>
       <c r="C16" t="n">
         <v>874.934646736935</v>
@@ -878,7 +878,7 @@
         <v>2885</v>
       </c>
       <c r="I16" t="n">
-        <v>258.300050702252</v>
+        <v>120.38972017024</v>
       </c>
       <c r="J16" t="s">
         <v>11</v>
@@ -889,7 +889,7 @@
         <v>44287</v>
       </c>
       <c r="B17" t="n">
-        <v>3754.01001556605</v>
+        <v>3649.32548951151</v>
       </c>
       <c r="C17" t="n">
         <v>973.402100363647</v>
@@ -908,7 +908,7 @@
         <v>2808</v>
       </c>
       <c r="I17" t="n">
-        <v>946.010015566054</v>
+        <v>841.325489511507</v>
       </c>
       <c r="J17" t="s">
         <v>11</v>
@@ -919,7 +919,7 @@
         <v>44317</v>
       </c>
       <c r="B18" t="n">
-        <v>4425.41264341047</v>
+        <v>4317.72861512231</v>
       </c>
       <c r="C18" t="n">
         <v>1032.76562489763</v>
@@ -936,7 +936,7 @@
         <v>2548</v>
       </c>
       <c r="I18" t="n">
-        <v>1877.41264341047</v>
+        <v>1769.72861512231</v>
       </c>
       <c r="J18" t="s">
         <v>11</v>
@@ -947,7 +947,7 @@
         <v>44348</v>
       </c>
       <c r="B19" t="n">
-        <v>5273.06741307675</v>
+        <v>5177.36313377682</v>
       </c>
       <c r="C19" t="n">
         <v>1098.44077312814</v>
@@ -964,7 +964,7 @@
         <v>2467</v>
       </c>
       <c r="I19" t="n">
-        <v>2806.06741307675</v>
+        <v>2710.36313377682</v>
       </c>
       <c r="J19" t="s">
         <v>11</v>
@@ -975,7 +975,7 @@
         <v>44378</v>
       </c>
       <c r="B20" t="n">
-        <v>5981.96522262336</v>
+        <v>5963.50573474867</v>
       </c>
       <c r="C20" t="n">
         <v>1183.13234495817</v>
@@ -992,7 +992,7 @@
         <v>2566</v>
       </c>
       <c r="I20" t="n">
-        <v>3415.96522262336</v>
+        <v>3397.50573474867</v>
       </c>
       <c r="J20" t="s">
         <v>11</v>
@@ -1003,7 +1003,7 @@
         <v>44409</v>
       </c>
       <c r="B21" t="n">
-        <v>5703.26229625489</v>
+        <v>5849.5132557682</v>
       </c>
       <c r="C21" t="n">
         <v>1198.18797157789</v>
@@ -1020,7 +1020,7 @@
         <v>2016</v>
       </c>
       <c r="I21" t="n">
-        <v>3687.26229625489</v>
+        <v>3833.5132557682</v>
       </c>
       <c r="J21" t="s">
         <v>11</v>
@@ -1031,7 +1031,7 @@
         <v>44440</v>
       </c>
       <c r="B22" t="n">
-        <v>6188.49374220328</v>
+        <v>6244.32214801761</v>
       </c>
       <c r="C22" t="n">
         <v>1157.71669924864</v>
@@ -1048,7 +1048,7 @@
         <v>2321</v>
       </c>
       <c r="I22" t="n">
-        <v>3867.49374220328</v>
+        <v>3923.32214801761</v>
       </c>
       <c r="J22" t="s">
         <v>11</v>
@@ -1059,7 +1059,7 @@
         <v>44470</v>
       </c>
       <c r="B23" t="n">
-        <v>4370.48533809857</v>
+        <v>4438.70993924164</v>
       </c>
       <c r="C23" t="n">
         <v>998.62145681024</v>
@@ -1076,7 +1076,7 @@
         <v>1994</v>
       </c>
       <c r="I23" t="n">
-        <v>2376.48533809857</v>
+        <v>2444.70993924164</v>
       </c>
       <c r="J23" t="s">
         <v>11</v>
@@ -1087,7 +1087,7 @@
         <v>44501</v>
       </c>
       <c r="B24" t="n">
-        <v>3703.76486452103</v>
+        <v>3664.5177292711</v>
       </c>
       <c r="C24" t="n">
         <v>789.447732342427</v>
@@ -1104,7 +1104,7 @@
         <v>2218</v>
       </c>
       <c r="I24" t="n">
-        <v>1485.76486452103</v>
+        <v>1446.5177292711</v>
       </c>
       <c r="J24" t="s">
         <v>11</v>
@@ -1115,7 +1115,7 @@
         <v>44531</v>
       </c>
       <c r="B25" t="n">
-        <v>3382.18231903412</v>
+        <v>3340.87677674951</v>
       </c>
       <c r="C25" t="n">
         <v>696.057765222493</v>
@@ -1132,7 +1132,7 @@
         <v>2513</v>
       </c>
       <c r="I25" t="n">
-        <v>869.182319034122</v>
+        <v>827.876776749509</v>
       </c>
       <c r="J25" t="s">
         <v>11</v>
@@ -1143,7 +1143,7 @@
         <v>44562</v>
       </c>
       <c r="B26" t="n">
-        <v>2591.93930963974</v>
+        <v>2605.16361362248</v>
       </c>
       <c r="C26" t="n">
         <v>539.890034502062</v>
@@ -1162,7 +1162,7 @@
         <v>1811</v>
       </c>
       <c r="I26" t="n">
-        <v>780.939309639738</v>
+        <v>794.16361362248</v>
       </c>
       <c r="J26" t="s">
         <v>11</v>
@@ -1173,7 +1173,7 @@
         <v>44593</v>
       </c>
       <c r="B27" t="n">
-        <v>2039.77519044255</v>
+        <v>2081.21138690808</v>
       </c>
       <c r="C27" t="n">
         <v>480.367275153743</v>
@@ -1192,7 +1192,7 @@
         <v>1561</v>
       </c>
       <c r="I27" t="n">
-        <v>478.775190442546</v>
+        <v>520.211386908079</v>
       </c>
       <c r="J27" t="s">
         <v>11</v>
@@ -1203,7 +1203,7 @@
         <v>44621</v>
       </c>
       <c r="B28" t="n">
-        <v>3201.17794531041</v>
+        <v>3047.83083328836</v>
       </c>
       <c r="C28" t="n">
         <v>649.772094417423</v>
@@ -1220,7 +1220,7 @@
         <v>2559</v>
       </c>
       <c r="I28" t="n">
-        <v>642.177945310406</v>
+        <v>488.83083328836</v>
       </c>
       <c r="J28" t="s">
         <v>11</v>
@@ -1231,7 +1231,7 @@
         <v>44652</v>
       </c>
       <c r="B29" t="n">
-        <v>3923.53189426058</v>
+        <v>3766.36135895413</v>
       </c>
       <c r="C29" t="n">
         <v>717.54019831555</v>
@@ -1248,7 +1248,7 @@
         <v>2455</v>
       </c>
       <c r="I29" t="n">
-        <v>1468.53189426058</v>
+        <v>1311.36135895413</v>
       </c>
       <c r="J29" t="s">
         <v>11</v>
@@ -1259,7 +1259,7 @@
         <v>44682</v>
       </c>
       <c r="B30" t="n">
-        <v>4645.08510566383</v>
+        <v>4532.35080094879</v>
       </c>
       <c r="C30" t="n">
         <v>760.183152837621</v>
@@ -1276,7 +1276,7 @@
         <v>2509</v>
       </c>
       <c r="I30" t="n">
-        <v>2136.08510566383</v>
+        <v>2023.35080094879</v>
       </c>
       <c r="J30" t="s">
         <v>11</v>
@@ -1287,7 +1287,7 @@
         <v>44713</v>
       </c>
       <c r="B31" t="n">
-        <v>5556.16554158714</v>
+        <v>5391.28562405106</v>
       </c>
       <c r="C31" t="n">
         <v>806.820252497415</v>
@@ -1304,7 +1304,7 @@
         <v>2905</v>
       </c>
       <c r="I31" t="n">
-        <v>2651.16554158714</v>
+        <v>2486.28562405106</v>
       </c>
       <c r="J31" t="s">
         <v>11</v>
@@ -1315,7 +1315,7 @@
         <v>44743</v>
       </c>
       <c r="B32" t="n">
-        <v>6354.781755022</v>
+        <v>6255.33344242919</v>
       </c>
       <c r="C32" t="n">
         <v>865.440714215065</v>
@@ -1332,7 +1332,7 @@
         <v>2629</v>
       </c>
       <c r="I32" t="n">
-        <v>3725.781755022</v>
+        <v>3626.33344242919</v>
       </c>
       <c r="J32" t="s">
         <v>11</v>
@@ -1343,7 +1343,7 @@
         <v>44774</v>
       </c>
       <c r="B33" t="n">
-        <v>5982.39217070932</v>
+        <v>6068.3635003449</v>
       </c>
       <c r="C33" t="n">
         <v>897.91442000032</v>
@@ -1360,7 +1360,7 @@
         <v>2267</v>
       </c>
       <c r="I33" t="n">
-        <v>3715.39217070932</v>
+        <v>3801.3635003449</v>
       </c>
       <c r="J33" t="s">
         <v>11</v>
@@ -1371,7 +1371,7 @@
         <v>44805</v>
       </c>
       <c r="B34" t="n">
-        <v>6352.28596084523</v>
+        <v>6450.81849625868</v>
       </c>
       <c r="C34" t="n">
         <v>916.041275246779</v>
@@ -1388,7 +1388,7 @@
         <v>2273</v>
       </c>
       <c r="I34" t="n">
-        <v>4079.28596084523</v>
+        <v>4177.81849625868</v>
       </c>
       <c r="J34" t="s">
         <v>11</v>
@@ -1399,7 +1399,7 @@
         <v>44835</v>
       </c>
       <c r="B35" t="n">
-        <v>4501.6460933452</v>
+        <v>4611.77206069134</v>
       </c>
       <c r="C35" t="n">
         <v>758.65507359426</v>
@@ -1416,7 +1416,7 @@
         <v>2009</v>
       </c>
       <c r="I35" t="n">
-        <v>2492.6460933452</v>
+        <v>2602.77206069134</v>
       </c>
       <c r="J35" t="s">
         <v>11</v>
@@ -1427,7 +1427,7 @@
         <v>44866</v>
       </c>
       <c r="B36" t="n">
-        <v>3814.60114129959</v>
+        <v>3807.10159874035</v>
       </c>
       <c r="C36" t="n">
         <v>618.934138868747</v>
@@ -1444,7 +1444,7 @@
         <v>1738</v>
       </c>
       <c r="I36" t="n">
-        <v>2076.60114129959</v>
+        <v>2069.10159874035</v>
       </c>
       <c r="J36" t="s">
         <v>11</v>
@@ -1455,7 +1455,7 @@
         <v>44896</v>
       </c>
       <c r="B37" t="n">
-        <v>3515.56521881807</v>
+        <v>3478.87066252573</v>
       </c>
       <c r="C37" t="n">
         <v>555.118159278263</v>
@@ -1472,7 +1472,7 @@
         <v>1569</v>
       </c>
       <c r="I37" t="n">
-        <v>1946.56521881807</v>
+        <v>1909.87066252573</v>
       </c>
       <c r="J37" t="s">
         <v>11</v>
@@ -1483,7 +1483,7 @@
         <v>44927</v>
       </c>
       <c r="B38" t="n">
-        <v>2697.7968216493</v>
+        <v>2721.50292136982</v>
       </c>
       <c r="C38" t="n">
         <v>442.653526695428</v>
@@ -1500,7 +1500,7 @@
         <v>1156</v>
       </c>
       <c r="I38" t="n">
-        <v>1541.7968216493</v>
+        <v>1565.50292136982</v>
       </c>
       <c r="J38" t="s">
         <v>11</v>
@@ -1511,7 +1511,7 @@
         <v>44958</v>
       </c>
       <c r="B39" t="n">
-        <v>2155.93047557963</v>
+        <v>2220.28361699491</v>
       </c>
       <c r="C39" t="n">
         <v>399.049257875761</v>
@@ -1530,7 +1530,7 @@
         <v>1958</v>
       </c>
       <c r="I39" t="n">
-        <v>197.930475579629</v>
+        <v>262.283616994911</v>
       </c>
       <c r="J39" t="s">
         <v>11</v>
@@ -1541,7 +1541,7 @@
         <v>44986</v>
       </c>
       <c r="B40" t="n">
-        <v>3326.57871483008</v>
+        <v>3263.98460349818</v>
       </c>
       <c r="C40" t="n">
         <v>526.943448500921</v>
@@ -1558,7 +1558,7 @@
         <v>2208</v>
       </c>
       <c r="I40" t="n">
-        <v>1118.57871483008</v>
+        <v>1055.98460349818</v>
       </c>
       <c r="J40" t="s">
         <v>11</v>
@@ -1569,7 +1569,7 @@
         <v>45017</v>
       </c>
       <c r="B41" t="n">
-        <v>4075.41201442959</v>
+        <v>3924.78527962295</v>
       </c>
       <c r="C41" t="n">
         <v>578.143021176782</v>
@@ -1586,7 +1586,7 @@
         <v>2210</v>
       </c>
       <c r="I41" t="n">
-        <v>1865.41201442959</v>
+        <v>1714.78527962295</v>
       </c>
       <c r="J41" t="s">
         <v>11</v>
@@ -1597,7 +1597,7 @@
         <v>45047</v>
       </c>
       <c r="B42" t="n">
-        <v>4894.875187802</v>
+        <v>4823.8964736406</v>
       </c>
       <c r="C42" t="n">
         <v>610.886114991337</v>
@@ -1614,7 +1614,7 @@
         <v>2311</v>
       </c>
       <c r="I42" t="n">
-        <v>2583.875187802</v>
+        <v>2512.8964736406</v>
       </c>
       <c r="J42" t="s">
         <v>11</v>
@@ -1625,7 +1625,7 @@
         <v>45078</v>
       </c>
       <c r="B43" t="n">
-        <v>5907.27184807725</v>
+        <v>5730.83678387194</v>
       </c>
       <c r="C43" t="n">
         <v>646.459382909779</v>
@@ -1642,7 +1642,7 @@
         <v>4985</v>
       </c>
       <c r="I43" t="n">
-        <v>922.271848077252</v>
+        <v>745.836783871942</v>
       </c>
       <c r="J43" t="s">
         <v>11</v>
@@ -1653,7 +1653,7 @@
         <v>45108</v>
       </c>
       <c r="B44" t="n">
-        <v>6765.59118980005</v>
+        <v>6641.23134551702</v>
       </c>
       <c r="C44" t="n">
         <v>690.564998954682</v>
@@ -1670,7 +1670,7 @@
         <v>13425</v>
       </c>
       <c r="I44" t="n">
-        <v>-6659.40881019995</v>
+        <v>-6783.76865448298</v>
       </c>
       <c r="J44" t="s">
         <v>12</v>
@@ -1681,7 +1681,7 @@
         <v>45139</v>
       </c>
       <c r="B45" t="n">
-        <v>6453.99508037672</v>
+        <v>6441.11039462377</v>
       </c>
       <c r="C45" t="n">
         <v>715.850315401207</v>
@@ -1698,7 +1698,7 @@
         <v>12742</v>
       </c>
       <c r="I45" t="n">
-        <v>-6288.00491962328</v>
+        <v>-6300.88960537623</v>
       </c>
       <c r="J45" t="s">
         <v>12</v>
@@ -1709,7 +1709,7 @@
         <v>45170</v>
       </c>
       <c r="B46" t="n">
-        <v>6659.45931634619</v>
+        <v>6768.40239639744</v>
       </c>
       <c r="C46" t="n">
         <v>768.051438790466</v>
@@ -1726,7 +1726,7 @@
         <v>125264</v>
       </c>
       <c r="I46" t="n">
-        <v>-118604.540683654</v>
+        <v>-118495.597603603</v>
       </c>
       <c r="J46" t="s">
         <v>12</v>
@@ -1737,7 +1737,7 @@
         <v>45200</v>
       </c>
       <c r="B47" t="n">
-        <v>4801.42558959246</v>
+        <v>4839.4381343276</v>
       </c>
       <c r="C47" t="n">
         <v>618.071788619858</v>
@@ -1754,7 +1754,7 @@
         <v>23111</v>
       </c>
       <c r="I47" t="n">
-        <v>-18309.5744104075</v>
+        <v>-18271.5618656724</v>
       </c>
       <c r="J47" t="s">
         <v>12</v>
@@ -1765,7 +1765,7 @@
         <v>45231</v>
       </c>
       <c r="B48" t="n">
-        <v>4071.67581654762</v>
+        <v>4087.66719058101</v>
       </c>
       <c r="C48" t="n">
         <v>514.5604806704</v>
@@ -1782,7 +1782,7 @@
         <v>4940</v>
       </c>
       <c r="I48" t="n">
-        <v>-868.324183452378</v>
+        <v>-852.332809418995</v>
       </c>
       <c r="J48" t="s">
         <v>12</v>
@@ -1793,7 +1793,7 @@
         <v>45261</v>
       </c>
       <c r="B49" t="n">
-        <v>3756.49938930968</v>
+        <v>3714.50769315771</v>
       </c>
       <c r="C49" t="n">
         <v>466.583399557315</v>
@@ -1810,7 +1810,7 @@
         <v>3873</v>
       </c>
       <c r="I49" t="n">
-        <v>-116.500610690318</v>
+        <v>-158.492306842294</v>
       </c>
       <c r="J49" t="s">
         <v>12</v>

--- a/outcome/appendix/forecast/AHC.xlsx
+++ b/outcome/appendix/forecast/AHC.xlsx
@@ -427,19 +427,19 @@
         <v>43831</v>
       </c>
       <c r="B2" t="n">
-        <v>2332.34698123695</v>
+        <v>2432.00802381751</v>
       </c>
       <c r="C2" t="n">
-        <v>1402.45845867814</v>
+        <v>1635.80052684553</v>
       </c>
       <c r="D2" t="n">
-        <v>1201.45791741029</v>
+        <v>1383.23771496354</v>
       </c>
       <c r="E2" t="n">
-        <v>3562.87482822459</v>
+        <v>3607.08380933851</v>
       </c>
       <c r="F2" t="n">
-        <v>4496.085868467</v>
+        <v>4727.97382857943</v>
       </c>
       <c r="G2" t="s">
         <v>10</v>
@@ -448,7 +448,7 @@
         <v>2139</v>
       </c>
       <c r="I2" t="n">
-        <v>193.346981236953</v>
+        <v>293.008023817506</v>
       </c>
       <c r="J2" t="s">
         <v>11</v>
@@ -459,19 +459,19 @@
         <v>43862</v>
       </c>
       <c r="B3" t="n">
-        <v>1915.22081844539</v>
+        <v>2047.68343267175</v>
       </c>
       <c r="C3" t="n">
-        <v>1074.38963336526</v>
+        <v>1355.18039838338</v>
       </c>
       <c r="D3" t="n">
-        <v>887.573974421664</v>
+        <v>1090.18289828212</v>
       </c>
       <c r="E3" t="n">
-        <v>3690.61711636704</v>
+        <v>4131.58137947471</v>
       </c>
       <c r="F3" t="n">
-        <v>5219.20970424215</v>
+        <v>6349.9671086707</v>
       </c>
       <c r="G3" t="s">
         <v>10</v>
@@ -480,7 +480,7 @@
         <v>1672</v>
       </c>
       <c r="I3" t="n">
-        <v>243.22081844539</v>
+        <v>375.683432671753</v>
       </c>
       <c r="J3" t="s">
         <v>11</v>
@@ -491,19 +491,19 @@
         <v>43891</v>
       </c>
       <c r="B4" t="n">
-        <v>3014.51614519195</v>
+        <v>3417.72945323418</v>
       </c>
       <c r="C4" t="n">
-        <v>1582.26540413731</v>
+        <v>1861.79673881865</v>
       </c>
       <c r="D4" t="n">
-        <v>1201.36071887594</v>
+        <v>1468.37047407788</v>
       </c>
       <c r="E4" t="n">
-        <v>7702.58936592286</v>
+        <v>15291.3593747605</v>
       </c>
       <c r="F4" t="n">
-        <v>16058.0887576839</v>
+        <v>49439.1298488694</v>
       </c>
       <c r="G4" t="s">
         <v>10</v>
@@ -512,7 +512,7 @@
         <v>2011</v>
       </c>
       <c r="I4" t="n">
-        <v>1003.51614519195</v>
+        <v>1406.72945323418</v>
       </c>
       <c r="J4" t="s">
         <v>11</v>
@@ -523,19 +523,19 @@
         <v>43922</v>
       </c>
       <c r="B5" t="n">
-        <v>3599.76721692688</v>
+        <v>3945.66064897148</v>
       </c>
       <c r="C5" t="n">
-        <v>1739.64431240911</v>
+        <v>1870.16853899921</v>
       </c>
       <c r="D5" t="n">
-        <v>1252.70562302873</v>
+        <v>1415.23224748408</v>
       </c>
       <c r="E5" t="n">
-        <v>14720.0372550758</v>
+        <v>32238.7826270897</v>
       </c>
       <c r="F5" t="n">
-        <v>54874.0660984578</v>
+        <v>448710.252894131</v>
       </c>
       <c r="G5" t="s">
         <v>10</v>
@@ -544,7 +544,7 @@
         <v>2230</v>
       </c>
       <c r="I5" t="n">
-        <v>1369.76721692688</v>
+        <v>1715.66064897148</v>
       </c>
       <c r="J5" t="s">
         <v>11</v>
@@ -555,20 +555,18 @@
         <v>43952</v>
       </c>
       <c r="B6" t="n">
-        <v>4246.30002644646</v>
+        <v>4735.59380162314</v>
       </c>
       <c r="C6" t="n">
-        <v>1809.7782935037</v>
+        <v>1950.69308571583</v>
       </c>
       <c r="D6" t="n">
-        <v>1249.72720044534</v>
+        <v>1370.29500060109</v>
       </c>
       <c r="E6" t="n">
-        <v>27627.8036114304</v>
-      </c>
-      <c r="F6" t="n">
-        <v>349246.816018609</v>
-      </c>
+        <v>92064.5803004801</v>
+      </c>
+      <c r="F6"/>
       <c r="G6" t="s">
         <v>10</v>
       </c>
@@ -576,7 +574,7 @@
         <v>2468</v>
       </c>
       <c r="I6" t="n">
-        <v>1778.30002644646</v>
+        <v>2267.59380162314</v>
       </c>
       <c r="J6" t="s">
         <v>11</v>
@@ -587,16 +585,16 @@
         <v>43983</v>
       </c>
       <c r="B7" t="n">
-        <v>4998.72422779812</v>
+        <v>5351.71085458638</v>
       </c>
       <c r="C7" t="n">
-        <v>1898.54742543883</v>
+        <v>1947.41486306896</v>
       </c>
       <c r="D7" t="n">
-        <v>1258.90299102099</v>
+        <v>1242.51551600871</v>
       </c>
       <c r="E7" t="n">
-        <v>65130.6867011514</v>
+        <v>237767.84006028</v>
       </c>
       <c r="F7"/>
       <c r="G7" t="s">
@@ -606,7 +604,7 @@
         <v>2788</v>
       </c>
       <c r="I7" t="n">
-        <v>2210.72422779812</v>
+        <v>2563.71085458638</v>
       </c>
       <c r="J7" t="s">
         <v>11</v>
@@ -617,16 +615,16 @@
         <v>44013</v>
       </c>
       <c r="B8" t="n">
-        <v>5715.81948026677</v>
+        <v>5574.33773190922</v>
       </c>
       <c r="C8" t="n">
-        <v>2005.73417052012</v>
+        <v>1708.56252604825</v>
       </c>
       <c r="D8" t="n">
-        <v>1291.01716009133</v>
+        <v>1076.85392991646</v>
       </c>
       <c r="E8" t="n">
-        <v>303630.676784503</v>
+        <v>399720.376053692</v>
       </c>
       <c r="F8"/>
       <c r="G8" t="s">
@@ -636,7 +634,7 @@
         <v>2561</v>
       </c>
       <c r="I8" t="n">
-        <v>3154.81948026677</v>
+        <v>3013.33773190922</v>
       </c>
       <c r="J8" t="s">
         <v>11</v>
@@ -647,16 +645,16 @@
         <v>44044</v>
       </c>
       <c r="B9" t="n">
-        <v>5575.33601978507</v>
+        <v>5120.12839125151</v>
       </c>
       <c r="C9" t="n">
-        <v>1769.74578922137</v>
+        <v>1620.84627388505</v>
       </c>
       <c r="D9" t="n">
-        <v>1237.09379558124</v>
+        <v>997.40042776383</v>
       </c>
       <c r="E9" t="n">
-        <v>7518712.8778815</v>
+        <v>5339521.68242022</v>
       </c>
       <c r="F9"/>
       <c r="G9" t="s">
@@ -666,7 +664,7 @@
         <v>2561</v>
       </c>
       <c r="I9" t="n">
-        <v>3014.33601978507</v>
+        <v>2559.12839125151</v>
       </c>
       <c r="J9" t="s">
         <v>11</v>
@@ -677,13 +675,13 @@
         <v>44075</v>
       </c>
       <c r="B10" t="n">
-        <v>6025.60452039181</v>
+        <v>5091.09190704523</v>
       </c>
       <c r="C10" t="n">
-        <v>1671.95009098248</v>
+        <v>1644.22758228358</v>
       </c>
       <c r="D10" t="n">
-        <v>1156.34665145172</v>
+        <v>976.111405287215</v>
       </c>
       <c r="E10"/>
       <c r="F10"/>
@@ -694,7 +692,7 @@
         <v>2549</v>
       </c>
       <c r="I10" t="n">
-        <v>3476.60452039181</v>
+        <v>2542.09190704523</v>
       </c>
       <c r="J10" t="s">
         <v>11</v>
@@ -705,16 +703,16 @@
         <v>44105</v>
       </c>
       <c r="B11" t="n">
-        <v>4174.51471839304</v>
+        <v>3827.16875182117</v>
       </c>
       <c r="C11" t="n">
-        <v>1408.21433272463</v>
+        <v>1167.17760699397</v>
       </c>
       <c r="D11" t="n">
-        <v>960.678077431697</v>
+        <v>722.905188416615</v>
       </c>
       <c r="E11" t="n">
-        <v>897897.463070358</v>
+        <v>1259697.93878656</v>
       </c>
       <c r="F11"/>
       <c r="G11" t="s">
@@ -724,7 +722,7 @@
         <v>2298</v>
       </c>
       <c r="I11" t="n">
-        <v>1876.51471839304</v>
+        <v>1529.16875182117</v>
       </c>
       <c r="J11" t="s">
         <v>11</v>
@@ -735,16 +733,16 @@
         <v>44136</v>
       </c>
       <c r="B12" t="n">
-        <v>3505.27664977402</v>
+        <v>3414.84999311541</v>
       </c>
       <c r="C12" t="n">
-        <v>1143.88286409215</v>
+        <v>920.053182744755</v>
       </c>
       <c r="D12" t="n">
-        <v>740.463243678927</v>
+        <v>582.108947226955</v>
       </c>
       <c r="E12" t="n">
-        <v>78897.5690352027</v>
+        <v>168826.220583346</v>
       </c>
       <c r="F12"/>
       <c r="G12" t="s">
@@ -754,7 +752,7 @@
         <v>2538</v>
       </c>
       <c r="I12" t="n">
-        <v>967.276649774017</v>
+        <v>876.849993115413</v>
       </c>
       <c r="J12" t="s">
         <v>11</v>
@@ -765,16 +763,16 @@
         <v>44166</v>
       </c>
       <c r="B13" t="n">
-        <v>3233.11488899426</v>
+        <v>3331.41027179979</v>
       </c>
       <c r="C13" t="n">
-        <v>974.237994155916</v>
+        <v>884.860307805028</v>
       </c>
       <c r="D13" t="n">
-        <v>638.677870712424</v>
+        <v>550.764082418839</v>
       </c>
       <c r="E13" t="n">
-        <v>45186.8059147221</v>
+        <v>535900.678451842</v>
       </c>
       <c r="F13"/>
       <c r="G13" t="s">
@@ -784,7 +782,7 @@
         <v>2583</v>
       </c>
       <c r="I13" t="n">
-        <v>650.114888994256</v>
+        <v>748.410271799789</v>
       </c>
       <c r="J13" t="s">
         <v>11</v>
@@ -795,20 +793,18 @@
         <v>44197</v>
       </c>
       <c r="B14" t="n">
-        <v>2486.35296712465</v>
+        <v>2646.43510006159</v>
       </c>
       <c r="C14" t="n">
-        <v>718.898811131472</v>
+        <v>723.18395078322</v>
       </c>
       <c r="D14" t="n">
-        <v>489.63185626132</v>
+        <v>457.984489564453</v>
       </c>
       <c r="E14" t="n">
-        <v>13954.5398174656</v>
-      </c>
-      <c r="F14" t="n">
-        <v>496609.334874462</v>
-      </c>
+        <v>124860.994070765</v>
+      </c>
+      <c r="F14"/>
       <c r="G14" t="s">
         <v>10</v>
       </c>
@@ -816,7 +812,7 @@
         <v>2305</v>
       </c>
       <c r="I14" t="n">
-        <v>181.352967124654</v>
+        <v>341.435100061591</v>
       </c>
       <c r="J14" t="s">
         <v>11</v>
@@ -827,20 +823,18 @@
         <v>44228</v>
       </c>
       <c r="B15" t="n">
-        <v>1956.85117058213</v>
+        <v>2120.42710824842</v>
       </c>
       <c r="C15" t="n">
-        <v>624.421895107958</v>
+        <v>664.501973140329</v>
       </c>
       <c r="D15" t="n">
-        <v>429.69722337457</v>
+        <v>418.94536777285</v>
       </c>
       <c r="E15" t="n">
-        <v>10098.7543786563</v>
-      </c>
-      <c r="F15" t="n">
-        <v>155461.470311291</v>
-      </c>
+        <v>147644.162368181</v>
+      </c>
+      <c r="F15"/>
       <c r="G15" t="s">
         <v>10</v>
       </c>
@@ -848,7 +842,7 @@
         <v>1873</v>
       </c>
       <c r="I15" t="n">
-        <v>83.8511705821338</v>
+        <v>247.427108248417</v>
       </c>
       <c r="J15" t="s">
         <v>11</v>
@@ -859,17 +853,15 @@
         <v>44256</v>
       </c>
       <c r="B16" t="n">
-        <v>3005.38972017024</v>
+        <v>3628.92745888176</v>
       </c>
       <c r="C16" t="n">
-        <v>874.934646736935</v>
+        <v>904.528388847966</v>
       </c>
       <c r="D16" t="n">
-        <v>560.090020253983</v>
-      </c>
-      <c r="E16" t="n">
-        <v>92516.7948899273</v>
-      </c>
+        <v>522.863601302084</v>
+      </c>
+      <c r="E16"/>
       <c r="F16"/>
       <c r="G16" t="s">
         <v>10</v>
@@ -878,7 +870,7 @@
         <v>2885</v>
       </c>
       <c r="I16" t="n">
-        <v>120.38972017024</v>
+        <v>743.927458881764</v>
       </c>
       <c r="J16" t="s">
         <v>11</v>
@@ -889,17 +881,15 @@
         <v>44287</v>
       </c>
       <c r="B17" t="n">
-        <v>3649.32548951151</v>
+        <v>4288.08297411972</v>
       </c>
       <c r="C17" t="n">
-        <v>973.402100363647</v>
+        <v>934.559682646603</v>
       </c>
       <c r="D17" t="n">
-        <v>602.01513204549</v>
-      </c>
-      <c r="E17" t="n">
-        <v>1325664.21491229</v>
-      </c>
+        <v>524.140218502483</v>
+      </c>
+      <c r="E17"/>
       <c r="F17"/>
       <c r="G17" t="s">
         <v>10</v>
@@ -908,7 +898,7 @@
         <v>2808</v>
       </c>
       <c r="I17" t="n">
-        <v>841.325489511507</v>
+        <v>1480.08297411972</v>
       </c>
       <c r="J17" t="s">
         <v>11</v>
@@ -919,13 +909,13 @@
         <v>44317</v>
       </c>
       <c r="B18" t="n">
-        <v>4317.72861512231</v>
+        <v>5171.43581714978</v>
       </c>
       <c r="C18" t="n">
-        <v>1032.76562489763</v>
+        <v>959.945509782564</v>
       </c>
       <c r="D18" t="n">
-        <v>622.525812563305</v>
+        <v>522.944163045073</v>
       </c>
       <c r="E18"/>
       <c r="F18"/>
@@ -936,7 +926,7 @@
         <v>2548</v>
       </c>
       <c r="I18" t="n">
-        <v>1769.72861512231</v>
+        <v>2623.43581714978</v>
       </c>
       <c r="J18" t="s">
         <v>11</v>
@@ -947,13 +937,13 @@
         <v>44348</v>
       </c>
       <c r="B19" t="n">
-        <v>5177.36313377682</v>
+        <v>5962.04147500761</v>
       </c>
       <c r="C19" t="n">
-        <v>1098.44077312814</v>
+        <v>925.290459050197</v>
       </c>
       <c r="D19" t="n">
-        <v>644.710060426617</v>
+        <v>497.569063870257</v>
       </c>
       <c r="E19"/>
       <c r="F19"/>
@@ -964,7 +954,7 @@
         <v>2467</v>
       </c>
       <c r="I19" t="n">
-        <v>2710.36313377682</v>
+        <v>3495.04147500761</v>
       </c>
       <c r="J19" t="s">
         <v>11</v>
@@ -975,13 +965,13 @@
         <v>44378</v>
       </c>
       <c r="B20" t="n">
-        <v>5963.50573474867</v>
+        <v>6200.02169056807</v>
       </c>
       <c r="C20" t="n">
-        <v>1183.13234495817</v>
+        <v>850.057569558464</v>
       </c>
       <c r="D20" t="n">
-        <v>673.860863765554</v>
+        <v>457.120687039836</v>
       </c>
       <c r="E20"/>
       <c r="F20"/>
@@ -992,7 +982,7 @@
         <v>2566</v>
       </c>
       <c r="I20" t="n">
-        <v>3397.50573474867</v>
+        <v>3634.02169056807</v>
       </c>
       <c r="J20" t="s">
         <v>11</v>
@@ -1003,13 +993,13 @@
         <v>44409</v>
       </c>
       <c r="B21" t="n">
-        <v>5849.5132557682</v>
+        <v>5735.17457178426</v>
       </c>
       <c r="C21" t="n">
-        <v>1198.18797157789</v>
+        <v>823.154357848569</v>
       </c>
       <c r="D21" t="n">
-        <v>683.709554996466</v>
+        <v>437.08929334832</v>
       </c>
       <c r="E21"/>
       <c r="F21"/>
@@ -1020,7 +1010,7 @@
         <v>2016</v>
       </c>
       <c r="I21" t="n">
-        <v>3833.5132557682</v>
+        <v>3719.17457178426</v>
       </c>
       <c r="J21" t="s">
         <v>11</v>
@@ -1031,13 +1021,13 @@
         <v>44440</v>
       </c>
       <c r="B22" t="n">
-        <v>6244.32214801761</v>
+        <v>5730.15089278448</v>
       </c>
       <c r="C22" t="n">
-        <v>1157.71669924864</v>
+        <v>835.318711259455</v>
       </c>
       <c r="D22" t="n">
-        <v>722.676738635224</v>
+        <v>432.814212908474</v>
       </c>
       <c r="E22"/>
       <c r="F22"/>
@@ -1048,7 +1038,7 @@
         <v>2321</v>
       </c>
       <c r="I22" t="n">
-        <v>3923.32214801761</v>
+        <v>3409.15089278448</v>
       </c>
       <c r="J22" t="s">
         <v>11</v>
@@ -1059,13 +1049,13 @@
         <v>44470</v>
       </c>
       <c r="B23" t="n">
-        <v>4438.70993924164</v>
+        <v>4225.39071002619</v>
       </c>
       <c r="C23" t="n">
-        <v>998.62145681024</v>
+        <v>649.627010638747</v>
       </c>
       <c r="D23" t="n">
-        <v>570.752100193425</v>
+        <v>352.235025111344</v>
       </c>
       <c r="E23"/>
       <c r="F23"/>
@@ -1076,7 +1066,7 @@
         <v>1994</v>
       </c>
       <c r="I23" t="n">
-        <v>2444.70993924164</v>
+        <v>2231.39071002619</v>
       </c>
       <c r="J23" t="s">
         <v>11</v>
@@ -1087,13 +1077,13 @@
         <v>44501</v>
       </c>
       <c r="B24" t="n">
-        <v>3664.5177292711</v>
+        <v>3689.40116867633</v>
       </c>
       <c r="C24" t="n">
-        <v>789.447732342427</v>
+        <v>542.018425351617</v>
       </c>
       <c r="D24" t="n">
-        <v>470.734204144525</v>
+        <v>301.761820677647</v>
       </c>
       <c r="E24"/>
       <c r="F24"/>
@@ -1104,7 +1094,7 @@
         <v>2218</v>
       </c>
       <c r="I24" t="n">
-        <v>1446.5177292711</v>
+        <v>1471.40116867633</v>
       </c>
       <c r="J24" t="s">
         <v>11</v>
@@ -1115,13 +1105,13 @@
         <v>44531</v>
       </c>
       <c r="B25" t="n">
-        <v>3340.87677674951</v>
+        <v>3566.38084328164</v>
       </c>
       <c r="C25" t="n">
-        <v>696.057765222493</v>
+        <v>526.27708979792</v>
       </c>
       <c r="D25" t="n">
-        <v>422.313926693588</v>
+        <v>290.032289068037</v>
       </c>
       <c r="E25"/>
       <c r="F25"/>
@@ -1132,7 +1122,7 @@
         <v>2513</v>
       </c>
       <c r="I25" t="n">
-        <v>827.876776749509</v>
+        <v>1053.38084328164</v>
       </c>
       <c r="J25" t="s">
         <v>11</v>
@@ -1143,17 +1133,15 @@
         <v>44562</v>
       </c>
       <c r="B26" t="n">
-        <v>2605.16361362248</v>
+        <v>2826.74466581863</v>
       </c>
       <c r="C26" t="n">
-        <v>539.890034502062</v>
+        <v>448.879882370323</v>
       </c>
       <c r="D26" t="n">
-        <v>341.889985617515</v>
-      </c>
-      <c r="E26" t="n">
-        <v>96232.2326144229</v>
-      </c>
+        <v>252.780005275789</v>
+      </c>
+      <c r="E26"/>
       <c r="F26"/>
       <c r="G26" t="s">
         <v>10</v>
@@ -1162,7 +1150,7 @@
         <v>1811</v>
       </c>
       <c r="I26" t="n">
-        <v>794.16361362248</v>
+        <v>1015.74466581863</v>
       </c>
       <c r="J26" t="s">
         <v>11</v>
@@ -1173,17 +1161,15 @@
         <v>44593</v>
       </c>
       <c r="B27" t="n">
-        <v>2081.21138690808</v>
+        <v>2282.5745577371</v>
       </c>
       <c r="C27" t="n">
-        <v>480.367275153743</v>
+        <v>419.422673521611</v>
       </c>
       <c r="D27" t="n">
-        <v>308.636405242566</v>
-      </c>
-      <c r="E27" t="n">
-        <v>43696.1329033903</v>
-      </c>
+        <v>236.218708901575</v>
+      </c>
+      <c r="E27"/>
       <c r="F27"/>
       <c r="G27" t="s">
         <v>10</v>
@@ -1192,7 +1178,7 @@
         <v>1561</v>
       </c>
       <c r="I27" t="n">
-        <v>520.211386908079</v>
+        <v>721.5745577371</v>
       </c>
       <c r="J27" t="s">
         <v>11</v>
@@ -1203,13 +1189,13 @@
         <v>44621</v>
       </c>
       <c r="B28" t="n">
-        <v>3047.83083328836</v>
+        <v>3901.23451798853</v>
       </c>
       <c r="C28" t="n">
-        <v>649.772094417423</v>
+        <v>535.365511903604</v>
       </c>
       <c r="D28" t="n">
-        <v>389.594050377251</v>
+        <v>279.04488422567</v>
       </c>
       <c r="E28"/>
       <c r="F28"/>
@@ -1220,7 +1206,7 @@
         <v>2559</v>
       </c>
       <c r="I28" t="n">
-        <v>488.83083328836</v>
+        <v>1342.23451798853</v>
       </c>
       <c r="J28" t="s">
         <v>11</v>
@@ -1231,13 +1217,13 @@
         <v>44652</v>
       </c>
       <c r="B29" t="n">
-        <v>3766.36135895413</v>
+        <v>4750.61197448123</v>
       </c>
       <c r="C29" t="n">
-        <v>717.54019831555</v>
+        <v>548.739713634145</v>
       </c>
       <c r="D29" t="n">
-        <v>417.338218888163</v>
+        <v>279.311214126855</v>
       </c>
       <c r="E29"/>
       <c r="F29"/>
@@ -1248,7 +1234,7 @@
         <v>2455</v>
       </c>
       <c r="I29" t="n">
-        <v>1311.36135895413</v>
+        <v>2295.61197448123</v>
       </c>
       <c r="J29" t="s">
         <v>11</v>
@@ -1259,13 +1245,13 @@
         <v>44682</v>
       </c>
       <c r="B30" t="n">
-        <v>4532.35080094879</v>
+        <v>5796.20309325781</v>
       </c>
       <c r="C30" t="n">
-        <v>760.183152837621</v>
+        <v>559.678863674626</v>
       </c>
       <c r="D30" t="n">
-        <v>432.579585435459</v>
+        <v>278.509133568503</v>
       </c>
       <c r="E30"/>
       <c r="F30"/>
@@ -1276,7 +1262,7 @@
         <v>2509</v>
       </c>
       <c r="I30" t="n">
-        <v>2023.35080094879</v>
+        <v>3287.20309325781</v>
       </c>
       <c r="J30" t="s">
         <v>11</v>
@@ -1287,13 +1273,13 @@
         <v>44713</v>
       </c>
       <c r="B31" t="n">
-        <v>5391.28562405106</v>
+        <v>6695.38185987752</v>
       </c>
       <c r="C31" t="n">
-        <v>806.820252497415</v>
+        <v>543.221140789709</v>
       </c>
       <c r="D31" t="n">
-        <v>448.786120895985</v>
+        <v>267.987730287899</v>
       </c>
       <c r="E31"/>
       <c r="F31"/>
@@ -1304,7 +1290,7 @@
         <v>2905</v>
       </c>
       <c r="I31" t="n">
-        <v>2486.28562405106</v>
+        <v>3790.38185987752</v>
       </c>
       <c r="J31" t="s">
         <v>11</v>
@@ -1315,13 +1301,13 @@
         <v>44743</v>
       </c>
       <c r="B32" t="n">
-        <v>6255.33344242919</v>
+        <v>6903.69355126081</v>
       </c>
       <c r="C32" t="n">
-        <v>865.440714215065</v>
+        <v>507.668048606258</v>
       </c>
       <c r="D32" t="n">
-        <v>469.072680278969</v>
+        <v>251.048775054353</v>
       </c>
       <c r="E32"/>
       <c r="F32"/>
@@ -1332,7 +1318,7 @@
         <v>2629</v>
       </c>
       <c r="I32" t="n">
-        <v>3626.33344242919</v>
+        <v>4274.69355126081</v>
       </c>
       <c r="J32" t="s">
         <v>11</v>
@@ -1343,13 +1329,13 @@
         <v>44774</v>
       </c>
       <c r="B33" t="n">
-        <v>6068.3635003449</v>
+        <v>6391.84699403943</v>
       </c>
       <c r="C33" t="n">
-        <v>897.91442000032</v>
+        <v>494.208212296258</v>
       </c>
       <c r="D33" t="n">
-        <v>478.010463706142</v>
+        <v>242.253055772973</v>
       </c>
       <c r="E33"/>
       <c r="F33"/>
@@ -1360,7 +1346,7 @@
         <v>2267</v>
       </c>
       <c r="I33" t="n">
-        <v>3801.3635003449</v>
+        <v>4124.84699403943</v>
       </c>
       <c r="J33" t="s">
         <v>11</v>
@@ -1371,13 +1357,13 @@
         <v>44805</v>
       </c>
       <c r="B34" t="n">
-        <v>6450.81849625868</v>
+        <v>6515.48914712139</v>
       </c>
       <c r="C34" t="n">
-        <v>916.041275246779</v>
+        <v>499.043656428714</v>
       </c>
       <c r="D34" t="n">
-        <v>504.083145832228</v>
+        <v>239.990542847857</v>
       </c>
       <c r="E34"/>
       <c r="F34"/>
@@ -1388,7 +1374,7 @@
         <v>2273</v>
       </c>
       <c r="I34" t="n">
-        <v>4177.81849625868</v>
+        <v>4242.48914712139</v>
       </c>
       <c r="J34" t="s">
         <v>11</v>
@@ -1399,13 +1385,13 @@
         <v>44835</v>
       </c>
       <c r="B35" t="n">
-        <v>4611.77206069134</v>
+        <v>4598.91338863031</v>
       </c>
       <c r="C35" t="n">
-        <v>758.65507359426</v>
+        <v>408.032949717222</v>
       </c>
       <c r="D35" t="n">
-        <v>414.735178094148</v>
+        <v>204.527952021793</v>
       </c>
       <c r="E35"/>
       <c r="F35"/>
@@ -1416,7 +1402,7 @@
         <v>2009</v>
       </c>
       <c r="I35" t="n">
-        <v>2602.77206069134</v>
+        <v>2589.91338863031</v>
       </c>
       <c r="J35" t="s">
         <v>11</v>
@@ -1427,13 +1413,13 @@
         <v>44866</v>
       </c>
       <c r="B36" t="n">
-        <v>3807.10159874035</v>
+        <v>3933.68210889492</v>
       </c>
       <c r="C36" t="n">
-        <v>618.934138868747</v>
+        <v>351.773612500541</v>
       </c>
       <c r="D36" t="n">
-        <v>352.78938246395</v>
+        <v>180.899298947246</v>
       </c>
       <c r="E36"/>
       <c r="F36"/>
@@ -1444,7 +1430,7 @@
         <v>1738</v>
       </c>
       <c r="I36" t="n">
-        <v>2069.10159874035</v>
+        <v>2195.68210889492</v>
       </c>
       <c r="J36" t="s">
         <v>11</v>
@@ -1455,13 +1441,13 @@
         <v>44896</v>
       </c>
       <c r="B37" t="n">
-        <v>3478.87066252573</v>
+        <v>3842.8917943125</v>
       </c>
       <c r="C37" t="n">
-        <v>555.118159278263</v>
+        <v>342.792710102623</v>
       </c>
       <c r="D37" t="n">
-        <v>322.242128503652</v>
+        <v>174.981636194989</v>
       </c>
       <c r="E37"/>
       <c r="F37"/>
@@ -1472,7 +1458,7 @@
         <v>1569</v>
       </c>
       <c r="I37" t="n">
-        <v>1909.87066252573</v>
+        <v>2273.8917943125</v>
       </c>
       <c r="J37" t="s">
         <v>11</v>
@@ -1483,13 +1469,13 @@
         <v>44927</v>
       </c>
       <c r="B38" t="n">
-        <v>2721.50292136982</v>
+        <v>3011.6913667323</v>
       </c>
       <c r="C38" t="n">
-        <v>442.653526695428</v>
+        <v>300.217785580931</v>
       </c>
       <c r="D38" t="n">
-        <v>268.331779418447</v>
+        <v>156.560669719758</v>
       </c>
       <c r="E38"/>
       <c r="F38"/>
@@ -1500,7 +1486,7 @@
         <v>1156</v>
       </c>
       <c r="I38" t="n">
-        <v>1565.50292136982</v>
+        <v>1855.6913667323</v>
       </c>
       <c r="J38" t="s">
         <v>11</v>
@@ -1511,17 +1497,15 @@
         <v>44958</v>
       </c>
       <c r="B39" t="n">
-        <v>2220.28361699491</v>
+        <v>2478.56834419721</v>
       </c>
       <c r="C39" t="n">
-        <v>399.049257875761</v>
+        <v>283.273868592962</v>
       </c>
       <c r="D39" t="n">
-        <v>245.739008217369</v>
-      </c>
-      <c r="E39" t="n">
-        <v>1143677.57361713</v>
-      </c>
+        <v>147.983237188412</v>
+      </c>
+      <c r="E39"/>
       <c r="F39"/>
       <c r="G39" t="s">
         <v>10</v>
@@ -1530,7 +1514,7 @@
         <v>1958</v>
       </c>
       <c r="I39" t="n">
-        <v>262.283616994911</v>
+        <v>520.568344197207</v>
       </c>
       <c r="J39" t="s">
         <v>11</v>
@@ -1541,13 +1525,13 @@
         <v>44986</v>
       </c>
       <c r="B40" t="n">
-        <v>3263.98460349818</v>
+        <v>4329.19597514203</v>
       </c>
       <c r="C40" t="n">
-        <v>526.943448500921</v>
+        <v>345.59886110855</v>
       </c>
       <c r="D40" t="n">
-        <v>303.628224801958</v>
+        <v>168.640731753664</v>
       </c>
       <c r="E40"/>
       <c r="F40"/>
@@ -1558,7 +1542,7 @@
         <v>2208</v>
       </c>
       <c r="I40" t="n">
-        <v>1055.98460349818</v>
+        <v>2121.19597514203</v>
       </c>
       <c r="J40" t="s">
         <v>11</v>
@@ -1569,13 +1553,13 @@
         <v>45017</v>
       </c>
       <c r="B41" t="n">
-        <v>3924.78527962295</v>
+        <v>5335.55265165124</v>
       </c>
       <c r="C41" t="n">
-        <v>578.143021176782</v>
+        <v>351.868696757824</v>
       </c>
       <c r="D41" t="n">
-        <v>323.900167214546</v>
+        <v>168.389329628119</v>
       </c>
       <c r="E41"/>
       <c r="F41"/>
@@ -1586,7 +1570,7 @@
         <v>2210</v>
       </c>
       <c r="I41" t="n">
-        <v>1714.78527962295</v>
+        <v>3125.55265165124</v>
       </c>
       <c r="J41" t="s">
         <v>11</v>
@@ -1597,13 +1581,13 @@
         <v>45047</v>
       </c>
       <c r="B42" t="n">
-        <v>4823.8964736406</v>
+        <v>6624.07808580049</v>
       </c>
       <c r="C42" t="n">
-        <v>610.886114991337</v>
+        <v>356.779353955149</v>
       </c>
       <c r="D42" t="n">
-        <v>335.537480792827</v>
+        <v>167.622978555804</v>
       </c>
       <c r="E42"/>
       <c r="F42"/>
@@ -1614,7 +1598,7 @@
         <v>2311</v>
       </c>
       <c r="I42" t="n">
-        <v>2512.8964736406</v>
+        <v>4313.07808580049</v>
       </c>
       <c r="J42" t="s">
         <v>11</v>
@@ -1625,13 +1609,13 @@
         <v>45078</v>
       </c>
       <c r="B43" t="n">
-        <v>5730.83678387194</v>
+        <v>7668.00681394292</v>
       </c>
       <c r="C43" t="n">
-        <v>646.459382909779</v>
+        <v>347.510944094124</v>
       </c>
       <c r="D43" t="n">
-        <v>347.837672726813</v>
+        <v>162.225913517934</v>
       </c>
       <c r="E43"/>
       <c r="F43"/>
@@ -1642,7 +1626,7 @@
         <v>4985</v>
       </c>
       <c r="I43" t="n">
-        <v>745.836783871942</v>
+        <v>2683.00681394292</v>
       </c>
       <c r="J43" t="s">
         <v>11</v>
@@ -1653,13 +1637,13 @@
         <v>45108</v>
       </c>
       <c r="B44" t="n">
-        <v>6641.23134551702</v>
+        <v>7780.05111201386</v>
       </c>
       <c r="C44" t="n">
-        <v>690.564998954682</v>
+        <v>328.213186968585</v>
       </c>
       <c r="D44" t="n">
-        <v>362.933787633291</v>
+        <v>153.685027073003</v>
       </c>
       <c r="E44"/>
       <c r="F44"/>
@@ -1670,7 +1654,7 @@
         <v>13425</v>
       </c>
       <c r="I44" t="n">
-        <v>-6783.76865448298</v>
+        <v>-5644.94888798614</v>
       </c>
       <c r="J44" t="s">
         <v>12</v>
@@ -1681,13 +1665,13 @@
         <v>45139</v>
       </c>
       <c r="B45" t="n">
-        <v>6441.11039462377</v>
+        <v>7370.89025149841</v>
       </c>
       <c r="C45" t="n">
-        <v>715.850315401207</v>
+        <v>320.416578526313</v>
       </c>
       <c r="D45" t="n">
-        <v>370.248001501663</v>
+        <v>149.040075961942</v>
       </c>
       <c r="E45"/>
       <c r="F45"/>
@@ -1698,7 +1682,7 @@
         <v>12742</v>
       </c>
       <c r="I45" t="n">
-        <v>-6300.88960537623</v>
+        <v>-5371.10974850159</v>
       </c>
       <c r="J45" t="s">
         <v>12</v>
@@ -1709,13 +1693,13 @@
         <v>45170</v>
       </c>
       <c r="B46" t="n">
-        <v>6768.40239639744</v>
+        <v>7698.05301695965</v>
       </c>
       <c r="C46" t="n">
-        <v>768.051438790466</v>
+        <v>322.269593216942</v>
       </c>
       <c r="D46" t="n">
-        <v>389.299076406541</v>
+        <v>147.588905258695</v>
       </c>
       <c r="E46"/>
       <c r="F46"/>
@@ -1726,7 +1710,7 @@
         <v>125264</v>
       </c>
       <c r="I46" t="n">
-        <v>-118495.597603603</v>
+        <v>-117565.94698304</v>
       </c>
       <c r="J46" t="s">
         <v>12</v>
@@ -1737,13 +1721,13 @@
         <v>45200</v>
       </c>
       <c r="B47" t="n">
-        <v>4839.4381343276</v>
+        <v>5225.60999518132</v>
       </c>
       <c r="C47" t="n">
-        <v>618.071788619858</v>
+        <v>272.614070997128</v>
       </c>
       <c r="D47" t="n">
-        <v>328.222568423419</v>
+        <v>129.519156630559</v>
       </c>
       <c r="E47"/>
       <c r="F47"/>
@@ -1754,7 +1738,7 @@
         <v>23111</v>
       </c>
       <c r="I47" t="n">
-        <v>-18271.5618656724</v>
+        <v>-17885.3900048187</v>
       </c>
       <c r="J47" t="s">
         <v>12</v>
@@ -1765,13 +1749,13 @@
         <v>45231</v>
       </c>
       <c r="B48" t="n">
-        <v>4087.66719058101</v>
+        <v>4371.99107539849</v>
       </c>
       <c r="C48" t="n">
-        <v>514.5604806704</v>
+        <v>240.484673980927</v>
       </c>
       <c r="D48" t="n">
-        <v>284.546381709979</v>
+        <v>116.970561507254</v>
       </c>
       <c r="E48"/>
       <c r="F48"/>
@@ -1782,7 +1766,7 @@
         <v>4940</v>
       </c>
       <c r="I48" t="n">
-        <v>-852.332809418995</v>
+        <v>-568.008924601514</v>
       </c>
       <c r="J48" t="s">
         <v>12</v>
@@ -1793,13 +1777,13 @@
         <v>45261</v>
       </c>
       <c r="B49" t="n">
-        <v>3714.50769315771</v>
+        <v>4279.60685973435</v>
       </c>
       <c r="C49" t="n">
-        <v>466.583399557315</v>
+        <v>234.88081969284</v>
       </c>
       <c r="D49" t="n">
-        <v>262.777583403187</v>
+        <v>113.593071101089</v>
       </c>
       <c r="E49"/>
       <c r="F49"/>
@@ -1810,10 +1794,10 @@
         <v>3873</v>
       </c>
       <c r="I49" t="n">
-        <v>-158.492306842294</v>
+        <v>406.606859734355</v>
       </c>
       <c r="J49" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/outcome/appendix/forecast/AHC.xlsx
+++ b/outcome/appendix/forecast/AHC.xlsx
@@ -427,19 +427,19 @@
         <v>43831</v>
       </c>
       <c r="B2" t="n">
-        <v>2432.00802381751</v>
+        <v>2402.70771303565</v>
       </c>
       <c r="C2" t="n">
-        <v>1635.80052684553</v>
+        <v>1633.27197842897</v>
       </c>
       <c r="D2" t="n">
-        <v>1383.23771496354</v>
+        <v>1384.00234377686</v>
       </c>
       <c r="E2" t="n">
-        <v>3607.08380933851</v>
+        <v>3562.82377142008</v>
       </c>
       <c r="F2" t="n">
-        <v>4727.97382857943</v>
+        <v>4638.25478630822</v>
       </c>
       <c r="G2" t="s">
         <v>10</v>
@@ -448,7 +448,7 @@
         <v>2139</v>
       </c>
       <c r="I2" t="n">
-        <v>293.008023817506</v>
+        <v>263.707713035646</v>
       </c>
       <c r="J2" t="s">
         <v>11</v>
@@ -459,19 +459,19 @@
         <v>43862</v>
       </c>
       <c r="B3" t="n">
-        <v>2047.68343267175</v>
+        <v>2001.48026539679</v>
       </c>
       <c r="C3" t="n">
-        <v>1355.18039838338</v>
+        <v>1286.3292057678</v>
       </c>
       <c r="D3" t="n">
-        <v>1090.18289828212</v>
+        <v>1041.63386085741</v>
       </c>
       <c r="E3" t="n">
-        <v>4131.58137947471</v>
+        <v>3746.084923398</v>
       </c>
       <c r="F3" t="n">
-        <v>6349.9671086707</v>
+        <v>5616.72825375658</v>
       </c>
       <c r="G3" t="s">
         <v>10</v>
@@ -480,7 +480,7 @@
         <v>1672</v>
       </c>
       <c r="I3" t="n">
-        <v>375.683432671753</v>
+        <v>329.480265396795</v>
       </c>
       <c r="J3" t="s">
         <v>11</v>
@@ -491,19 +491,19 @@
         <v>43891</v>
       </c>
       <c r="B4" t="n">
-        <v>3417.72945323418</v>
+        <v>3303.14656355986</v>
       </c>
       <c r="C4" t="n">
-        <v>1861.79673881865</v>
+        <v>1861.59646857859</v>
       </c>
       <c r="D4" t="n">
-        <v>1468.37047407788</v>
+        <v>1383.39476343865</v>
       </c>
       <c r="E4" t="n">
-        <v>15291.3593747605</v>
+        <v>12737.292061492</v>
       </c>
       <c r="F4" t="n">
-        <v>49439.1298488694</v>
+        <v>36196.4878391849</v>
       </c>
       <c r="G4" t="s">
         <v>10</v>
@@ -512,7 +512,7 @@
         <v>2011</v>
       </c>
       <c r="I4" t="n">
-        <v>1406.72945323418</v>
+        <v>1292.14656355986</v>
       </c>
       <c r="J4" t="s">
         <v>11</v>
@@ -523,19 +523,19 @@
         <v>43922</v>
       </c>
       <c r="B5" t="n">
-        <v>3945.66064897148</v>
+        <v>3862.47123435148</v>
       </c>
       <c r="C5" t="n">
-        <v>1870.16853899921</v>
+        <v>1869.92943209503</v>
       </c>
       <c r="D5" t="n">
-        <v>1415.23224748408</v>
+        <v>1353.23465982113</v>
       </c>
       <c r="E5" t="n">
-        <v>32238.7826270897</v>
+        <v>27347.753696258</v>
       </c>
       <c r="F5" t="n">
-        <v>448710.252894131</v>
+        <v>269092.62668537</v>
       </c>
       <c r="G5" t="s">
         <v>10</v>
@@ -544,7 +544,7 @@
         <v>2230</v>
       </c>
       <c r="I5" t="n">
-        <v>1715.66064897148</v>
+        <v>1632.47123435148</v>
       </c>
       <c r="J5" t="s">
         <v>11</v>
@@ -555,16 +555,16 @@
         <v>43952</v>
       </c>
       <c r="B6" t="n">
-        <v>4735.59380162314</v>
+        <v>4703.07151478457</v>
       </c>
       <c r="C6" t="n">
-        <v>1950.69308571583</v>
+        <v>1950.39123042886</v>
       </c>
       <c r="D6" t="n">
-        <v>1370.29500060109</v>
+        <v>1342.68659042265</v>
       </c>
       <c r="E6" t="n">
-        <v>92064.5803004801</v>
+        <v>89971.3495982655</v>
       </c>
       <c r="F6"/>
       <c r="G6" t="s">
@@ -574,7 +574,7 @@
         <v>2468</v>
       </c>
       <c r="I6" t="n">
-        <v>2267.59380162314</v>
+        <v>2235.07151478457</v>
       </c>
       <c r="J6" t="s">
         <v>11</v>
@@ -585,16 +585,16 @@
         <v>43983</v>
       </c>
       <c r="B7" t="n">
-        <v>5351.71085458638</v>
+        <v>5479.18520963283</v>
       </c>
       <c r="C7" t="n">
-        <v>1947.41486306896</v>
+        <v>1978.30536581012</v>
       </c>
       <c r="D7" t="n">
-        <v>1242.51551600871</v>
+        <v>1250.81940828264</v>
       </c>
       <c r="E7" t="n">
-        <v>237767.84006028</v>
+        <v>384857.05554238</v>
       </c>
       <c r="F7"/>
       <c r="G7" t="s">
@@ -604,7 +604,7 @@
         <v>2788</v>
       </c>
       <c r="I7" t="n">
-        <v>2563.71085458638</v>
+        <v>2691.18520963283</v>
       </c>
       <c r="J7" t="s">
         <v>11</v>
@@ -615,16 +615,16 @@
         <v>44013</v>
       </c>
       <c r="B8" t="n">
-        <v>5574.33773190922</v>
+        <v>5831.63552480539</v>
       </c>
       <c r="C8" t="n">
-        <v>1708.56252604825</v>
+        <v>1833.29797695987</v>
       </c>
       <c r="D8" t="n">
-        <v>1076.85392991646</v>
+        <v>1129.62512460966</v>
       </c>
       <c r="E8" t="n">
-        <v>399720.376053692</v>
+        <v>4665495.81414338</v>
       </c>
       <c r="F8"/>
       <c r="G8" t="s">
@@ -634,7 +634,7 @@
         <v>2561</v>
       </c>
       <c r="I8" t="n">
-        <v>3013.33773190922</v>
+        <v>3270.63552480539</v>
       </c>
       <c r="J8" t="s">
         <v>11</v>
@@ -645,17 +645,15 @@
         <v>44044</v>
       </c>
       <c r="B9" t="n">
-        <v>5120.12839125151</v>
+        <v>5536.96770723621</v>
       </c>
       <c r="C9" t="n">
-        <v>1620.84627388505</v>
+        <v>1762.8312812186</v>
       </c>
       <c r="D9" t="n">
-        <v>997.40042776383</v>
-      </c>
-      <c r="E9" t="n">
-        <v>5339521.68242022</v>
-      </c>
+        <v>1053.86862311406</v>
+      </c>
+      <c r="E9"/>
       <c r="F9"/>
       <c r="G9" t="s">
         <v>10</v>
@@ -664,7 +662,7 @@
         <v>2561</v>
       </c>
       <c r="I9" t="n">
-        <v>2559.12839125151</v>
+        <v>2975.96770723621</v>
       </c>
       <c r="J9" t="s">
         <v>11</v>
@@ -675,13 +673,13 @@
         <v>44075</v>
       </c>
       <c r="B10" t="n">
-        <v>5091.09190704523</v>
+        <v>5768.8377841194</v>
       </c>
       <c r="C10" t="n">
-        <v>1644.22758228358</v>
+        <v>1671.98302734375</v>
       </c>
       <c r="D10" t="n">
-        <v>976.111405287215</v>
+        <v>1034.67229117553</v>
       </c>
       <c r="E10"/>
       <c r="F10"/>
@@ -692,7 +690,7 @@
         <v>2549</v>
       </c>
       <c r="I10" t="n">
-        <v>2542.09190704523</v>
+        <v>3219.8377841194</v>
       </c>
       <c r="J10" t="s">
         <v>11</v>
@@ -703,17 +701,15 @@
         <v>44105</v>
       </c>
       <c r="B11" t="n">
-        <v>3827.16875182117</v>
+        <v>4137.77005626341</v>
       </c>
       <c r="C11" t="n">
-        <v>1167.17760699397</v>
+        <v>1261.99042438784</v>
       </c>
       <c r="D11" t="n">
-        <v>722.905188416615</v>
-      </c>
-      <c r="E11" t="n">
-        <v>1259697.93878656</v>
-      </c>
+        <v>757.270494224822</v>
+      </c>
+      <c r="E11"/>
       <c r="F11"/>
       <c r="G11" t="s">
         <v>10</v>
@@ -722,7 +718,7 @@
         <v>2298</v>
       </c>
       <c r="I11" t="n">
-        <v>1529.16875182117</v>
+        <v>1839.77005626341</v>
       </c>
       <c r="J11" t="s">
         <v>11</v>
@@ -733,16 +729,16 @@
         <v>44136</v>
       </c>
       <c r="B12" t="n">
-        <v>3414.84999311541</v>
+        <v>3585.27852827111</v>
       </c>
       <c r="C12" t="n">
-        <v>920.053182744755</v>
+        <v>969.884891962845</v>
       </c>
       <c r="D12" t="n">
-        <v>582.108947226955</v>
+        <v>597.215863853324</v>
       </c>
       <c r="E12" t="n">
-        <v>168826.220583346</v>
+        <v>2808459.7752213</v>
       </c>
       <c r="F12"/>
       <c r="G12" t="s">
@@ -752,7 +748,7 @@
         <v>2538</v>
       </c>
       <c r="I12" t="n">
-        <v>876.849993115413</v>
+        <v>1047.27852827111</v>
       </c>
       <c r="J12" t="s">
         <v>11</v>
@@ -763,16 +759,16 @@
         <v>44166</v>
       </c>
       <c r="B13" t="n">
-        <v>3331.41027179979</v>
+        <v>3400.5790400826</v>
       </c>
       <c r="C13" t="n">
-        <v>884.860307805028</v>
+        <v>869.151839116258</v>
       </c>
       <c r="D13" t="n">
-        <v>550.764082418839</v>
+        <v>532.82576370469</v>
       </c>
       <c r="E13" t="n">
-        <v>535900.678451842</v>
+        <v>8476308.29797601</v>
       </c>
       <c r="F13"/>
       <c r="G13" t="s">
@@ -782,7 +778,7 @@
         <v>2583</v>
       </c>
       <c r="I13" t="n">
-        <v>748.410271799789</v>
+        <v>817.579040082598</v>
       </c>
       <c r="J13" t="s">
         <v>11</v>
@@ -793,16 +789,16 @@
         <v>44197</v>
       </c>
       <c r="B14" t="n">
-        <v>2646.43510006159</v>
+        <v>2666.94836943159</v>
       </c>
       <c r="C14" t="n">
-        <v>723.18395078322</v>
+        <v>704.009170897208</v>
       </c>
       <c r="D14" t="n">
-        <v>457.984489564453</v>
+        <v>439.302563861012</v>
       </c>
       <c r="E14" t="n">
-        <v>124860.994070765</v>
+        <v>347543.659964896</v>
       </c>
       <c r="F14"/>
       <c r="G14" t="s">
@@ -812,7 +808,7 @@
         <v>2305</v>
       </c>
       <c r="I14" t="n">
-        <v>341.435100061591</v>
+        <v>361.948369431594</v>
       </c>
       <c r="J14" t="s">
         <v>11</v>
@@ -823,16 +819,16 @@
         <v>44228</v>
       </c>
       <c r="B15" t="n">
-        <v>2120.42710824842</v>
+        <v>2111.01013958924</v>
       </c>
       <c r="C15" t="n">
-        <v>664.501973140329</v>
+        <v>620.810268875412</v>
       </c>
       <c r="D15" t="n">
-        <v>418.94536777285</v>
+        <v>388.120142978043</v>
       </c>
       <c r="E15" t="n">
-        <v>147644.162368181</v>
+        <v>260132.623364233</v>
       </c>
       <c r="F15"/>
       <c r="G15" t="s">
@@ -842,7 +838,7 @@
         <v>1873</v>
       </c>
       <c r="I15" t="n">
-        <v>247.427108248417</v>
+        <v>238.010139589237</v>
       </c>
       <c r="J15" t="s">
         <v>11</v>
@@ -853,13 +849,13 @@
         <v>44256</v>
       </c>
       <c r="B16" t="n">
-        <v>3628.92745888176</v>
+        <v>3560.90270146014</v>
       </c>
       <c r="C16" t="n">
-        <v>904.528388847966</v>
+        <v>826.880181493472</v>
       </c>
       <c r="D16" t="n">
-        <v>522.863601302084</v>
+        <v>474.604885209213</v>
       </c>
       <c r="E16"/>
       <c r="F16"/>
@@ -870,7 +866,7 @@
         <v>2885</v>
       </c>
       <c r="I16" t="n">
-        <v>743.927458881764</v>
+        <v>675.902701460135</v>
       </c>
       <c r="J16" t="s">
         <v>11</v>
@@ -881,13 +877,13 @@
         <v>44287</v>
       </c>
       <c r="B17" t="n">
-        <v>4288.08297411972</v>
+        <v>4287.16347024264</v>
       </c>
       <c r="C17" t="n">
-        <v>934.559682646603</v>
+        <v>858.952611988526</v>
       </c>
       <c r="D17" t="n">
-        <v>524.140218502483</v>
+        <v>476.526717925373</v>
       </c>
       <c r="E17"/>
       <c r="F17"/>
@@ -898,7 +894,7 @@
         <v>2808</v>
       </c>
       <c r="I17" t="n">
-        <v>1480.08297411972</v>
+        <v>1479.16347024264</v>
       </c>
       <c r="J17" t="s">
         <v>11</v>
@@ -909,13 +905,13 @@
         <v>44317</v>
       </c>
       <c r="B18" t="n">
-        <v>5171.43581714978</v>
+        <v>5318.80127227683</v>
       </c>
       <c r="C18" t="n">
-        <v>959.945509782564</v>
+        <v>895.596690032804</v>
       </c>
       <c r="D18" t="n">
-        <v>522.944163045073</v>
+        <v>479.496617903859</v>
       </c>
       <c r="E18"/>
       <c r="F18"/>
@@ -926,7 +922,7 @@
         <v>2548</v>
       </c>
       <c r="I18" t="n">
-        <v>2623.43581714978</v>
+        <v>2770.80127227683</v>
       </c>
       <c r="J18" t="s">
         <v>11</v>
@@ -937,13 +933,13 @@
         <v>44348</v>
       </c>
       <c r="B19" t="n">
-        <v>5962.04147500761</v>
+        <v>6302.64851567387</v>
       </c>
       <c r="C19" t="n">
-        <v>925.290459050197</v>
+        <v>881.072998909501</v>
       </c>
       <c r="D19" t="n">
-        <v>497.569063870257</v>
+        <v>462.018927935921</v>
       </c>
       <c r="E19"/>
       <c r="F19"/>
@@ -954,7 +950,7 @@
         <v>2467</v>
       </c>
       <c r="I19" t="n">
-        <v>3495.04147500761</v>
+        <v>3835.64851567387</v>
       </c>
       <c r="J19" t="s">
         <v>11</v>
@@ -965,13 +961,13 @@
         <v>44378</v>
       </c>
       <c r="B20" t="n">
-        <v>6200.02169056807</v>
+        <v>6785.41798584851</v>
       </c>
       <c r="C20" t="n">
-        <v>850.057569558464</v>
+        <v>838.993547247307</v>
       </c>
       <c r="D20" t="n">
-        <v>457.120687039836</v>
+        <v>434.891358352609</v>
       </c>
       <c r="E20"/>
       <c r="F20"/>
@@ -982,7 +978,7 @@
         <v>2566</v>
       </c>
       <c r="I20" t="n">
-        <v>3634.02169056807</v>
+        <v>4219.41798584851</v>
       </c>
       <c r="J20" t="s">
         <v>11</v>
@@ -993,13 +989,13 @@
         <v>44409</v>
       </c>
       <c r="B21" t="n">
-        <v>5735.17457178426</v>
+        <v>6578.57463473791</v>
       </c>
       <c r="C21" t="n">
-        <v>823.154357848569</v>
+        <v>817.637357323032</v>
       </c>
       <c r="D21" t="n">
-        <v>437.08929334832</v>
+        <v>416.623850938778</v>
       </c>
       <c r="E21"/>
       <c r="F21"/>
@@ -1010,7 +1006,7 @@
         <v>2016</v>
       </c>
       <c r="I21" t="n">
-        <v>3719.17457178426</v>
+        <v>4562.57463473791</v>
       </c>
       <c r="J21" t="s">
         <v>11</v>
@@ -1021,13 +1017,13 @@
         <v>44440</v>
       </c>
       <c r="B22" t="n">
-        <v>5730.15089278448</v>
+        <v>7039.96563853553</v>
       </c>
       <c r="C22" t="n">
-        <v>835.318711259455</v>
+        <v>831.376402430949</v>
       </c>
       <c r="D22" t="n">
-        <v>432.814212908474</v>
+        <v>411.690781905318</v>
       </c>
       <c r="E22"/>
       <c r="F22"/>
@@ -1038,7 +1034,7 @@
         <v>2321</v>
       </c>
       <c r="I22" t="n">
-        <v>3409.15089278448</v>
+        <v>4718.96563853553</v>
       </c>
       <c r="J22" t="s">
         <v>11</v>
@@ -1049,13 +1045,13 @@
         <v>44470</v>
       </c>
       <c r="B23" t="n">
-        <v>4225.39071002619</v>
+        <v>4758.21348127281</v>
       </c>
       <c r="C23" t="n">
-        <v>649.627010638747</v>
+        <v>644.002529459521</v>
       </c>
       <c r="D23" t="n">
-        <v>352.235025111344</v>
+        <v>334.393830553005</v>
       </c>
       <c r="E23"/>
       <c r="F23"/>
@@ -1066,7 +1062,7 @@
         <v>1994</v>
       </c>
       <c r="I23" t="n">
-        <v>2231.39071002619</v>
+        <v>2764.21348127281</v>
       </c>
       <c r="J23" t="s">
         <v>11</v>
@@ -1077,13 +1073,13 @@
         <v>44501</v>
       </c>
       <c r="B24" t="n">
-        <v>3689.40116867633</v>
+        <v>3977.0024738841</v>
       </c>
       <c r="C24" t="n">
-        <v>542.018425351617</v>
+        <v>529.289324195627</v>
       </c>
       <c r="D24" t="n">
-        <v>301.761820677647</v>
+        <v>283.28455511289</v>
       </c>
       <c r="E24"/>
       <c r="F24"/>
@@ -1094,7 +1090,7 @@
         <v>2218</v>
       </c>
       <c r="I24" t="n">
-        <v>1471.40116867633</v>
+        <v>1759.0024738841</v>
       </c>
       <c r="J24" t="s">
         <v>11</v>
@@ -1105,13 +1101,13 @@
         <v>44531</v>
       </c>
       <c r="B25" t="n">
-        <v>3566.38084328164</v>
+        <v>3723.80738543777</v>
       </c>
       <c r="C25" t="n">
-        <v>526.27708979792</v>
+        <v>486.206679596038</v>
       </c>
       <c r="D25" t="n">
-        <v>290.032289068037</v>
+        <v>260.68868923277</v>
       </c>
       <c r="E25"/>
       <c r="F25"/>
@@ -1122,7 +1118,7 @@
         <v>2513</v>
       </c>
       <c r="I25" t="n">
-        <v>1053.38084328164</v>
+        <v>1210.80738543777</v>
       </c>
       <c r="J25" t="s">
         <v>11</v>
@@ -1133,13 +1129,13 @@
         <v>44562</v>
       </c>
       <c r="B26" t="n">
-        <v>2826.74466581863</v>
+        <v>2930.82299282115</v>
       </c>
       <c r="C26" t="n">
-        <v>448.879882370323</v>
+        <v>412.59358200493</v>
       </c>
       <c r="D26" t="n">
-        <v>252.780005275789</v>
+        <v>226.189806045405</v>
       </c>
       <c r="E26"/>
       <c r="F26"/>
@@ -1150,7 +1146,7 @@
         <v>1811</v>
       </c>
       <c r="I26" t="n">
-        <v>1015.74466581863</v>
+        <v>1119.82299282115</v>
       </c>
       <c r="J26" t="s">
         <v>11</v>
@@ -1161,13 +1157,13 @@
         <v>44593</v>
       </c>
       <c r="B27" t="n">
-        <v>2282.5745577371</v>
+        <v>2327.83724354733</v>
       </c>
       <c r="C27" t="n">
-        <v>419.422673521611</v>
+        <v>373.028901856287</v>
       </c>
       <c r="D27" t="n">
-        <v>236.218708901575</v>
+        <v>205.879613117828</v>
       </c>
       <c r="E27"/>
       <c r="F27"/>
@@ -1178,7 +1174,7 @@
         <v>1561</v>
       </c>
       <c r="I27" t="n">
-        <v>721.5745577371</v>
+        <v>766.837243547332</v>
       </c>
       <c r="J27" t="s">
         <v>11</v>
@@ -1189,13 +1185,13 @@
         <v>44621</v>
       </c>
       <c r="B28" t="n">
-        <v>3901.23451798853</v>
+        <v>3899.33224917551</v>
       </c>
       <c r="C28" t="n">
-        <v>535.365511903604</v>
+        <v>464.194486355487</v>
       </c>
       <c r="D28" t="n">
-        <v>279.04488422567</v>
+        <v>237.67573067288</v>
       </c>
       <c r="E28"/>
       <c r="F28"/>
@@ -1206,7 +1202,7 @@
         <v>2559</v>
       </c>
       <c r="I28" t="n">
-        <v>1342.23451798853</v>
+        <v>1340.33224917551</v>
       </c>
       <c r="J28" t="s">
         <v>11</v>
@@ -1217,13 +1213,13 @@
         <v>44652</v>
       </c>
       <c r="B29" t="n">
-        <v>4750.61197448123</v>
+        <v>4882.40766957884</v>
       </c>
       <c r="C29" t="n">
-        <v>548.739713634145</v>
+        <v>476.177766463081</v>
       </c>
       <c r="D29" t="n">
-        <v>279.311214126855</v>
+        <v>237.481785616232</v>
       </c>
       <c r="E29"/>
       <c r="F29"/>
@@ -1234,7 +1230,7 @@
         <v>2455</v>
       </c>
       <c r="I29" t="n">
-        <v>2295.61197448123</v>
+        <v>2427.40766957884</v>
       </c>
       <c r="J29" t="s">
         <v>11</v>
@@ -1245,13 +1241,13 @@
         <v>44682</v>
       </c>
       <c r="B30" t="n">
-        <v>5796.20309325781</v>
+        <v>6239.55667771609</v>
       </c>
       <c r="C30" t="n">
-        <v>559.678863674626</v>
+        <v>489.634288162944</v>
       </c>
       <c r="D30" t="n">
-        <v>278.509133568503</v>
+        <v>237.604287033893</v>
       </c>
       <c r="E30"/>
       <c r="F30"/>
@@ -1262,7 +1258,7 @@
         <v>2509</v>
       </c>
       <c r="I30" t="n">
-        <v>3287.20309325781</v>
+        <v>3730.55667771609</v>
       </c>
       <c r="J30" t="s">
         <v>11</v>
@@ -1273,13 +1269,13 @@
         <v>44713</v>
       </c>
       <c r="B31" t="n">
-        <v>6695.38185987752</v>
+        <v>7438.61048195994</v>
       </c>
       <c r="C31" t="n">
-        <v>543.221140789709</v>
+        <v>481.829606275177</v>
       </c>
       <c r="D31" t="n">
-        <v>267.987730287899</v>
+        <v>230.407258274738</v>
       </c>
       <c r="E31"/>
       <c r="F31"/>
@@ -1290,7 +1286,7 @@
         <v>2905</v>
       </c>
       <c r="I31" t="n">
-        <v>3790.38185987752</v>
+        <v>4533.61048195994</v>
       </c>
       <c r="J31" t="s">
         <v>11</v>
@@ -1301,13 +1297,13 @@
         <v>44743</v>
       </c>
       <c r="B32" t="n">
-        <v>6903.69355126081</v>
+        <v>8067.95444923309</v>
       </c>
       <c r="C32" t="n">
-        <v>507.668048606258</v>
+        <v>462.609879544857</v>
       </c>
       <c r="D32" t="n">
-        <v>251.048775054353</v>
+        <v>219.649354476913</v>
       </c>
       <c r="E32"/>
       <c r="F32"/>
@@ -1318,7 +1314,7 @@
         <v>2629</v>
       </c>
       <c r="I32" t="n">
-        <v>4274.69355126081</v>
+        <v>5438.95444923309</v>
       </c>
       <c r="J32" t="s">
         <v>11</v>
@@ -1329,13 +1325,13 @@
         <v>44774</v>
       </c>
       <c r="B33" t="n">
-        <v>6391.84699403943</v>
+        <v>8017.27685795281</v>
       </c>
       <c r="C33" t="n">
-        <v>494.208212296258</v>
+        <v>451.915901865992</v>
       </c>
       <c r="D33" t="n">
-        <v>242.253055772973</v>
+        <v>212.027629824068</v>
       </c>
       <c r="E33"/>
       <c r="F33"/>
@@ -1346,7 +1342,7 @@
         <v>2267</v>
       </c>
       <c r="I33" t="n">
-        <v>4124.84699403943</v>
+        <v>5750.27685795281</v>
       </c>
       <c r="J33" t="s">
         <v>11</v>
@@ -1357,13 +1353,13 @@
         <v>44805</v>
       </c>
       <c r="B34" t="n">
-        <v>6515.48914712139</v>
+        <v>9114.38352647233</v>
       </c>
       <c r="C34" t="n">
-        <v>499.043656428714</v>
+        <v>455.790631074488</v>
       </c>
       <c r="D34" t="n">
-        <v>239.990542847857</v>
+        <v>209.306575083733</v>
       </c>
       <c r="E34"/>
       <c r="F34"/>
@@ -1374,7 +1370,7 @@
         <v>2273</v>
       </c>
       <c r="I34" t="n">
-        <v>4242.48914712139</v>
+        <v>6841.38352647233</v>
       </c>
       <c r="J34" t="s">
         <v>11</v>
@@ -1385,13 +1381,13 @@
         <v>44835</v>
       </c>
       <c r="B35" t="n">
-        <v>4598.91338863031</v>
+        <v>5498.08976634855</v>
       </c>
       <c r="C35" t="n">
-        <v>408.032949717222</v>
+        <v>373.688438016733</v>
       </c>
       <c r="D35" t="n">
-        <v>204.527952021793</v>
+        <v>178.902257068195</v>
       </c>
       <c r="E35"/>
       <c r="F35"/>
@@ -1402,7 +1398,7 @@
         <v>2009</v>
       </c>
       <c r="I35" t="n">
-        <v>2589.91338863031</v>
+        <v>3489.08976634855</v>
       </c>
       <c r="J35" t="s">
         <v>11</v>
@@ -1413,13 +1409,13 @@
         <v>44866</v>
       </c>
       <c r="B36" t="n">
-        <v>3933.68210889492</v>
+        <v>4401.76012320064</v>
       </c>
       <c r="C36" t="n">
-        <v>351.773612500541</v>
+        <v>319.503549808776</v>
       </c>
       <c r="D36" t="n">
-        <v>180.899298947246</v>
+        <v>157.342846257264</v>
       </c>
       <c r="E36"/>
       <c r="F36"/>
@@ -1430,7 +1426,7 @@
         <v>1738</v>
       </c>
       <c r="I36" t="n">
-        <v>2195.68210889492</v>
+        <v>2663.76012320064</v>
       </c>
       <c r="J36" t="s">
         <v>11</v>
@@ -1441,13 +1437,13 @@
         <v>44896</v>
       </c>
       <c r="B37" t="n">
-        <v>3842.8917943125</v>
+        <v>4130.66224082151</v>
       </c>
       <c r="C37" t="n">
-        <v>342.792710102623</v>
+        <v>297.73148947968</v>
       </c>
       <c r="D37" t="n">
-        <v>174.981636194989</v>
+        <v>147.145743131277</v>
       </c>
       <c r="E37"/>
       <c r="F37"/>
@@ -1458,7 +1454,7 @@
         <v>1569</v>
       </c>
       <c r="I37" t="n">
-        <v>2273.8917943125</v>
+        <v>2561.66224082151</v>
       </c>
       <c r="J37" t="s">
         <v>11</v>
@@ -1469,13 +1465,13 @@
         <v>44927</v>
       </c>
       <c r="B38" t="n">
-        <v>3011.6913667323</v>
+        <v>3228.09523297912</v>
       </c>
       <c r="C38" t="n">
-        <v>300.217785580931</v>
+        <v>260.285302625306</v>
       </c>
       <c r="D38" t="n">
-        <v>156.560669719758</v>
+        <v>131.458224009392</v>
       </c>
       <c r="E38"/>
       <c r="F38"/>
@@ -1486,7 +1482,7 @@
         <v>1156</v>
       </c>
       <c r="I38" t="n">
-        <v>1855.6913667323</v>
+        <v>2072.09523297912</v>
       </c>
       <c r="J38" t="s">
         <v>11</v>
@@ -1497,13 +1493,13 @@
         <v>44958</v>
       </c>
       <c r="B39" t="n">
-        <v>2478.56834419721</v>
+        <v>2598.9045410717</v>
       </c>
       <c r="C39" t="n">
-        <v>283.273868592962</v>
+        <v>239.17294926951</v>
       </c>
       <c r="D39" t="n">
-        <v>147.983237188412</v>
+        <v>121.757060890488</v>
       </c>
       <c r="E39"/>
       <c r="F39"/>
@@ -1514,7 +1510,7 @@
         <v>1958</v>
       </c>
       <c r="I39" t="n">
-        <v>520.568344197207</v>
+        <v>640.904541071697</v>
       </c>
       <c r="J39" t="s">
         <v>11</v>
@@ -1525,13 +1521,13 @@
         <v>44986</v>
       </c>
       <c r="B40" t="n">
-        <v>4329.19597514203</v>
+        <v>4464.92660154191</v>
       </c>
       <c r="C40" t="n">
-        <v>345.59886110855</v>
+        <v>284.017885206015</v>
       </c>
       <c r="D40" t="n">
-        <v>168.640731753664</v>
+        <v>135.560357846874</v>
       </c>
       <c r="E40"/>
       <c r="F40"/>
@@ -1542,7 +1538,7 @@
         <v>2208</v>
       </c>
       <c r="I40" t="n">
-        <v>2121.19597514203</v>
+        <v>2256.92660154191</v>
       </c>
       <c r="J40" t="s">
         <v>11</v>
@@ -1553,13 +1549,13 @@
         <v>45017</v>
       </c>
       <c r="B41" t="n">
-        <v>5335.55265165124</v>
+        <v>5740.36449480839</v>
       </c>
       <c r="C41" t="n">
-        <v>351.868696757824</v>
+        <v>288.783617936611</v>
       </c>
       <c r="D41" t="n">
-        <v>168.389329628119</v>
+        <v>134.966915942958</v>
       </c>
       <c r="E41"/>
       <c r="F41"/>
@@ -1570,7 +1566,7 @@
         <v>2210</v>
       </c>
       <c r="I41" t="n">
-        <v>3125.55265165124</v>
+        <v>3530.36449480839</v>
       </c>
       <c r="J41" t="s">
         <v>11</v>
@@ -1581,13 +1577,13 @@
         <v>45047</v>
       </c>
       <c r="B42" t="n">
-        <v>6624.07808580049</v>
+        <v>7647.62828626251</v>
       </c>
       <c r="C42" t="n">
-        <v>356.779353955149</v>
+        <v>294.140923419574</v>
       </c>
       <c r="D42" t="n">
-        <v>167.622978555804</v>
+        <v>134.511802652381</v>
       </c>
       <c r="E42"/>
       <c r="F42"/>
@@ -1598,7 +1594,7 @@
         <v>2311</v>
       </c>
       <c r="I42" t="n">
-        <v>4313.07808580049</v>
+        <v>5336.62828626251</v>
       </c>
       <c r="J42" t="s">
         <v>11</v>
@@ -1609,13 +1605,13 @@
         <v>45078</v>
       </c>
       <c r="B43" t="n">
-        <v>7668.00681394292</v>
+        <v>9229.14436338499</v>
       </c>
       <c r="C43" t="n">
-        <v>347.510944094124</v>
+        <v>289.41780500164</v>
       </c>
       <c r="D43" t="n">
-        <v>162.225913517934</v>
+        <v>130.893319739744</v>
       </c>
       <c r="E43"/>
       <c r="F43"/>
@@ -1626,7 +1622,7 @@
         <v>4985</v>
       </c>
       <c r="I43" t="n">
-        <v>2683.00681394292</v>
+        <v>4244.14436338499</v>
       </c>
       <c r="J43" t="s">
         <v>11</v>
@@ -1637,13 +1633,13 @@
         <v>45108</v>
       </c>
       <c r="B44" t="n">
-        <v>7780.05111201386</v>
+        <v>10091.8999476586</v>
       </c>
       <c r="C44" t="n">
-        <v>328.213186968585</v>
+        <v>279.312250831187</v>
       </c>
       <c r="D44" t="n">
-        <v>153.685027073003</v>
+        <v>125.716461636838</v>
       </c>
       <c r="E44"/>
       <c r="F44"/>
@@ -1654,7 +1650,7 @@
         <v>13425</v>
       </c>
       <c r="I44" t="n">
-        <v>-5644.94888798614</v>
+        <v>-3333.10005234145</v>
       </c>
       <c r="J44" t="s">
         <v>12</v>
@@ -1665,13 +1661,13 @@
         <v>45139</v>
       </c>
       <c r="B45" t="n">
-        <v>7370.89025149841</v>
+        <v>10495.8093384189</v>
       </c>
       <c r="C45" t="n">
-        <v>320.416578526313</v>
+        <v>273.258946939084</v>
       </c>
       <c r="D45" t="n">
-        <v>149.040075961942</v>
+        <v>121.904066679036</v>
       </c>
       <c r="E45"/>
       <c r="F45"/>
@@ -1682,7 +1678,7 @@
         <v>12742</v>
       </c>
       <c r="I45" t="n">
-        <v>-5371.10974850159</v>
+        <v>-2246.19066158111</v>
       </c>
       <c r="J45" t="s">
         <v>12</v>
@@ -1693,13 +1689,13 @@
         <v>45170</v>
       </c>
       <c r="B46" t="n">
-        <v>7698.05301695965</v>
+        <v>13160.8096358545</v>
       </c>
       <c r="C46" t="n">
-        <v>322.269593216942</v>
+        <v>274.145278265379</v>
       </c>
       <c r="D46" t="n">
-        <v>147.588905258695</v>
+        <v>120.263054191758</v>
       </c>
       <c r="E46"/>
       <c r="F46"/>
@@ -1710,7 +1706,7 @@
         <v>125264</v>
       </c>
       <c r="I46" t="n">
-        <v>-117565.94698304</v>
+        <v>-112103.190364146</v>
       </c>
       <c r="J46" t="s">
         <v>12</v>
@@ -1721,13 +1717,13 @@
         <v>45200</v>
       </c>
       <c r="B47" t="n">
-        <v>5225.60999518132</v>
+        <v>6783.51432919974</v>
       </c>
       <c r="C47" t="n">
-        <v>272.614070997128</v>
+        <v>233.411535381495</v>
       </c>
       <c r="D47" t="n">
-        <v>129.519156630559</v>
+        <v>106.114599983461</v>
       </c>
       <c r="E47"/>
       <c r="F47"/>
@@ -1738,7 +1734,7 @@
         <v>23111</v>
       </c>
       <c r="I47" t="n">
-        <v>-17885.3900048187</v>
+        <v>-16327.4856708003</v>
       </c>
       <c r="J47" t="s">
         <v>12</v>
@@ -1749,13 +1745,13 @@
         <v>45231</v>
       </c>
       <c r="B48" t="n">
-        <v>4371.99107539849</v>
+        <v>5147.58087891026</v>
       </c>
       <c r="C48" t="n">
-        <v>240.484673980927</v>
+        <v>205.103379075145</v>
       </c>
       <c r="D48" t="n">
-        <v>116.970561507254</v>
+        <v>95.6158162908046</v>
       </c>
       <c r="E48"/>
       <c r="F48"/>
@@ -1766,10 +1762,10 @@
         <v>4940</v>
       </c>
       <c r="I48" t="n">
-        <v>-568.008924601514</v>
+        <v>207.580878910259</v>
       </c>
       <c r="J48" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="49">
@@ -1777,13 +1773,13 @@
         <v>45261</v>
       </c>
       <c r="B49" t="n">
-        <v>4279.60685973435</v>
+        <v>4793.7758168203</v>
       </c>
       <c r="C49" t="n">
-        <v>234.88081969284</v>
+        <v>193.094486033486</v>
       </c>
       <c r="D49" t="n">
-        <v>113.593071101089</v>
+        <v>90.3851874628271</v>
       </c>
       <c r="E49"/>
       <c r="F49"/>
@@ -1794,7 +1790,7 @@
         <v>3873</v>
       </c>
       <c r="I49" t="n">
-        <v>406.606859734355</v>
+        <v>920.7758168203</v>
       </c>
       <c r="J49" t="s">
         <v>11</v>

--- a/outcome/appendix/forecast/AHC.xlsx
+++ b/outcome/appendix/forecast/AHC.xlsx
@@ -427,7 +427,7 @@
         <v>43831</v>
       </c>
       <c r="B2" t="n">
-        <v>2402.70771303565</v>
+        <v>2407.26005985234</v>
       </c>
       <c r="C2" t="n">
         <v>1633.27197842897</v>
@@ -448,7 +448,7 @@
         <v>2139</v>
       </c>
       <c r="I2" t="n">
-        <v>263.707713035646</v>
+        <v>268.260059852337</v>
       </c>
       <c r="J2" t="s">
         <v>11</v>
@@ -459,7 +459,7 @@
         <v>43862</v>
       </c>
       <c r="B3" t="n">
-        <v>2001.48026539679</v>
+        <v>2018.8998822743</v>
       </c>
       <c r="C3" t="n">
         <v>1286.3292057678</v>
@@ -480,7 +480,7 @@
         <v>1672</v>
       </c>
       <c r="I3" t="n">
-        <v>329.480265396795</v>
+        <v>346.8998822743</v>
       </c>
       <c r="J3" t="s">
         <v>11</v>
@@ -491,7 +491,7 @@
         <v>43891</v>
       </c>
       <c r="B4" t="n">
-        <v>3303.14656355986</v>
+        <v>3329.38216340279</v>
       </c>
       <c r="C4" t="n">
         <v>1861.59646857859</v>
@@ -512,7 +512,7 @@
         <v>2011</v>
       </c>
       <c r="I4" t="n">
-        <v>1292.14656355986</v>
+        <v>1318.38216340279</v>
       </c>
       <c r="J4" t="s">
         <v>11</v>
@@ -523,7 +523,7 @@
         <v>43922</v>
       </c>
       <c r="B5" t="n">
-        <v>3862.47123435148</v>
+        <v>3863.88302031525</v>
       </c>
       <c r="C5" t="n">
         <v>1869.92943209503</v>
@@ -544,7 +544,7 @@
         <v>2230</v>
       </c>
       <c r="I5" t="n">
-        <v>1632.47123435148</v>
+        <v>1633.88302031525</v>
       </c>
       <c r="J5" t="s">
         <v>11</v>
@@ -555,7 +555,7 @@
         <v>43952</v>
       </c>
       <c r="B6" t="n">
-        <v>4703.07151478457</v>
+        <v>4699.73474512466</v>
       </c>
       <c r="C6" t="n">
         <v>1950.39123042886</v>
@@ -574,7 +574,7 @@
         <v>2468</v>
       </c>
       <c r="I6" t="n">
-        <v>2235.07151478457</v>
+        <v>2231.73474512466</v>
       </c>
       <c r="J6" t="s">
         <v>11</v>
@@ -585,7 +585,7 @@
         <v>43983</v>
       </c>
       <c r="B7" t="n">
-        <v>5479.18520963283</v>
+        <v>5473.83545062425</v>
       </c>
       <c r="C7" t="n">
         <v>1978.30536581012</v>
@@ -604,7 +604,7 @@
         <v>2788</v>
       </c>
       <c r="I7" t="n">
-        <v>2691.18520963283</v>
+        <v>2685.83545062425</v>
       </c>
       <c r="J7" t="s">
         <v>11</v>
@@ -615,7 +615,7 @@
         <v>44013</v>
       </c>
       <c r="B8" t="n">
-        <v>5831.63552480539</v>
+        <v>5866.59335341536</v>
       </c>
       <c r="C8" t="n">
         <v>1833.29797695987</v>
@@ -634,7 +634,7 @@
         <v>2561</v>
       </c>
       <c r="I8" t="n">
-        <v>3270.63552480539</v>
+        <v>3305.59335341536</v>
       </c>
       <c r="J8" t="s">
         <v>11</v>
@@ -645,7 +645,7 @@
         <v>44044</v>
       </c>
       <c r="B9" t="n">
-        <v>5536.96770723621</v>
+        <v>5521.43998099211</v>
       </c>
       <c r="C9" t="n">
         <v>1762.8312812186</v>
@@ -662,7 +662,7 @@
         <v>2561</v>
       </c>
       <c r="I9" t="n">
-        <v>2975.96770723621</v>
+        <v>2960.43998099211</v>
       </c>
       <c r="J9" t="s">
         <v>11</v>
@@ -673,7 +673,7 @@
         <v>44075</v>
       </c>
       <c r="B10" t="n">
-        <v>5768.8377841194</v>
+        <v>5743.47124526783</v>
       </c>
       <c r="C10" t="n">
         <v>1671.98302734375</v>
@@ -690,7 +690,7 @@
         <v>2549</v>
       </c>
       <c r="I10" t="n">
-        <v>3219.8377841194</v>
+        <v>3194.47124526783</v>
       </c>
       <c r="J10" t="s">
         <v>11</v>
@@ -701,7 +701,7 @@
         <v>44105</v>
       </c>
       <c r="B11" t="n">
-        <v>4137.77005626341</v>
+        <v>4138.56377056243</v>
       </c>
       <c r="C11" t="n">
         <v>1261.99042438784</v>
@@ -718,7 +718,7 @@
         <v>2298</v>
       </c>
       <c r="I11" t="n">
-        <v>1839.77005626341</v>
+        <v>1840.56377056243</v>
       </c>
       <c r="J11" t="s">
         <v>11</v>
@@ -729,7 +729,7 @@
         <v>44136</v>
       </c>
       <c r="B12" t="n">
-        <v>3585.27852827111</v>
+        <v>3581.73618091591</v>
       </c>
       <c r="C12" t="n">
         <v>969.884891962845</v>
@@ -748,7 +748,7 @@
         <v>2538</v>
       </c>
       <c r="I12" t="n">
-        <v>1047.27852827111</v>
+        <v>1043.73618091591</v>
       </c>
       <c r="J12" t="s">
         <v>11</v>
@@ -759,7 +759,7 @@
         <v>44166</v>
       </c>
       <c r="B13" t="n">
-        <v>3400.5790400826</v>
+        <v>3358.21554474726</v>
       </c>
       <c r="C13" t="n">
         <v>869.151839116258</v>
@@ -778,7 +778,7 @@
         <v>2583</v>
       </c>
       <c r="I13" t="n">
-        <v>817.579040082598</v>
+        <v>775.215544747256</v>
       </c>
       <c r="J13" t="s">
         <v>11</v>
@@ -789,7 +789,7 @@
         <v>44197</v>
       </c>
       <c r="B14" t="n">
-        <v>2666.94836943159</v>
+        <v>2634.07828418953</v>
       </c>
       <c r="C14" t="n">
         <v>704.009170897208</v>
@@ -808,7 +808,7 @@
         <v>2305</v>
       </c>
       <c r="I14" t="n">
-        <v>361.948369431594</v>
+        <v>329.078284189532</v>
       </c>
       <c r="J14" t="s">
         <v>11</v>
@@ -819,7 +819,7 @@
         <v>44228</v>
       </c>
       <c r="B15" t="n">
-        <v>2111.01013958924</v>
+        <v>2124.71474965008</v>
       </c>
       <c r="C15" t="n">
         <v>620.810268875412</v>
@@ -838,7 +838,7 @@
         <v>1873</v>
       </c>
       <c r="I15" t="n">
-        <v>238.010139589237</v>
+        <v>251.714749650082</v>
       </c>
       <c r="J15" t="s">
         <v>11</v>
@@ -849,7 +849,7 @@
         <v>44256</v>
       </c>
       <c r="B16" t="n">
-        <v>3560.90270146014</v>
+        <v>3630.19251646588</v>
       </c>
       <c r="C16" t="n">
         <v>826.880181493472</v>
@@ -866,7 +866,7 @@
         <v>2885</v>
       </c>
       <c r="I16" t="n">
-        <v>675.902701460135</v>
+        <v>745.192516465883</v>
       </c>
       <c r="J16" t="s">
         <v>11</v>
@@ -877,7 +877,7 @@
         <v>44287</v>
       </c>
       <c r="B17" t="n">
-        <v>4287.16347024264</v>
+        <v>4320.58659716922</v>
       </c>
       <c r="C17" t="n">
         <v>858.952611988526</v>
@@ -894,7 +894,7 @@
         <v>2808</v>
       </c>
       <c r="I17" t="n">
-        <v>1479.16347024264</v>
+        <v>1512.58659716922</v>
       </c>
       <c r="J17" t="s">
         <v>11</v>
@@ -905,7 +905,7 @@
         <v>44317</v>
       </c>
       <c r="B18" t="n">
-        <v>5318.80127227683</v>
+        <v>5323.74142614634</v>
       </c>
       <c r="C18" t="n">
         <v>895.596690032804</v>
@@ -922,7 +922,7 @@
         <v>2548</v>
       </c>
       <c r="I18" t="n">
-        <v>2770.80127227683</v>
+        <v>2775.74142614634</v>
       </c>
       <c r="J18" t="s">
         <v>11</v>
@@ -933,7 +933,7 @@
         <v>44348</v>
       </c>
       <c r="B19" t="n">
-        <v>6302.64851567387</v>
+        <v>6316.81722334845</v>
       </c>
       <c r="C19" t="n">
         <v>881.072998909501</v>
@@ -950,7 +950,7 @@
         <v>2467</v>
       </c>
       <c r="I19" t="n">
-        <v>3835.64851567387</v>
+        <v>3849.81722334845</v>
       </c>
       <c r="J19" t="s">
         <v>11</v>
@@ -961,7 +961,7 @@
         <v>44378</v>
       </c>
       <c r="B20" t="n">
-        <v>6785.41798584851</v>
+        <v>6796.63931037023</v>
       </c>
       <c r="C20" t="n">
         <v>838.993547247307</v>
@@ -978,7 +978,7 @@
         <v>2566</v>
       </c>
       <c r="I20" t="n">
-        <v>4219.41798584851</v>
+        <v>4230.63931037023</v>
       </c>
       <c r="J20" t="s">
         <v>11</v>
@@ -989,7 +989,7 @@
         <v>44409</v>
       </c>
       <c r="B21" t="n">
-        <v>6578.57463473791</v>
+        <v>6496.64523287042</v>
       </c>
       <c r="C21" t="n">
         <v>817.637357323032</v>
@@ -1006,7 +1006,7 @@
         <v>2016</v>
       </c>
       <c r="I21" t="n">
-        <v>4562.57463473791</v>
+        <v>4480.64523287042</v>
       </c>
       <c r="J21" t="s">
         <v>11</v>
@@ -1017,7 +1017,7 @@
         <v>44440</v>
       </c>
       <c r="B22" t="n">
-        <v>7039.96563853553</v>
+        <v>7012.06497656716</v>
       </c>
       <c r="C22" t="n">
         <v>831.376402430949</v>
@@ -1034,7 +1034,7 @@
         <v>2321</v>
       </c>
       <c r="I22" t="n">
-        <v>4718.96563853553</v>
+        <v>4691.06497656716</v>
       </c>
       <c r="J22" t="s">
         <v>11</v>
@@ -1045,7 +1045,7 @@
         <v>44470</v>
       </c>
       <c r="B23" t="n">
-        <v>4758.21348127281</v>
+        <v>4749.79352760644</v>
       </c>
       <c r="C23" t="n">
         <v>644.002529459521</v>
@@ -1062,7 +1062,7 @@
         <v>1994</v>
       </c>
       <c r="I23" t="n">
-        <v>2764.21348127281</v>
+        <v>2755.79352760644</v>
       </c>
       <c r="J23" t="s">
         <v>11</v>
@@ -1073,7 +1073,7 @@
         <v>44501</v>
       </c>
       <c r="B24" t="n">
-        <v>3977.0024738841</v>
+        <v>3963.84516926215</v>
       </c>
       <c r="C24" t="n">
         <v>529.289324195627</v>
@@ -1090,7 +1090,7 @@
         <v>2218</v>
       </c>
       <c r="I24" t="n">
-        <v>1759.0024738841</v>
+        <v>1745.84516926215</v>
       </c>
       <c r="J24" t="s">
         <v>11</v>
@@ -1101,7 +1101,7 @@
         <v>44531</v>
       </c>
       <c r="B25" t="n">
-        <v>3723.80738543777</v>
+        <v>3655.09879317301</v>
       </c>
       <c r="C25" t="n">
         <v>486.206679596038</v>
@@ -1118,7 +1118,7 @@
         <v>2513</v>
       </c>
       <c r="I25" t="n">
-        <v>1210.80738543777</v>
+        <v>1142.09879317301</v>
       </c>
       <c r="J25" t="s">
         <v>11</v>
@@ -1129,7 +1129,7 @@
         <v>44562</v>
       </c>
       <c r="B26" t="n">
-        <v>2930.82299282115</v>
+        <v>2842.95192899957</v>
       </c>
       <c r="C26" t="n">
         <v>412.59358200493</v>
@@ -1146,7 +1146,7 @@
         <v>1811</v>
       </c>
       <c r="I26" t="n">
-        <v>1119.82299282115</v>
+        <v>1031.95192899957</v>
       </c>
       <c r="J26" t="s">
         <v>11</v>
@@ -1157,7 +1157,7 @@
         <v>44593</v>
       </c>
       <c r="B27" t="n">
-        <v>2327.83724354733</v>
+        <v>2310.93269990942</v>
       </c>
       <c r="C27" t="n">
         <v>373.028901856287</v>
@@ -1174,7 +1174,7 @@
         <v>1561</v>
       </c>
       <c r="I27" t="n">
-        <v>766.837243547332</v>
+        <v>749.932699909424</v>
       </c>
       <c r="J27" t="s">
         <v>11</v>
@@ -1185,7 +1185,7 @@
         <v>44621</v>
       </c>
       <c r="B28" t="n">
-        <v>3899.33224917551</v>
+        <v>4031.52322080693</v>
       </c>
       <c r="C28" t="n">
         <v>464.194486355487</v>
@@ -1202,7 +1202,7 @@
         <v>2559</v>
       </c>
       <c r="I28" t="n">
-        <v>1340.33224917551</v>
+        <v>1472.52322080693</v>
       </c>
       <c r="J28" t="s">
         <v>11</v>
@@ -1213,7 +1213,7 @@
         <v>44652</v>
       </c>
       <c r="B29" t="n">
-        <v>4882.40766957884</v>
+        <v>4954.20338559115</v>
       </c>
       <c r="C29" t="n">
         <v>476.177766463081</v>
@@ -1230,7 +1230,7 @@
         <v>2455</v>
       </c>
       <c r="I29" t="n">
-        <v>2427.40766957884</v>
+        <v>2499.20338559115</v>
       </c>
       <c r="J29" t="s">
         <v>11</v>
@@ -1241,7 +1241,7 @@
         <v>44682</v>
       </c>
       <c r="B30" t="n">
-        <v>6239.55667771609</v>
+        <v>6279.8752145587</v>
       </c>
       <c r="C30" t="n">
         <v>489.634288162944</v>
@@ -1258,7 +1258,7 @@
         <v>2509</v>
       </c>
       <c r="I30" t="n">
-        <v>3730.55667771609</v>
+        <v>3770.8752145587</v>
       </c>
       <c r="J30" t="s">
         <v>11</v>
@@ -1269,7 +1269,7 @@
         <v>44713</v>
       </c>
       <c r="B31" t="n">
-        <v>7438.61048195994</v>
+        <v>7486.9677543891</v>
       </c>
       <c r="C31" t="n">
         <v>481.829606275177</v>
@@ -1286,7 +1286,7 @@
         <v>2905</v>
       </c>
       <c r="I31" t="n">
-        <v>4533.61048195994</v>
+        <v>4581.9677543891</v>
       </c>
       <c r="J31" t="s">
         <v>11</v>
@@ -1297,7 +1297,7 @@
         <v>44743</v>
       </c>
       <c r="B32" t="n">
-        <v>8067.95444923309</v>
+        <v>8089.73202577776</v>
       </c>
       <c r="C32" t="n">
         <v>462.609879544857</v>
@@ -1314,7 +1314,7 @@
         <v>2629</v>
       </c>
       <c r="I32" t="n">
-        <v>5438.95444923309</v>
+        <v>5460.73202577776</v>
       </c>
       <c r="J32" t="s">
         <v>11</v>
@@ -1325,7 +1325,7 @@
         <v>44774</v>
       </c>
       <c r="B33" t="n">
-        <v>8017.27685795281</v>
+        <v>7870.76745816951</v>
       </c>
       <c r="C33" t="n">
         <v>451.915901865992</v>
@@ -1342,7 +1342,7 @@
         <v>2267</v>
       </c>
       <c r="I33" t="n">
-        <v>5750.27685795281</v>
+        <v>5603.76745816951</v>
       </c>
       <c r="J33" t="s">
         <v>11</v>
@@ -1353,7 +1353,7 @@
         <v>44805</v>
       </c>
       <c r="B34" t="n">
-        <v>9114.38352647233</v>
+        <v>9055.33050385817</v>
       </c>
       <c r="C34" t="n">
         <v>455.790631074488</v>
@@ -1370,7 +1370,7 @@
         <v>2273</v>
       </c>
       <c r="I34" t="n">
-        <v>6841.38352647233</v>
+        <v>6782.33050385817</v>
       </c>
       <c r="J34" t="s">
         <v>11</v>
@@ -1381,7 +1381,7 @@
         <v>44835</v>
       </c>
       <c r="B35" t="n">
-        <v>5498.08976634855</v>
+        <v>5467.28669573564</v>
       </c>
       <c r="C35" t="n">
         <v>373.688438016733</v>
@@ -1398,7 +1398,7 @@
         <v>2009</v>
       </c>
       <c r="I35" t="n">
-        <v>3489.08976634855</v>
+        <v>3458.28669573564</v>
       </c>
       <c r="J35" t="s">
         <v>11</v>
@@ -1409,7 +1409,7 @@
         <v>44866</v>
       </c>
       <c r="B36" t="n">
-        <v>4401.76012320064</v>
+        <v>4379.98854504579</v>
       </c>
       <c r="C36" t="n">
         <v>319.503549808776</v>
@@ -1426,7 +1426,7 @@
         <v>1738</v>
       </c>
       <c r="I36" t="n">
-        <v>2663.76012320064</v>
+        <v>2641.98854504579</v>
       </c>
       <c r="J36" t="s">
         <v>11</v>
@@ -1437,7 +1437,7 @@
         <v>44896</v>
       </c>
       <c r="B37" t="n">
-        <v>4130.66224082151</v>
+        <v>4039.45106721789</v>
       </c>
       <c r="C37" t="n">
         <v>297.73148947968</v>
@@ -1454,7 +1454,7 @@
         <v>1569</v>
       </c>
       <c r="I37" t="n">
-        <v>2561.66224082151</v>
+        <v>2470.45106721789</v>
       </c>
       <c r="J37" t="s">
         <v>11</v>
@@ -1465,7 +1465,7 @@
         <v>44927</v>
       </c>
       <c r="B38" t="n">
-        <v>3228.09523297912</v>
+        <v>3076.57510938606</v>
       </c>
       <c r="C38" t="n">
         <v>260.285302625306</v>
@@ -1482,7 +1482,7 @@
         <v>1156</v>
       </c>
       <c r="I38" t="n">
-        <v>2072.09523297912</v>
+        <v>1920.57510938606</v>
       </c>
       <c r="J38" t="s">
         <v>11</v>
@@ -1493,7 +1493,7 @@
         <v>44958</v>
       </c>
       <c r="B39" t="n">
-        <v>2598.9045410717</v>
+        <v>2529.6618615194</v>
       </c>
       <c r="C39" t="n">
         <v>239.17294926951</v>
@@ -1510,7 +1510,7 @@
         <v>1958</v>
       </c>
       <c r="I39" t="n">
-        <v>640.904541071697</v>
+        <v>571.661861519399</v>
       </c>
       <c r="J39" t="s">
         <v>11</v>
@@ -1521,7 +1521,7 @@
         <v>44986</v>
       </c>
       <c r="B40" t="n">
-        <v>4464.92660154191</v>
+        <v>4656.81699760469</v>
       </c>
       <c r="C40" t="n">
         <v>284.017885206015</v>
@@ -1538,7 +1538,7 @@
         <v>2208</v>
       </c>
       <c r="I40" t="n">
-        <v>2256.92660154191</v>
+        <v>2448.81699760469</v>
       </c>
       <c r="J40" t="s">
         <v>11</v>
@@ -1549,7 +1549,7 @@
         <v>45017</v>
       </c>
       <c r="B41" t="n">
-        <v>5740.36449480839</v>
+        <v>5830.93670650761</v>
       </c>
       <c r="C41" t="n">
         <v>288.783617936611</v>
@@ -1566,7 +1566,7 @@
         <v>2210</v>
       </c>
       <c r="I41" t="n">
-        <v>3530.36449480839</v>
+        <v>3620.93670650761</v>
       </c>
       <c r="J41" t="s">
         <v>11</v>
@@ -1577,7 +1577,7 @@
         <v>45047</v>
       </c>
       <c r="B42" t="n">
-        <v>7647.62828626251</v>
+        <v>7711.91496244647</v>
       </c>
       <c r="C42" t="n">
         <v>294.140923419574</v>
@@ -1594,7 +1594,7 @@
         <v>2311</v>
       </c>
       <c r="I42" t="n">
-        <v>5336.62828626251</v>
+        <v>5400.91496244647</v>
       </c>
       <c r="J42" t="s">
         <v>11</v>
@@ -1605,7 +1605,7 @@
         <v>45078</v>
       </c>
       <c r="B43" t="n">
-        <v>9229.14436338499</v>
+        <v>9351.4530621272</v>
       </c>
       <c r="C43" t="n">
         <v>289.41780500164</v>
@@ -1622,7 +1622,7 @@
         <v>4985</v>
       </c>
       <c r="I43" t="n">
-        <v>4244.14436338499</v>
+        <v>4366.4530621272</v>
       </c>
       <c r="J43" t="s">
         <v>11</v>
@@ -1633,7 +1633,7 @@
         <v>45108</v>
       </c>
       <c r="B44" t="n">
-        <v>10091.8999476586</v>
+        <v>10112.6852209278</v>
       </c>
       <c r="C44" t="n">
         <v>279.312250831187</v>
@@ -1650,7 +1650,7 @@
         <v>13425</v>
       </c>
       <c r="I44" t="n">
-        <v>-3333.10005234145</v>
+        <v>-3312.31477907216</v>
       </c>
       <c r="J44" t="s">
         <v>12</v>
@@ -1661,7 +1661,7 @@
         <v>45139</v>
       </c>
       <c r="B45" t="n">
-        <v>10495.8093384189</v>
+        <v>10298.3624216335</v>
       </c>
       <c r="C45" t="n">
         <v>273.258946939084</v>
@@ -1678,7 +1678,7 @@
         <v>12742</v>
       </c>
       <c r="I45" t="n">
-        <v>-2246.19066158111</v>
+        <v>-2443.63757836652</v>
       </c>
       <c r="J45" t="s">
         <v>12</v>
@@ -1689,7 +1689,7 @@
         <v>45170</v>
       </c>
       <c r="B46" t="n">
-        <v>13160.8096358545</v>
+        <v>13023.05875165</v>
       </c>
       <c r="C46" t="n">
         <v>274.145278265379</v>
@@ -1706,7 +1706,7 @@
         <v>125264</v>
       </c>
       <c r="I46" t="n">
-        <v>-112103.190364146</v>
+        <v>-112240.94124835</v>
       </c>
       <c r="J46" t="s">
         <v>12</v>
@@ -1717,7 +1717,7 @@
         <v>45200</v>
       </c>
       <c r="B47" t="n">
-        <v>6783.51432919974</v>
+        <v>6687.96012936425</v>
       </c>
       <c r="C47" t="n">
         <v>233.411535381495</v>
@@ -1734,7 +1734,7 @@
         <v>23111</v>
       </c>
       <c r="I47" t="n">
-        <v>-16327.4856708003</v>
+        <v>-16423.0398706357</v>
       </c>
       <c r="J47" t="s">
         <v>12</v>
@@ -1745,7 +1745,7 @@
         <v>45231</v>
       </c>
       <c r="B48" t="n">
-        <v>5147.58087891026</v>
+        <v>5074.62523025919</v>
       </c>
       <c r="C48" t="n">
         <v>205.103379075145</v>
@@ -1762,7 +1762,7 @@
         <v>4940</v>
       </c>
       <c r="I48" t="n">
-        <v>207.580878910259</v>
+        <v>134.625230259192</v>
       </c>
       <c r="J48" t="s">
         <v>11</v>
@@ -1773,7 +1773,7 @@
         <v>45261</v>
       </c>
       <c r="B49" t="n">
-        <v>4793.7758168203</v>
+        <v>4647.81820001556</v>
       </c>
       <c r="C49" t="n">
         <v>193.094486033486</v>
@@ -1790,7 +1790,7 @@
         <v>3873</v>
       </c>
       <c r="I49" t="n">
-        <v>920.7758168203</v>
+        <v>774.818200015562</v>
       </c>
       <c r="J49" t="s">
         <v>11</v>
